--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$53</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +42,6 @@
     <t>终端日均充电收益(元)</t>
   </si>
   <si>
-    <t>终端日均充电时长(小时)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单枪日均充电次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,13 +49,18 @@
     <t>终端日均利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>终端日均充电时长(分钟)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -94,12 +98,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -423,7 +430,7 @@
     <col min="10" max="10" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,10 +438,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -446,408 +453,1731 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>45901</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C2" s="4">
+        <v>156.39370078740157</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.10860673665791776</v>
+      </c>
+      <c r="E2" s="4">
+        <v>91.854921259842556</v>
+      </c>
+      <c r="F2" s="4">
+        <v>31.875748031496052</v>
+      </c>
+      <c r="G2" s="3">
+        <v>35.239880173195054</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3.6692913385826773</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>45901</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C3" s="4">
+        <v>181.25</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.12586805555555555</v>
+      </c>
+      <c r="E3" s="4">
+        <v>132.98933333333338</v>
+      </c>
+      <c r="F3" s="4">
+        <v>33.275555555555542</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44.02405517241381</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.5555555555555554</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>45902</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C4" s="4">
+        <v>129.21259842519686</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8.9730971128608936E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>76.107960629921266</v>
+      </c>
+      <c r="F4" s="4">
+        <v>26.144645669291336</v>
+      </c>
+      <c r="G4" s="3">
+        <v>35.34080804387569</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.3228346456692912</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>45902</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="4">
+        <v>164.94444444444446</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.11454475308641977</v>
+      </c>
+      <c r="E5" s="4">
+        <v>124.90647222222226</v>
+      </c>
+      <c r="F5" s="4">
+        <v>31.909722222222221</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45.435833614011464</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.416666666666667</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>45903</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C6" s="4">
+        <v>147.75590551181102</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.10260826771653543</v>
+      </c>
+      <c r="E6" s="4">
+        <v>83.729897637795276</v>
+      </c>
+      <c r="F6" s="4">
+        <v>28.977480314960641</v>
+      </c>
+      <c r="G6" s="3">
+        <v>34.000629896083133</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.4960629921259843</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>45903</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="4">
+        <v>171.77777777777777</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.11929012345679012</v>
+      </c>
+      <c r="E7" s="4">
+        <v>122.4306944444445</v>
+      </c>
+      <c r="F7" s="4">
+        <v>28.711944444444427</v>
+      </c>
+      <c r="G7" s="3">
+        <v>42.763631953428224</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>45904</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="4">
+        <v>151.29133858267716</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.10506342957130357</v>
+      </c>
+      <c r="E8" s="4">
+        <v>88.273456692913385</v>
+      </c>
+      <c r="F8" s="4">
+        <v>30.763543307086628</v>
+      </c>
+      <c r="G8" s="3">
+        <v>35.008001457270737</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3.6929133858267718</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>45904</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C9" s="4">
+        <v>182.33333333333334</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.12662037037037038</v>
+      </c>
+      <c r="E9" s="4">
+        <v>126.39197222222226</v>
+      </c>
+      <c r="F9" s="4">
+        <v>30.476111111111113</v>
+      </c>
+      <c r="G9" s="3">
+        <v>41.591508226691055</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>45905</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="4">
+        <v>174.58267716535434</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.1212379702537183</v>
+      </c>
+      <c r="E10" s="4">
+        <v>102.80186614173225</v>
+      </c>
+      <c r="F10" s="4">
+        <v>36.015511811023572</v>
+      </c>
+      <c r="G10" s="3">
+        <v>35.330607071982669</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4.0787401574803148</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>45905</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C11" s="4">
+        <v>207.16666666666666</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.14386574074074074</v>
+      </c>
+      <c r="E11" s="4">
+        <v>154.92880555555561</v>
+      </c>
+      <c r="F11" s="4">
+        <v>41.309444444444473</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44.870772325020127</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5.6388888888888893</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>45906</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C12" s="4">
+        <v>151.8740157480315</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.10546806649168854</v>
+      </c>
+      <c r="E12" s="4">
+        <v>89.652685039370155</v>
+      </c>
+      <c r="F12" s="4">
+        <v>30.955433070866157</v>
+      </c>
+      <c r="G12" s="3">
+        <v>35.41857424305271</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.6141732283464565</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>45906</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="4">
+        <v>190.52777777777777</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.13231095679012345</v>
+      </c>
+      <c r="E13" s="4">
+        <v>145.98488888888889</v>
+      </c>
+      <c r="F13" s="4">
+        <v>35.993611111111107</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45.972789036302672</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4.8611111111111107</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>45907</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="4">
+        <v>134.04724409448818</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9.3088363954505676E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>77.08195275590549</v>
+      </c>
+      <c r="F14" s="4">
+        <v>26.089763779527569</v>
+      </c>
+      <c r="G14" s="3">
+        <v>34.50214285714285</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.1496062992125986</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>45907</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C15" s="4">
+        <v>165.41666666666666</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.11487268518518517</v>
+      </c>
+      <c r="E15" s="4">
+        <v>126.33547222222221</v>
+      </c>
+      <c r="F15" s="4">
+        <v>29.867777777777761</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45.824453400503771</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4.3888888888888893</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>45908</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="4">
+        <v>155.73228346456693</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.10814741907261592</v>
+      </c>
+      <c r="E16" s="4">
+        <v>89.305251968503953</v>
+      </c>
+      <c r="F16" s="4">
+        <v>31.131102362204739</v>
+      </c>
+      <c r="G16" s="3">
+        <v>34.407221154818494</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.606299212598425</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>45908</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="4">
+        <v>195.41666666666666</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.13570601851851852</v>
+      </c>
+      <c r="E17" s="4">
+        <v>138.7835</v>
+      </c>
+      <c r="F17" s="4">
+        <v>37.032499999999992</v>
+      </c>
+      <c r="G17" s="3">
+        <v>42.611565031982941</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4.6944444444444446</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>45909</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" s="4">
+        <v>127.07874015748031</v>
+      </c>
+      <c r="D18" s="5">
+        <v>8.8249125109361323E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>71.853196850393672</v>
+      </c>
+      <c r="F18" s="4">
+        <v>24.818110236220452</v>
+      </c>
+      <c r="G18" s="3">
+        <v>33.925358448478825</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.2283464566929134</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>45909</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" s="4">
+        <v>176.5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.12256944444444445</v>
+      </c>
+      <c r="E19" s="4">
+        <v>129.31838888888899</v>
+      </c>
+      <c r="F19" s="4">
+        <v>32.176388888888873</v>
+      </c>
+      <c r="G19" s="3">
+        <v>43.960925401322029</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4.7222222222222223</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>45910</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" s="4">
+        <v>132.88976377952756</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9.2284558180227461E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>79.129244094488229</v>
+      </c>
+      <c r="F20" s="4">
+        <v>27.503858267716534</v>
+      </c>
+      <c r="G20" s="3">
+        <v>35.727015464833812</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3.1338582677165356</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>45910</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" s="4">
+        <v>174.36111111111111</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.12108410493827161</v>
+      </c>
+      <c r="E21" s="4">
+        <v>140.38961111111104</v>
+      </c>
+      <c r="F21" s="4">
+        <v>35.187222222222232</v>
+      </c>
+      <c r="G21" s="3">
+        <v>48.309950613350303</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>45911</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" s="4">
+        <v>154.3228346456693</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.10716863517060368</v>
+      </c>
+      <c r="E22" s="4">
+        <v>87.843732283464632</v>
+      </c>
+      <c r="F22" s="4">
+        <v>30.959763779527545</v>
+      </c>
+      <c r="G22" s="3">
+        <v>34.153234348691285</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.606299212598425</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>45911</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" s="4">
+        <v>176.97222222222223</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.12289737654320988</v>
+      </c>
+      <c r="E23" s="4">
+        <v>122.9184166666667</v>
+      </c>
+      <c r="F23" s="4">
+        <v>30.90750000000001</v>
+      </c>
+      <c r="G23" s="3">
+        <v>41.673800031392254</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4.4722222222222223</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>45912</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" s="4">
+        <v>156.08661417322836</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.10839348206474191</v>
+      </c>
+      <c r="E24" s="4">
+        <v>89.260559055118009</v>
+      </c>
+      <c r="F24" s="4">
+        <v>30.69803149606301</v>
+      </c>
+      <c r="G24" s="3">
+        <v>34.311933612470327</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3.6535433070866143</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>45912</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" s="4">
+        <v>196.69444444444446</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.13659336419753088</v>
+      </c>
+      <c r="E25" s="4">
+        <v>149.45136111111111</v>
+      </c>
+      <c r="F25" s="4">
+        <v>37.454166666666673</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45.588891399519838</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4.9444444444444446</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>45913</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" s="4">
+        <v>147.05511811023621</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.10212160979877515</v>
+      </c>
+      <c r="E26" s="4">
+        <v>87.410031496063027</v>
+      </c>
+      <c r="F26" s="4">
+        <v>29.964803149606279</v>
+      </c>
+      <c r="G26" s="3">
+        <v>35.664191475690743</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3.4330708661417324</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>45913</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" s="4">
+        <v>278.22222222222223</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.1932098765432099</v>
+      </c>
+      <c r="E27" s="4">
+        <v>207.82552777777789</v>
+      </c>
+      <c r="F27" s="4">
+        <v>49.536111111111104</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44.818604233226857</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>45914</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" s="4">
+        <v>141.49606299212599</v>
+      </c>
+      <c r="D28" s="5">
+        <v>9.8261154855643046E-2</v>
+      </c>
+      <c r="E28" s="4">
+        <v>83.178165354330687</v>
+      </c>
+      <c r="F28" s="4">
+        <v>28.519763779527551</v>
+      </c>
+      <c r="G28" s="3">
+        <v>35.270874791318853</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3.377952755905512</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>45914</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" s="4">
+        <v>174.80555555555554</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.12139274691358024</v>
+      </c>
+      <c r="E29" s="4">
+        <v>137.70994444444449</v>
+      </c>
+      <c r="F29" s="4">
+        <v>34.882777777777754</v>
+      </c>
+      <c r="G29" s="3">
+        <v>47.267357381217238</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4.583333333333333</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>45915</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" s="4">
+        <v>150.25196850393701</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.10434164479440071</v>
+      </c>
+      <c r="E30" s="4">
+        <v>85.220165354330803</v>
+      </c>
+      <c r="F30" s="4">
+        <v>29.646771653543297</v>
+      </c>
+      <c r="G30" s="3">
+        <v>34.030901373021734</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3.5590551181102361</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>45915</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" s="4">
+        <v>191.47222222222223</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.13296682098765433</v>
+      </c>
+      <c r="E31" s="4">
+        <v>141.75008333333335</v>
+      </c>
+      <c r="F31" s="4">
+        <v>37.503055555555569</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44.419001885971277</v>
+      </c>
+      <c r="H31" s="3">
+        <v>4.6944444444444446</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>45916</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" s="4">
+        <v>153.48818897637796</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.10658902012248468</v>
+      </c>
+      <c r="E32" s="4">
+        <v>89.645188976377952</v>
+      </c>
+      <c r="F32" s="4">
+        <v>31.575826771653546</v>
+      </c>
+      <c r="G32" s="3">
+        <v>35.043161134766329</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3.6456692913385829</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>45916</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" s="4">
+        <v>204.88888888888889</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.14228395061728394</v>
+      </c>
+      <c r="E33" s="4">
+        <v>139.65002777777778</v>
+      </c>
+      <c r="F33" s="4">
+        <v>36.027222222222242</v>
+      </c>
+      <c r="G33" s="3">
+        <v>40.895344360086767</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>45917</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" s="4">
+        <v>166.74803149606299</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.11579724409448819</v>
+      </c>
+      <c r="E34" s="4">
+        <v>93.356913385826758</v>
+      </c>
+      <c r="F34" s="4">
+        <v>32.628031496062981</v>
+      </c>
+      <c r="G34" s="3">
+        <v>33.592089531095048</v>
+      </c>
+      <c r="H34" s="3">
+        <v>3.811023622047244</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>45917</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35" s="4">
+        <v>203.58333333333334</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.14137731481481483</v>
+      </c>
+      <c r="E35" s="4">
+        <v>153.77475000000004</v>
+      </c>
+      <c r="F35" s="4">
+        <v>38.569722222222232</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45.320433892754821</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5.1388888888888893</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>45918</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" s="4">
+        <v>136.14960629921259</v>
+      </c>
+      <c r="D36" s="5">
+        <v>9.454833770778652E-2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>76.081354330708663</v>
+      </c>
+      <c r="F36" s="4">
+        <v>25.873700787401557</v>
+      </c>
+      <c r="G36" s="3">
+        <v>33.528420565612166</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3.2677165354330708</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>45918</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C37" s="4">
+        <v>171.97222222222223</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.11942515432098766</v>
+      </c>
+      <c r="E37" s="4">
+        <v>116.63488888888895</v>
+      </c>
+      <c r="F37" s="4">
+        <v>28.19916666666667</v>
+      </c>
+      <c r="G37" s="3">
+        <v>40.693161040219699</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4.4722222222222223</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>45919</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38" s="4">
+        <v>108.8267716535433</v>
+      </c>
+      <c r="D38" s="5">
+        <v>7.5574146981627302E-2</v>
+      </c>
+      <c r="E38" s="4">
+        <v>59.541779527559108</v>
+      </c>
+      <c r="F38" s="4">
+        <v>20.642598425196837</v>
+      </c>
+      <c r="G38" s="3">
+        <v>32.827462556978539</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2.7244094488188977</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>45919</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39" s="4">
+        <v>178.30555555555554</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.1238233024691358</v>
+      </c>
+      <c r="E39" s="4">
+        <v>128.25152777777782</v>
+      </c>
+      <c r="F39" s="4">
+        <v>32.401388888888889</v>
+      </c>
+      <c r="G39" s="3">
+        <v>43.156768967128848</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4.6111111111111107</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>45920</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C40" s="4">
+        <v>133.29133858267716</v>
+      </c>
+      <c r="D40" s="5">
+        <v>9.2563429571303577E-2</v>
+      </c>
+      <c r="E40" s="4">
+        <v>74.236653543307085</v>
+      </c>
+      <c r="F40" s="4">
+        <v>25.28291338582676</v>
+      </c>
+      <c r="G40" s="3">
+        <v>33.417019139886584</v>
+      </c>
+      <c r="H40" s="3">
+        <v>3.2598425196850394</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>45920</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C41" s="4">
+        <v>180.25</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.12517361111111111</v>
+      </c>
+      <c r="E41" s="4">
+        <v>124.89255555555559</v>
+      </c>
+      <c r="F41" s="4">
+        <v>33.293888888888887</v>
+      </c>
+      <c r="G41" s="3">
+        <v>41.573111419325024</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>45921</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42" s="4">
+        <v>122.85039370078741</v>
+      </c>
+      <c r="D42" s="5">
+        <v>8.531277340332459E-2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>70.042708661417322</v>
+      </c>
+      <c r="F42" s="4">
+        <v>23.727716535433085</v>
+      </c>
+      <c r="G42" s="3">
+        <v>34.208783489296238</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2.9133858267716537</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>45921</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C43" s="4">
+        <v>163.22222222222223</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.11334876543209878</v>
+      </c>
+      <c r="E43" s="4">
+        <v>118.67880555555558</v>
+      </c>
+      <c r="F43" s="4">
+        <v>30.130555555555546</v>
+      </c>
+      <c r="G43" s="3">
+        <v>43.62597345132744</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>45922</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C44" s="4">
+        <v>112.64566929133858</v>
+      </c>
+      <c r="D44" s="5">
+        <v>7.8226159230096223E-2</v>
+      </c>
+      <c r="E44" s="4">
+        <v>63.692551181102338</v>
+      </c>
+      <c r="F44" s="4">
+        <v>21.637795275590541</v>
+      </c>
+      <c r="G44" s="3">
+        <v>33.925432685586451</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2.7716535433070866</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>45922</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C45" s="4">
+        <v>159.41666666666666</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.11070601851851851</v>
+      </c>
+      <c r="E45" s="4">
+        <v>110.21841666666666</v>
+      </c>
+      <c r="F45" s="4">
+        <v>28.900555555555563</v>
+      </c>
+      <c r="G45" s="3">
+        <v>41.483146889702034</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4.1944444444444446</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45923</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C46" s="4">
+        <v>117.89763779527559</v>
+      </c>
+      <c r="D46" s="5">
+        <v>8.1873359580052485E-2</v>
+      </c>
+      <c r="E46" s="4">
+        <v>66.985047244094531</v>
+      </c>
+      <c r="F46" s="4">
+        <v>23.455905511811022</v>
+      </c>
+      <c r="G46" s="3">
+        <v>34.089765578040499</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2.9763779527559056</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45923</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C47" s="4">
+        <v>215.75</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.14982638888888891</v>
+      </c>
+      <c r="E47" s="4">
+        <v>143.63875000000007</v>
+      </c>
+      <c r="F47" s="4">
+        <v>38.538333333333327</v>
+      </c>
+      <c r="G47" s="3">
+        <v>39.945886442641971</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>45924</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48" s="4">
+        <v>119.77952755905511</v>
+      </c>
+      <c r="D48" s="5">
+        <v>8.3180227471566046E-2</v>
+      </c>
+      <c r="E48" s="4">
+        <v>63.092204724409427</v>
+      </c>
+      <c r="F48" s="4">
+        <v>21.797244094488207</v>
+      </c>
+      <c r="G48" s="3">
+        <v>31.604167762292917</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2.8425196850393699</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>45924</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49" s="4">
+        <v>161.86111111111111</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.11240354938271604</v>
+      </c>
+      <c r="E49" s="4">
+        <v>112.77919444444451</v>
+      </c>
+      <c r="F49" s="4">
+        <v>29.235277777777767</v>
+      </c>
+      <c r="G49" s="3">
+        <v>41.805913849322152</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4.2222222222222223</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>45925</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" s="4">
+        <v>123.50393700787401</v>
+      </c>
+      <c r="D50" s="5">
+        <v>8.576662292213473E-2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>65.692771653543318</v>
+      </c>
+      <c r="F50" s="4">
+        <v>23.030157480314955</v>
+      </c>
+      <c r="G50" s="3">
+        <v>31.914499203060252</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2.8818897637795278</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>45925</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
+      <c r="C51" s="4">
+        <v>171.91666666666666</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.11938657407407406</v>
+      </c>
+      <c r="E51" s="4">
+        <v>123.98825000000005</v>
+      </c>
+      <c r="F51" s="4">
+        <v>30.338611111111113</v>
+      </c>
+      <c r="G51" s="3">
+        <v>43.272680562287945</v>
+      </c>
+      <c r="H51" s="3">
+        <v>4.6388888888888893</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4">
+        <v>124.50393700787401</v>
+      </c>
+      <c r="D52" s="5">
+        <v>8.6461067366579172E-2</v>
+      </c>
+      <c r="E52" s="4">
+        <v>68.390125984251924</v>
+      </c>
+      <c r="F52" s="4">
+        <v>23.680787401574815</v>
+      </c>
+      <c r="G52" s="3">
+        <v>32.958054642043997</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2.9133858267716537</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="4">
+        <v>155.19444444444446</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.10777391975308644</v>
+      </c>
+      <c r="E53" s="4">
+        <v>102.38852777777778</v>
+      </c>
+      <c r="F53" s="4">
+        <v>28.67805555555557</v>
+      </c>
+      <c r="G53" s="3">
+        <v>39.584610703418655</v>
+      </c>
+      <c r="H53" s="3">
+        <v>4.1111111111111107</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,19 +33,6 @@
     <t>高岭站</t>
   </si>
   <si>
-    <t>平均每小时充电功率(kw)</t>
-  </si>
-  <si>
-    <t>终端日均充电电量(kwh)</t>
-  </si>
-  <si>
-    <t>终端日均充电收益(元)</t>
-  </si>
-  <si>
-    <t>单枪日均充电次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>终端日均利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,14 +40,31 @@
     <t>终端日均充电时长(分钟)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>终端日均充电电量(kwh)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端日均充电收益(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每小时充电功率(kw)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单枪日均充电次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -98,15 +102,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -411,23 +417,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="6" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="24.125" customWidth="1"/>
     <col min="7" max="7" width="24.375" customWidth="1"/>
     <col min="8" max="8" width="25.125" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
@@ -438,22 +445,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -2179,6 +2186,58 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="7">
+        <v>131.43307086614172</v>
+      </c>
+      <c r="D54" s="6">
+        <v>9.1272965879265089E-2</v>
+      </c>
+      <c r="E54" s="7">
+        <v>76.294960629921249</v>
+      </c>
+      <c r="F54" s="7">
+        <v>25.86669291338583</v>
+      </c>
+      <c r="G54" s="7">
+        <v>34.83</v>
+      </c>
+      <c r="H54" s="7">
+        <v>3.2125984251968505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="7">
+        <v>161.44444444444446</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.11211419753086421</v>
+      </c>
+      <c r="E55" s="7">
+        <v>115.24166666666666</v>
+      </c>
+      <c r="F55" s="7">
+        <v>27.656388888888888</v>
+      </c>
+      <c r="G55" s="7">
+        <v>42.828974535443912</v>
+      </c>
+      <c r="H55" s="7">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,7 +64,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -112,7 +112,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2223,7 +2223,7 @@
         <v>161.44444444444446</v>
       </c>
       <c r="D55" s="6">
-        <v>0.11211419753086421</v>
+        <v>0.112114197530864</v>
       </c>
       <c r="E55" s="7">
         <v>115.24166666666666</v>
@@ -2237,6 +2237,118 @@
       <c r="H55" s="7">
         <v>4.333333333333333</v>
       </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>45928</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="7">
+        <f>15788/127</f>
+        <v>124.31496062992126</v>
+      </c>
+      <c r="D56" s="6">
+        <f>C56/(24*60)</f>
+        <v>8.6329833770778658E-2</v>
+      </c>
+      <c r="E56" s="7">
+        <f>8093.57/127</f>
+        <v>63.728897637795271</v>
+      </c>
+      <c r="F56" s="7">
+        <f>3124.72/127</f>
+        <v>24.604094488188974</v>
+      </c>
+      <c r="G56" s="7">
+        <f>9093.57/(15788/60)</f>
+        <v>34.558791487205475</v>
+      </c>
+      <c r="H56" s="7">
+        <f>386/127</f>
+        <v>3.0393700787401574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>45928</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="7">
+        <f>5876/36</f>
+        <v>163.22222222222223</v>
+      </c>
+      <c r="D57" s="6">
+        <f>C57/(24*60)</f>
+        <v>0.11334876543209876</v>
+      </c>
+      <c r="E57" s="7">
+        <f>5876.99/36</f>
+        <v>163.2497222222222</v>
+      </c>
+      <c r="F57" s="7">
+        <f>1432.67/36</f>
+        <v>39.796388888888892</v>
+      </c>
+      <c r="G57" s="7">
+        <f>5876.99/(7618/60)</f>
+        <v>46.28766080336046</v>
+      </c>
+      <c r="H57" s="7">
+        <f>206/36</f>
+        <v>5.7222222222222223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2278,12 +2278,12 @@
         <v>3</v>
       </c>
       <c r="C57" s="7">
-        <f>5876/36</f>
-        <v>163.22222222222223</v>
+        <f>7618/36</f>
+        <v>211.61111111111111</v>
       </c>
       <c r="D57" s="6">
         <f>C57/(24*60)</f>
-        <v>0.11334876543209876</v>
+        <v>0.14695216049382717</v>
       </c>
       <c r="E57" s="7">
         <f>5876.99/36</f>
@@ -2303,24 +2303,71 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="A58" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="7">
+        <f>15852/127</f>
+        <v>124.81889763779527</v>
+      </c>
+      <c r="D58" s="6">
+        <f>C58/(24*60)</f>
+        <v>8.667979002624672E-2</v>
+      </c>
+      <c r="E58" s="7">
+        <f>9170.63/127</f>
+        <v>72.209685039370072</v>
+      </c>
+      <c r="F58" s="7">
+        <f>3207.95/127</f>
+        <v>25.259448818897635</v>
+      </c>
+      <c r="G58" s="7">
+        <f>9170.63/(15852/60)</f>
+        <v>34.71093868281605</v>
+      </c>
+      <c r="H58" s="7">
+        <f>373/127</f>
+        <v>2.9370078740157481</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="A59" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
+        <f>7057/36</f>
+        <v>196.02777777777777</v>
+      </c>
+      <c r="D59" s="6">
+        <f>C59/(24*60)</f>
+        <v>0.1361304012345679</v>
+      </c>
+      <c r="E59" s="7">
+        <f>4957.18/36</f>
+        <v>137.69944444444445</v>
+      </c>
+      <c r="F59" s="7">
+        <f>1241.19/36</f>
+        <v>34.477499999999999</v>
+      </c>
+      <c r="G59" s="7">
+        <f>4957.18/(7057/60)</f>
+        <v>42.146917953804738</v>
+      </c>
+      <c r="H59" s="7">
+        <f>189/36</f>
+        <v>5.25</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
@@ -2328,7 +2375,6 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -2336,7 +2382,6 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
@@ -2344,7 +2389,6 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2367,18 +2367,68 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="A60" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="7">
+        <f>19745/127</f>
+        <v>155.4724409448819</v>
+      </c>
+      <c r="D60" s="6">
+        <f>C60/(24*60)</f>
+        <v>0.1079669728783902</v>
+      </c>
+      <c r="E60" s="7">
+        <f>10978.97/127</f>
+        <v>86.448582677165348</v>
+      </c>
+      <c r="F60" s="7">
+        <f>3797.81/127</f>
+        <v>29.904015748031494</v>
+      </c>
+      <c r="G60" s="7">
+        <f>10978.91/(19745/60)</f>
+        <v>33.362096733350214</v>
+      </c>
+      <c r="H60" s="7">
+        <f>475/127</f>
+        <v>3.7401574803149606</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="A61" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="7">
+        <f>7675/36</f>
+        <v>213.19444444444446</v>
+      </c>
+      <c r="D61" s="6">
+        <f>C61/(24*60)</f>
+        <v>0.1480516975308642</v>
+      </c>
+      <c r="E61" s="7">
+        <f>5463.25/36</f>
+        <v>151.75694444444446</v>
+      </c>
+      <c r="F61" s="7">
+        <f>1342.68/36</f>
+        <v>37.296666666666667</v>
+      </c>
+      <c r="G61" s="7">
+        <f>5463.25/(7675/60)</f>
+        <v>42.709446254071658</v>
+      </c>
+      <c r="H61" s="7">
+        <f>218/36</f>
+        <v>6.0555555555555554</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C62" s="7"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2250,7 +2250,7 @@
         <v>124.31496062992126</v>
       </c>
       <c r="D56" s="6">
-        <f>C56/(24*60)</f>
+        <f t="shared" ref="D56:D61" si="0">C56/(24*60)</f>
         <v>8.6329833770778658E-2</v>
       </c>
       <c r="E56" s="7">
@@ -2282,7 +2282,7 @@
         <v>211.61111111111111</v>
       </c>
       <c r="D57" s="6">
-        <f>C57/(24*60)</f>
+        <f t="shared" si="0"/>
         <v>0.14695216049382717</v>
       </c>
       <c r="E57" s="7">
@@ -2314,7 +2314,7 @@
         <v>124.81889763779527</v>
       </c>
       <c r="D58" s="6">
-        <f>C58/(24*60)</f>
+        <f t="shared" si="0"/>
         <v>8.667979002624672E-2</v>
       </c>
       <c r="E58" s="7">
@@ -2346,7 +2346,7 @@
         <v>196.02777777777777</v>
       </c>
       <c r="D59" s="6">
-        <f>C59/(24*60)</f>
+        <f t="shared" si="0"/>
         <v>0.1361304012345679</v>
       </c>
       <c r="E59" s="7">
@@ -2378,7 +2378,7 @@
         <v>155.4724409448819</v>
       </c>
       <c r="D60" s="6">
-        <f>C60/(24*60)</f>
+        <f t="shared" si="0"/>
         <v>0.1079669728783902</v>
       </c>
       <c r="E60" s="7">
@@ -2410,7 +2410,7 @@
         <v>213.19444444444446</v>
       </c>
       <c r="D61" s="6">
-        <f>C61/(24*60)</f>
+        <f t="shared" si="0"/>
         <v>0.1480516975308642</v>
       </c>
       <c r="E61" s="7">
@@ -2431,18 +2431,68 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="A62" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="7">
+        <f>16799/127</f>
+        <v>132.2755905511811</v>
+      </c>
+      <c r="D62" s="6">
+        <f>C62/(24*60)</f>
+        <v>9.1858048993875757E-2</v>
+      </c>
+      <c r="E62" s="7">
+        <f>10368.41/127</f>
+        <v>81.641023622047243</v>
+      </c>
+      <c r="F62" s="7">
+        <f>3574.11/127</f>
+        <v>28.142598425196852</v>
+      </c>
+      <c r="G62" s="7">
+        <f>10368.41/(16799/60)</f>
+        <v>37.032240014286565</v>
+      </c>
+      <c r="H62" s="7">
+        <f>436/127</f>
+        <v>3.4330708661417324</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="A63" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7">
+        <f>6591/36</f>
+        <v>183.08333333333334</v>
+      </c>
+      <c r="D63" s="6">
+        <f>C63/(24*60)</f>
+        <v>0.12714120370370371</v>
+      </c>
+      <c r="E63" s="7">
+        <f>4791.76/36</f>
+        <v>133.10444444444445</v>
+      </c>
+      <c r="F63" s="7">
+        <f>1184.73/36</f>
+        <v>32.909166666666664</v>
+      </c>
+      <c r="G63" s="7">
+        <f>4791.76/(6591/60)</f>
+        <v>43.620937642239419</v>
+      </c>
+      <c r="H63" s="7">
+        <f>178/36</f>
+        <v>4.9444444444444446</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,14 +105,14 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,21 +417,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="24.125" customWidth="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
-    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="10.625" customWidth="1"/>
@@ -444,31 +444,31 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
@@ -477,31 +477,31 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>156.39370078740157</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>0.10860673665791776</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>91.854921259842556</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>31.875748031496052</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>35.239880173195054</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>3.6692913385826773</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
@@ -510,31 +510,31 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>181.25</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.12586805555555555</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>132.98933333333338</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>33.275555555555542</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>44.02405517241381</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>4.5555555555555554</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -543,31 +543,31 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>129.21259842519686</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>8.9730971128608936E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>76.107960629921266</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>26.144645669291336</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>35.34080804387569</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>3.3228346456692912</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -576,31 +576,31 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>164.94444444444446</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.11454475308641977</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>124.90647222222226</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>31.909722222222221</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>45.435833614011464</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>4.416666666666667</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
@@ -609,31 +609,31 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>147.75590551181102</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.10260826771653543</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>83.729897637795276</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>28.977480314960641</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>34.000629896083133</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>3.4960629921259843</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -642,31 +642,31 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>171.77777777777777</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>0.11929012345679012</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>122.4306944444445</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>28.711944444444427</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>42.763631953428224</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>4.25</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -675,31 +675,31 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>151.29133858267716</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>0.10506342957130357</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>88.273456692913385</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>30.763543307086628</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>35.008001457270737</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>3.6929133858267718</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -708,31 +708,31 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>182.33333333333334</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>0.12662037037037038</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>126.39197222222226</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>30.476111111111113</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>41.591508226691055</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>4.4444444444444446</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
@@ -741,31 +741,31 @@
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>174.58267716535434</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>0.1212379702537183</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>102.80186614173225</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>36.015511811023572</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>35.330607071982669</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>4.0787401574803148</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
@@ -774,31 +774,31 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>207.16666666666666</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>0.14386574074074074</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>154.92880555555561</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>41.309444444444473</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>44.870772325020127</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>5.6388888888888893</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
@@ -807,31 +807,31 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>151.8740157480315</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>0.10546806649168854</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>89.652685039370155</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>30.955433070866157</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>35.41857424305271</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <v>3.6141732283464565</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -840,31 +840,31 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>190.52777777777777</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>0.13231095679012345</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>145.98488888888889</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>35.993611111111107</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>45.972789036302672</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <v>4.8611111111111107</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -873,31 +873,31 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>134.04724409448818</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>9.3088363954505676E-2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>77.08195275590549</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>26.089763779527569</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>34.50214285714285</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>3.1496062992125986</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -906,31 +906,31 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>165.41666666666666</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>0.11487268518518517</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>126.33547222222221</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>29.867777777777761</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>45.824453400503771</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>4.3888888888888893</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
@@ -939,31 +939,31 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>155.73228346456693</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>0.10814741907261592</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>89.305251968503953</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>31.131102362204739</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="6">
         <v>34.407221154818494</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>3.606299212598425</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
@@ -972,31 +972,31 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>195.41666666666666</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>0.13570601851851852</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>138.7835</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>37.032499999999992</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="6">
         <v>42.611565031982941</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
         <v>4.6944444444444446</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
@@ -1005,31 +1005,31 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>127.07874015748031</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>8.8249125109361323E-2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>71.853196850393672</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>24.818110236220452</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="6">
         <v>33.925358448478825</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="6">
         <v>3.2283464566929134</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
@@ -1038,31 +1038,31 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>176.5</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>0.12256944444444445</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>129.31838888888899</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>32.176388888888873</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="6">
         <v>43.960925401322029</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="6">
         <v>4.7222222222222223</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
@@ -1071,31 +1071,31 @@
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>132.88976377952756</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>9.2284558180227461E-2</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>79.129244094488229</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>27.503858267716534</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="6">
         <v>35.727015464833812</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="6">
         <v>3.1338582677165356</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
@@ -1104,31 +1104,31 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>174.36111111111111</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>0.12108410493827161</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>140.38961111111104</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>35.187222222222232</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="6">
         <v>48.309950613350303</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="6">
         <v>4.75</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
@@ -1137,31 +1137,31 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>154.3228346456693</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>0.10716863517060368</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>87.843732283464632</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>30.959763779527545</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="6">
         <v>34.153234348691285</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="6">
         <v>3.606299212598425</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
@@ -1170,31 +1170,31 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>176.97222222222223</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>0.12289737654320988</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>122.9184166666667</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>30.90750000000001</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="6">
         <v>41.673800031392254</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="6">
         <v>4.4722222222222223</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
@@ -1203,31 +1203,31 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>156.08661417322836</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>0.10839348206474191</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>89.260559055118009</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>30.69803149606301</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="6">
         <v>34.311933612470327</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="6">
         <v>3.6535433070866143</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
@@ -1236,31 +1236,31 @@
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>196.69444444444446</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>0.13659336419753088</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>149.45136111111111</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>37.454166666666673</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="6">
         <v>45.588891399519838</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="6">
         <v>4.9444444444444446</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -1269,31 +1269,31 @@
       <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>147.05511811023621</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>0.10212160979877515</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>87.410031496063027</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>29.964803149606279</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="6">
         <v>35.664191475690743</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="6">
         <v>3.4330708661417324</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
@@ -1302,31 +1302,31 @@
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <v>278.22222222222223</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>0.1932098765432099</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>207.82552777777789</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>49.536111111111104</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="6">
         <v>44.818604233226857</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="6">
         <v>7.1111111111111107</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
@@ -1335,31 +1335,31 @@
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <v>141.49606299212599</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>9.8261154855643046E-2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <v>83.178165354330687</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>28.519763779527551</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="6">
         <v>35.270874791318853</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="6">
         <v>3.377952755905512</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
@@ -1368,31 +1368,31 @@
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>174.80555555555554</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>0.12139274691358024</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>137.70994444444449</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>34.882777777777754</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="6">
         <v>47.267357381217238</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="6">
         <v>4.583333333333333</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
@@ -1401,31 +1401,31 @@
       <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>150.25196850393701</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>0.10434164479440071</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>85.220165354330803</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>29.646771653543297</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="6">
         <v>34.030901373021734</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="6">
         <v>3.5590551181102361</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
@@ -1434,31 +1434,31 @@
       <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <v>191.47222222222223</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>0.13296682098765433</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>141.75008333333335</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>37.503055555555569</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="6">
         <v>44.419001885971277</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="6">
         <v>4.6944444444444446</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
@@ -1467,31 +1467,31 @@
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>153.48818897637796</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>0.10658902012248468</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>89.645188976377952</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>31.575826771653546</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="6">
         <v>35.043161134766329</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="6">
         <v>3.6456692913385829</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
@@ -1500,31 +1500,31 @@
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>204.88888888888889</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>0.14228395061728394</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <v>139.65002777777778</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>36.027222222222242</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="6">
         <v>40.895344360086767</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="6">
         <v>5.083333333333333</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
@@ -1533,31 +1533,31 @@
       <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>166.74803149606299</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>0.11579724409448819</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>93.356913385826758</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>32.628031496062981</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="6">
         <v>33.592089531095048</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="6">
         <v>3.811023622047244</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
@@ -1566,31 +1566,31 @@
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>203.58333333333334</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>0.14137731481481483</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <v>153.77475000000004</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <v>38.569722222222232</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="6">
         <v>45.320433892754821</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="6">
         <v>5.1388888888888893</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
@@ -1599,31 +1599,31 @@
       <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>136.14960629921259</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>9.454833770778652E-2</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <v>76.081354330708663</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>25.873700787401557</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="6">
         <v>33.528420565612166</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="6">
         <v>3.2677165354330708</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
@@ -1632,31 +1632,31 @@
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <v>171.97222222222223</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>0.11942515432098766</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <v>116.63488888888895</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <v>28.19916666666667</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="6">
         <v>40.693161040219699</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="6">
         <v>4.4722222222222223</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
@@ -1665,31 +1665,31 @@
       <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <v>108.8267716535433</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>7.5574146981627302E-2</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <v>59.541779527559108</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <v>20.642598425196837</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="6">
         <v>32.827462556978539</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="6">
         <v>2.7244094488188977</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
@@ -1698,31 +1698,31 @@
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="5">
         <v>178.30555555555554</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>0.1238233024691358</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <v>128.25152777777782</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <v>32.401388888888889</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="6">
         <v>43.156768967128848</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="6">
         <v>4.6111111111111107</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
@@ -1731,31 +1731,31 @@
       <c r="B40" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="5">
         <v>133.29133858267716</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>9.2563429571303577E-2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
         <v>74.236653543307085</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <v>25.28291338582676</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="6">
         <v>33.417019139886584</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="6">
         <v>3.2598425196850394</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
@@ -1764,31 +1764,31 @@
       <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="5">
         <v>180.25</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>0.12517361111111111</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <v>124.89255555555559</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <v>33.293888888888887</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="6">
         <v>41.573111419325024</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="6">
         <v>4.666666666666667</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
@@ -1797,31 +1797,31 @@
       <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="5">
         <v>122.85039370078741</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <v>8.531277340332459E-2</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <v>70.042708661417322</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <v>23.727716535433085</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="6">
         <v>34.208783489296238</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="6">
         <v>2.9133858267716537</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
@@ -1830,31 +1830,31 @@
       <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="5">
         <v>163.22222222222223</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <v>0.11334876543209878</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
         <v>118.67880555555558</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <v>30.130555555555546</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="6">
         <v>43.62597345132744</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="6">
         <v>4.083333333333333</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
@@ -1863,31 +1863,31 @@
       <c r="B44" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="5">
         <v>112.64566929133858</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <v>7.8226159230096223E-2</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <v>63.692551181102338</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <v>21.637795275590541</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="6">
         <v>33.925432685586451</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="6">
         <v>2.7716535433070866</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
@@ -1896,31 +1896,31 @@
       <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="5">
         <v>159.41666666666666</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <v>0.11070601851851851</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
         <v>110.21841666666666</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
         <v>28.900555555555563</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="6">
         <v>41.483146889702034</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="6">
         <v>4.1944444444444446</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
@@ -1929,31 +1929,31 @@
       <c r="B46" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="5">
         <v>117.89763779527559</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>8.1873359580052485E-2</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <v>66.985047244094531</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <v>23.455905511811022</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="6">
         <v>34.089765578040499</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="6">
         <v>2.9763779527559056</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
@@ -1962,31 +1962,31 @@
       <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="5">
         <v>215.75</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <v>0.14982638888888891</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <v>143.63875000000007</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <v>38.538333333333327</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="6">
         <v>39.945886442641971</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="6">
         <v>5.25</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
@@ -1995,31 +1995,31 @@
       <c r="B48" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="5">
         <v>119.77952755905511</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>8.3180227471566046E-2</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <v>63.092204724409427</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <v>21.797244094488207</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="6">
         <v>31.604167762292917</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="6">
         <v>2.8425196850393699</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
@@ -2028,31 +2028,31 @@
       <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="5">
         <v>161.86111111111111</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>0.11240354938271604</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="5">
         <v>112.77919444444451</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="5">
         <v>29.235277777777767</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="6">
         <v>41.805913849322152</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="6">
         <v>4.2222222222222223</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
@@ -2061,31 +2061,31 @@
       <c r="B50" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="5">
         <v>123.50393700787401</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>8.576662292213473E-2</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="5">
         <v>65.692771653543318</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="5">
         <v>23.030157480314955</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="6">
         <v>31.914499203060252</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="6">
         <v>2.8818897637795278</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
@@ -2094,31 +2094,31 @@
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="5">
         <v>171.91666666666666</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="3">
         <v>0.11938657407407406</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="5">
         <v>123.98825000000005</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="5">
         <v>30.338611111111113</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="6">
         <v>43.272680562287945</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="6">
         <v>4.6388888888888893</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
@@ -2127,31 +2127,31 @@
       <c r="B52" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="5">
         <v>124.50393700787401</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="3">
         <v>8.6461067366579172E-2</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="5">
         <v>68.390125984251924</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="5">
         <v>23.680787401574815</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="6">
         <v>32.958054642043997</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="6">
         <v>2.9133858267716537</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
@@ -2160,31 +2160,31 @@
       <c r="B53" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="5">
         <v>155.19444444444446</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="3">
         <v>0.10777391975308644</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="5">
         <v>102.38852777777778</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="5">
         <v>28.67805555555557</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="6">
         <v>39.584610703418655</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="6">
         <v>4.1111111111111107</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
@@ -2193,22 +2193,22 @@
       <c r="B54" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="5">
         <v>131.43307086614172</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="4">
         <v>9.1272965879265089E-2</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="5">
         <v>76.294960629921249</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="5">
         <v>25.86669291338583</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="5">
         <v>34.83</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="5">
         <v>3.2125984251968505</v>
       </c>
     </row>
@@ -2219,22 +2219,22 @@
       <c r="B55" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="5">
         <v>161.44444444444446</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="4">
         <v>0.112114197530864</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="5">
         <v>115.24166666666666</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="5">
         <v>27.656388888888888</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="5">
         <v>42.828974535443912</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="5">
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -2245,27 +2245,27 @@
       <c r="B56" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="5">
         <f>15788/127</f>
         <v>124.31496062992126</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="4">
         <f t="shared" ref="D56:D61" si="0">C56/(24*60)</f>
         <v>8.6329833770778658E-2</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="5">
         <f>8093.57/127</f>
         <v>63.728897637795271</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="5">
         <f>3124.72/127</f>
         <v>24.604094488188974</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="5">
         <f>9093.57/(15788/60)</f>
         <v>34.558791487205475</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="5">
         <f>386/127</f>
         <v>3.0393700787401574</v>
       </c>
@@ -2277,27 +2277,27 @@
       <c r="B57" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="5">
         <f>7618/36</f>
         <v>211.61111111111111</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="4">
         <f t="shared" si="0"/>
         <v>0.14695216049382717</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="5">
         <f>5876.99/36</f>
         <v>163.2497222222222</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="5">
         <f>1432.67/36</f>
         <v>39.796388888888892</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="5">
         <f>5876.99/(7618/60)</f>
         <v>46.28766080336046</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="5">
         <f>206/36</f>
         <v>5.7222222222222223</v>
       </c>
@@ -2309,27 +2309,27 @@
       <c r="B58" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="5">
         <f>15852/127</f>
         <v>124.81889763779527</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="4">
         <f t="shared" si="0"/>
         <v>8.667979002624672E-2</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="5">
         <f>9170.63/127</f>
         <v>72.209685039370072</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="5">
         <f>3207.95/127</f>
         <v>25.259448818897635</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="5">
         <f>9170.63/(15852/60)</f>
         <v>34.71093868281605</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="5">
         <f>373/127</f>
         <v>2.9370078740157481</v>
       </c>
@@ -2341,27 +2341,27 @@
       <c r="B59" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="5">
         <f>7057/36</f>
         <v>196.02777777777777</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="4">
         <f t="shared" si="0"/>
         <v>0.1361304012345679</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="5">
         <f>4957.18/36</f>
         <v>137.69944444444445</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="5">
         <f>1241.19/36</f>
         <v>34.477499999999999</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="5">
         <f>4957.18/(7057/60)</f>
         <v>42.146917953804738</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="5">
         <f>189/36</f>
         <v>5.25</v>
       </c>
@@ -2373,27 +2373,27 @@
       <c r="B60" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="5">
         <f>19745/127</f>
         <v>155.4724409448819</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="4">
         <f t="shared" si="0"/>
         <v>0.1079669728783902</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="5">
         <f>10978.97/127</f>
         <v>86.448582677165348</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="5">
         <f>3797.81/127</f>
         <v>29.904015748031494</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="5">
         <f>10978.91/(19745/60)</f>
         <v>33.362096733350214</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="5">
         <f>475/127</f>
         <v>3.7401574803149606</v>
       </c>
@@ -2405,27 +2405,27 @@
       <c r="B61" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="5">
         <f>7675/36</f>
         <v>213.19444444444446</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="4">
         <f t="shared" si="0"/>
         <v>0.1480516975308642</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="5">
         <f>5463.25/36</f>
         <v>151.75694444444446</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="5">
         <f>1342.68/36</f>
         <v>37.296666666666667</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="5">
         <f>5463.25/(7675/60)</f>
         <v>42.709446254071658</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="5">
         <f>218/36</f>
         <v>6.0555555555555554</v>
       </c>
@@ -2437,27 +2437,27 @@
       <c r="B62" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="5">
         <f>16799/127</f>
         <v>132.2755905511811</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="4">
         <f>C62/(24*60)</f>
         <v>9.1858048993875757E-2</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="5">
         <f>10368.41/127</f>
         <v>81.641023622047243</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="5">
         <f>3574.11/127</f>
         <v>28.142598425196852</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="5">
         <f>10368.41/(16799/60)</f>
         <v>37.032240014286565</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="5">
         <f>436/127</f>
         <v>3.4330708661417324</v>
       </c>
@@ -2469,29 +2469,93 @@
       <c r="B63" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="5">
         <f>6591/36</f>
         <v>183.08333333333334</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="4">
         <f>C63/(24*60)</f>
         <v>0.12714120370370371</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="5">
         <f>4791.76/36</f>
         <v>133.10444444444445</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="5">
         <f>1184.73/36</f>
         <v>32.909166666666664</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="5">
         <f>4791.76/(6591/60)</f>
         <v>43.620937642239419</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="5">
         <f>178/36</f>
         <v>4.9444444444444446</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="5">
+        <f>15688/127</f>
+        <v>123.5275590551181</v>
+      </c>
+      <c r="D64" s="4">
+        <f>C64/(24*60)</f>
+        <v>8.5783027121609789E-2</v>
+      </c>
+      <c r="E64" s="5">
+        <f>9431.59/127</f>
+        <v>74.264488188976372</v>
+      </c>
+      <c r="F64" s="5">
+        <f>3228.21/127</f>
+        <v>25.418976377952756</v>
+      </c>
+      <c r="G64" s="5">
+        <f>9431.59/(15688/60)</f>
+        <v>36.071863844977059</v>
+      </c>
+      <c r="H64" s="5">
+        <f>383/127</f>
+        <v>3.015748031496063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="5">
+        <f>6191/36</f>
+        <v>171.97222222222223</v>
+      </c>
+      <c r="D65" s="4">
+        <f>C65/(24*60)</f>
+        <v>0.11942515432098766</v>
+      </c>
+      <c r="E65" s="5">
+        <f>4692.01/36</f>
+        <v>130.33361111111111</v>
+      </c>
+      <c r="F65" s="5">
+        <f>1213.94/36</f>
+        <v>33.720555555555556</v>
+      </c>
+      <c r="G65" s="5">
+        <f>4692.01/(6191/60)</f>
+        <v>45.472556937489905</v>
+      </c>
+      <c r="H65" s="5">
+        <f>153/36</f>
+        <v>4.25</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2558,6 +2558,70 @@
         <v>4.25</v>
       </c>
     </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5">
+        <f>15318/127</f>
+        <v>120.61417322834646</v>
+      </c>
+      <c r="D66" s="4">
+        <f>C66/(24*60)</f>
+        <v>8.3759842519685046E-2</v>
+      </c>
+      <c r="E66" s="5">
+        <f>9382.78/127</f>
+        <v>73.880157480314963</v>
+      </c>
+      <c r="F66" s="5">
+        <f>3200.49/127</f>
+        <v>25.20070866141732</v>
+      </c>
+      <c r="G66" s="5">
+        <f>9382.779/(15318/60)</f>
+        <v>36.751974148061102</v>
+      </c>
+      <c r="H66" s="5">
+        <f>370/127</f>
+        <v>2.9133858267716537</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="5">
+        <f>4538/36</f>
+        <v>126.05555555555556</v>
+      </c>
+      <c r="D67" s="4">
+        <f>C67/(24*60)</f>
+        <v>8.7538580246913578E-2</v>
+      </c>
+      <c r="E67" s="5">
+        <f>3397.12/36</f>
+        <v>94.364444444444445</v>
+      </c>
+      <c r="F67" s="5">
+        <f>850.53/36</f>
+        <v>23.625833333333333</v>
+      </c>
+      <c r="G67" s="5">
+        <f>3397.12/(4538/60)</f>
+        <v>44.915645658880557</v>
+      </c>
+      <c r="H67" s="5">
+        <f>116/36</f>
+        <v>3.2222222222222223</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2442,7 +2442,7 @@
         <v>132.2755905511811</v>
       </c>
       <c r="D62" s="4">
-        <f>C62/(24*60)</f>
+        <f t="shared" ref="D62:D67" si="1">C62/(24*60)</f>
         <v>9.1858048993875757E-2</v>
       </c>
       <c r="E62" s="5">
@@ -2474,7 +2474,7 @@
         <v>183.08333333333334</v>
       </c>
       <c r="D63" s="4">
-        <f>C63/(24*60)</f>
+        <f t="shared" si="1"/>
         <v>0.12714120370370371</v>
       </c>
       <c r="E63" s="5">
@@ -2506,7 +2506,7 @@
         <v>123.5275590551181</v>
       </c>
       <c r="D64" s="4">
-        <f>C64/(24*60)</f>
+        <f t="shared" si="1"/>
         <v>8.5783027121609789E-2</v>
       </c>
       <c r="E64" s="5">
@@ -2538,7 +2538,7 @@
         <v>171.97222222222223</v>
       </c>
       <c r="D65" s="4">
-        <f>C65/(24*60)</f>
+        <f t="shared" si="1"/>
         <v>0.11942515432098766</v>
       </c>
       <c r="E65" s="5">
@@ -2570,7 +2570,7 @@
         <v>120.61417322834646</v>
       </c>
       <c r="D66" s="4">
-        <f>C66/(24*60)</f>
+        <f t="shared" si="1"/>
         <v>8.3759842519685046E-2</v>
       </c>
       <c r="E66" s="5">
@@ -2602,7 +2602,7 @@
         <v>126.05555555555556</v>
       </c>
       <c r="D67" s="4">
-        <f>C67/(24*60)</f>
+        <f t="shared" si="1"/>
         <v>8.7538580246913578E-2</v>
       </c>
       <c r="E67" s="5">
@@ -2620,6 +2620,70 @@
       <c r="H67" s="5">
         <f>116/36</f>
         <v>3.2222222222222223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>45934</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="5">
+        <f>14070/127</f>
+        <v>110.78740157480316</v>
+      </c>
+      <c r="D68" s="4">
+        <f>C68/(24*60)</f>
+        <v>7.693569553805775E-2</v>
+      </c>
+      <c r="E68" s="5">
+        <f>8238.48/127</f>
+        <v>64.869921259842513</v>
+      </c>
+      <c r="F68" s="5">
+        <f>2810.88/127</f>
+        <v>22.132913385826772</v>
+      </c>
+      <c r="G68" s="5">
+        <f>8238.48/(14070/60)</f>
+        <v>35.132110874200421</v>
+      </c>
+      <c r="H68" s="5">
+        <f>354/127</f>
+        <v>2.7874015748031495</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>45934</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5">
+        <f>5345/36</f>
+        <v>148.47222222222223</v>
+      </c>
+      <c r="D69" s="4">
+        <f>C69/(24*60)</f>
+        <v>0.10310570987654322</v>
+      </c>
+      <c r="E69" s="5">
+        <f>3987.85/36</f>
+        <v>110.77361111111111</v>
+      </c>
+      <c r="F69" s="5">
+        <f>964.79/36</f>
+        <v>26.799722222222222</v>
+      </c>
+      <c r="G69" s="5">
+        <f>3987.85/(5345/60)</f>
+        <v>44.765388213283444</v>
+      </c>
+      <c r="H69" s="5">
+        <f>141/36</f>
+        <v>3.9166666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2686,6 +2686,70 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>45935</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="5">
+        <f>15681/127</f>
+        <v>123.4724409448819</v>
+      </c>
+      <c r="D70" s="4">
+        <f>C70/(24*60)</f>
+        <v>8.574475065616799E-2</v>
+      </c>
+      <c r="E70" s="5">
+        <f>9133.79/127</f>
+        <v>71.919606299212603</v>
+      </c>
+      <c r="F70" s="5">
+        <f>3141.45/127</f>
+        <v>24.735826771653542</v>
+      </c>
+      <c r="G70" s="5">
+        <f>9133.79/(15681/60)</f>
+        <v>34.948498182513873</v>
+      </c>
+      <c r="H70" s="5">
+        <f>385/127</f>
+        <v>3.0314960629921259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>45935</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="5">
+        <f>4430/36</f>
+        <v>123.05555555555556</v>
+      </c>
+      <c r="D71" s="4">
+        <f>C71/(24*60)</f>
+        <v>8.5455246913580252E-2</v>
+      </c>
+      <c r="E71" s="5">
+        <f>3646.37/36</f>
+        <v>101.28805555555556</v>
+      </c>
+      <c r="F71" s="5">
+        <f>912.3/36</f>
+        <v>25.341666666666665</v>
+      </c>
+      <c r="G71" s="5">
+        <f>3646.37/(4430/60)</f>
+        <v>49.386501128668172</v>
+      </c>
+      <c r="H71" s="5">
+        <f>114/36</f>
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2750,6 +2750,70 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>45936</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="5">
+        <f>14327/127</f>
+        <v>112.81102362204724</v>
+      </c>
+      <c r="D72" s="4">
+        <f>C72/(24*60)</f>
+        <v>7.8340988626421693E-2</v>
+      </c>
+      <c r="E72" s="5">
+        <f>8192.95/127</f>
+        <v>64.511417322834646</v>
+      </c>
+      <c r="F72" s="5">
+        <f>2820.79/127</f>
+        <v>22.210944881889763</v>
+      </c>
+      <c r="G72" s="5">
+        <f>8192.98/(14327/60)</f>
+        <v>34.311356180637958</v>
+      </c>
+      <c r="H72" s="5">
+        <f>312/127</f>
+        <v>2.4566929133858268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>45936</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="5">
+        <f>3149/36</f>
+        <v>87.472222222222229</v>
+      </c>
+      <c r="D73" s="4">
+        <f>C73/(24*60)</f>
+        <v>6.0744598765432103E-2</v>
+      </c>
+      <c r="E73" s="5">
+        <f>2444.91/36</f>
+        <v>67.914166666666659</v>
+      </c>
+      <c r="F73" s="5">
+        <f>612.24/36</f>
+        <v>17.006666666666668</v>
+      </c>
+      <c r="G73" s="5">
+        <f>2449.15/(3149/60)</f>
+        <v>46.665290568434422</v>
+      </c>
+      <c r="H73" s="5">
+        <f>82/36</f>
+        <v>2.2777777777777777</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2634,7 +2634,7 @@
         <v>110.78740157480316</v>
       </c>
       <c r="D68" s="4">
-        <f>C68/(24*60)</f>
+        <f t="shared" ref="D68:D73" si="2">C68/(24*60)</f>
         <v>7.693569553805775E-2</v>
       </c>
       <c r="E68" s="5">
@@ -2666,7 +2666,7 @@
         <v>148.47222222222223</v>
       </c>
       <c r="D69" s="4">
-        <f>C69/(24*60)</f>
+        <f t="shared" si="2"/>
         <v>0.10310570987654322</v>
       </c>
       <c r="E69" s="5">
@@ -2698,7 +2698,7 @@
         <v>123.4724409448819</v>
       </c>
       <c r="D70" s="4">
-        <f>C70/(24*60)</f>
+        <f t="shared" si="2"/>
         <v>8.574475065616799E-2</v>
       </c>
       <c r="E70" s="5">
@@ -2730,7 +2730,7 @@
         <v>123.05555555555556</v>
       </c>
       <c r="D71" s="4">
-        <f>C71/(24*60)</f>
+        <f t="shared" si="2"/>
         <v>8.5455246913580252E-2</v>
       </c>
       <c r="E71" s="5">
@@ -2762,7 +2762,7 @@
         <v>112.81102362204724</v>
       </c>
       <c r="D72" s="4">
-        <f>C72/(24*60)</f>
+        <f t="shared" si="2"/>
         <v>7.8340988626421693E-2</v>
       </c>
       <c r="E72" s="5">
@@ -2794,7 +2794,7 @@
         <v>87.472222222222229</v>
       </c>
       <c r="D73" s="4">
-        <f>C73/(24*60)</f>
+        <f t="shared" si="2"/>
         <v>6.0744598765432103E-2</v>
       </c>
       <c r="E73" s="5">
@@ -2812,6 +2812,69 @@
       <c r="H73" s="5">
         <f>82/36</f>
         <v>2.2777777777777777</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>45937</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="5">
+        <f>16951/126</f>
+        <v>134.53174603174602</v>
+      </c>
+      <c r="D74" s="4">
+        <f>C74/(24*60)</f>
+        <v>9.3424823633156961E-2</v>
+      </c>
+      <c r="E74" s="5">
+        <f>10341.38/126</f>
+        <v>82.074444444444438</v>
+      </c>
+      <c r="F74" s="5">
+        <f>3562.56/126</f>
+        <v>28.274285714285714</v>
+      </c>
+      <c r="G74" s="5">
+        <f>10341.38/(16951/60)</f>
+        <v>36.60449531001121</v>
+      </c>
+      <c r="H74" s="5">
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>45937</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="5">
+        <f>5616/36</f>
+        <v>156</v>
+      </c>
+      <c r="D75" s="4">
+        <f>C75/(24*60)</f>
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="E75" s="5">
+        <f>4056.06/36</f>
+        <v>112.66833333333334</v>
+      </c>
+      <c r="F75" s="5">
+        <f>1094.62/36</f>
+        <v>30.406111111111109</v>
+      </c>
+      <c r="G75" s="5">
+        <f>4056.06/(5616/60)</f>
+        <v>43.333974358974359</v>
+      </c>
+      <c r="H75" s="5">
+        <f>143/36</f>
+        <v>3.9722222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2877,6 +2877,70 @@
         <v>3.9722222222222223</v>
       </c>
     </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>45938</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="5">
+        <f>19392/126</f>
+        <v>153.9047619047619</v>
+      </c>
+      <c r="D76" s="4">
+        <f>C76/(24*60)</f>
+        <v>0.10687830687830688</v>
+      </c>
+      <c r="E76" s="5">
+        <f>11559.41/126</f>
+        <v>91.741349206349199</v>
+      </c>
+      <c r="F76" s="5">
+        <f>4044.18/126</f>
+        <v>32.096666666666664</v>
+      </c>
+      <c r="G76" s="5">
+        <f>11559.41/(19392/60)</f>
+        <v>35.765501237623766</v>
+      </c>
+      <c r="H76" s="5">
+        <f>463/126</f>
+        <v>3.6746031746031744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>45938</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="5">
+        <f>7192/36</f>
+        <v>199.77777777777777</v>
+      </c>
+      <c r="D77" s="4">
+        <f>C77/(24*60)</f>
+        <v>0.13873456790123456</v>
+      </c>
+      <c r="E77" s="5">
+        <f>5580.13/36</f>
+        <v>155.00361111111113</v>
+      </c>
+      <c r="F77" s="5">
+        <f>1362.14/36</f>
+        <v>37.837222222222223</v>
+      </c>
+      <c r="G77" s="5">
+        <f>5580.13/(7192/60)</f>
+        <v>46.552808676307009</v>
+      </c>
+      <c r="H77" s="5">
+        <f>192/36</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2941,6 +2941,134 @@
         <v>5.333333333333333</v>
       </c>
     </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>45939</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="5">
+        <f>18835/126</f>
+        <v>149.48412698412699</v>
+      </c>
+      <c r="D78" s="4">
+        <f>C78/(24*60)</f>
+        <v>0.10380842151675486</v>
+      </c>
+      <c r="E78" s="5">
+        <f>10987.23/126</f>
+        <v>87.200238095238092</v>
+      </c>
+      <c r="F78" s="5">
+        <f>3818.52/126</f>
+        <v>30.305714285714284</v>
+      </c>
+      <c r="G78" s="5">
+        <f>10987.23/(18835/60)</f>
+        <v>35.000467215290676</v>
+      </c>
+      <c r="H78" s="5">
+        <f>460/126</f>
+        <v>3.6507936507936507</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>45939</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="5">
+        <f>7356/36</f>
+        <v>204.33333333333334</v>
+      </c>
+      <c r="D79" s="4">
+        <f>C79/(24*60)</f>
+        <v>0.14189814814814816</v>
+      </c>
+      <c r="E79" s="5">
+        <f>5141.28/36</f>
+        <v>142.81333333333333</v>
+      </c>
+      <c r="F79" s="5">
+        <f>1326.75/36</f>
+        <v>36.854166666666664</v>
+      </c>
+      <c r="G79" s="5">
+        <f>5141.28/(7356/60)</f>
+        <v>41.935399673735724</v>
+      </c>
+      <c r="H79" s="5">
+        <f>179/36</f>
+        <v>4.9722222222222223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>45940</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="5">
+        <f>20047/126</f>
+        <v>159.10317460317461</v>
+      </c>
+      <c r="D80" s="4">
+        <f>C80/(24*60)</f>
+        <v>0.11048831569664903</v>
+      </c>
+      <c r="E80" s="5">
+        <f>10256.78/126</f>
+        <v>81.403015873015875</v>
+      </c>
+      <c r="F80" s="5">
+        <f>3626.33/126</f>
+        <v>28.780396825396824</v>
+      </c>
+      <c r="G80" s="5">
+        <f>10256.78/(20047/60)</f>
+        <v>30.698199231805258</v>
+      </c>
+      <c r="H80" s="5">
+        <f>440/126</f>
+        <v>3.4920634920634921</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>45940</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="5">
+        <f>7592/36</f>
+        <v>210.88888888888889</v>
+      </c>
+      <c r="D81" s="4">
+        <f>C81/(24*60)</f>
+        <v>0.14645061728395062</v>
+      </c>
+      <c r="E81" s="5">
+        <f>5154.54/36</f>
+        <v>143.18166666666667</v>
+      </c>
+      <c r="F81" s="5">
+        <f>1307.95/36</f>
+        <v>36.331944444444446</v>
+      </c>
+      <c r="G81" s="5">
+        <f>5154.54/(7592/60)</f>
+        <v>40.736617492096947</v>
+      </c>
+      <c r="H81" s="5">
+        <f>191/36</f>
+        <v>5.3055555555555554</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2826,7 +2826,7 @@
         <v>134.53174603174602</v>
       </c>
       <c r="D74" s="4">
-        <f>C74/(24*60)</f>
+        <f t="shared" ref="D74:D81" si="3">C74/(24*60)</f>
         <v>9.3424823633156961E-2</v>
       </c>
       <c r="E74" s="5">
@@ -2857,7 +2857,7 @@
         <v>156</v>
       </c>
       <c r="D75" s="4">
-        <f>C75/(24*60)</f>
+        <f t="shared" si="3"/>
         <v>0.10833333333333334</v>
       </c>
       <c r="E75" s="5">
@@ -2889,7 +2889,7 @@
         <v>153.9047619047619</v>
       </c>
       <c r="D76" s="4">
-        <f>C76/(24*60)</f>
+        <f t="shared" si="3"/>
         <v>0.10687830687830688</v>
       </c>
       <c r="E76" s="5">
@@ -2921,7 +2921,7 @@
         <v>199.77777777777777</v>
       </c>
       <c r="D77" s="4">
-        <f>C77/(24*60)</f>
+        <f t="shared" si="3"/>
         <v>0.13873456790123456</v>
       </c>
       <c r="E77" s="5">
@@ -2953,7 +2953,7 @@
         <v>149.48412698412699</v>
       </c>
       <c r="D78" s="4">
-        <f>C78/(24*60)</f>
+        <f t="shared" si="3"/>
         <v>0.10380842151675486</v>
       </c>
       <c r="E78" s="5">
@@ -2985,7 +2985,7 @@
         <v>204.33333333333334</v>
       </c>
       <c r="D79" s="4">
-        <f>C79/(24*60)</f>
+        <f t="shared" si="3"/>
         <v>0.14189814814814816</v>
       </c>
       <c r="E79" s="5">
@@ -3017,7 +3017,7 @@
         <v>159.10317460317461</v>
       </c>
       <c r="D80" s="4">
-        <f>C80/(24*60)</f>
+        <f t="shared" si="3"/>
         <v>0.11048831569664903</v>
       </c>
       <c r="E80" s="5">
@@ -3049,7 +3049,7 @@
         <v>210.88888888888889</v>
       </c>
       <c r="D81" s="4">
-        <f>C81/(24*60)</f>
+        <f t="shared" si="3"/>
         <v>0.14645061728395062</v>
       </c>
       <c r="E81" s="5">
@@ -3067,6 +3067,69 @@
       <c r="H81" s="5">
         <f>191/36</f>
         <v>5.3055555555555554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>45941</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="5">
+        <f>18946/126</f>
+        <v>150.36507936507937</v>
+      </c>
+      <c r="D82" s="4">
+        <f>C82/(24*60)</f>
+        <v>0.10442019400352734</v>
+      </c>
+      <c r="E82" s="5">
+        <f>10508.12/126</f>
+        <v>83.39777777777779</v>
+      </c>
+      <c r="F82" s="5">
+        <f>3652.19/126</f>
+        <v>28.985634920634922</v>
+      </c>
+      <c r="G82" s="5">
+        <f>10508.12/(18946/60)</f>
+        <v>33.278116752876599</v>
+      </c>
+      <c r="H82" s="5">
+        <v>3.5396825396825395</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>45941</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="5">
+        <f>7009/36</f>
+        <v>194.69444444444446</v>
+      </c>
+      <c r="D83" s="4">
+        <f>C83/(24*60)</f>
+        <v>0.13520447530864199</v>
+      </c>
+      <c r="E83" s="5">
+        <f>5191.68/36</f>
+        <v>144.21333333333334</v>
+      </c>
+      <c r="F83" s="5">
+        <f>1371.67/36</f>
+        <v>38.101944444444449</v>
+      </c>
+      <c r="G83" s="5">
+        <f>5191.68/(7009/60)</f>
+        <v>44.442973320017124</v>
+      </c>
+      <c r="H83" s="5">
+        <f>189/36</f>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3132,6 +3132,70 @@
         <v>5.25</v>
       </c>
     </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>45942</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="5">
+        <f>16008/126</f>
+        <v>127.04761904761905</v>
+      </c>
+      <c r="D84" s="4">
+        <f>C84/(24*60)</f>
+        <v>8.8227513227513224E-2</v>
+      </c>
+      <c r="E84" s="5">
+        <f>9225.03/126</f>
+        <v>73.214523809523811</v>
+      </c>
+      <c r="F84" s="5">
+        <f>3175.58/126</f>
+        <v>25.203015873015872</v>
+      </c>
+      <c r="G84" s="5">
+        <f>9225.03/(16008/60)</f>
+        <v>34.576574212893554</v>
+      </c>
+      <c r="H84" s="5">
+        <f>375/126</f>
+        <v>2.9761904761904763</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>45942</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="5">
+        <f>5235/36</f>
+        <v>145.41666666666666</v>
+      </c>
+      <c r="D85" s="4">
+        <f>C85/(24*60)</f>
+        <v>0.10098379629629629</v>
+      </c>
+      <c r="E85" s="5">
+        <f>3777.63/36</f>
+        <v>104.93416666666667</v>
+      </c>
+      <c r="F85" s="5">
+        <f>991.63/36</f>
+        <v>27.545277777777777</v>
+      </c>
+      <c r="G85" s="5">
+        <f>3777.63/(5235/60)</f>
+        <v>43.296618911174789</v>
+      </c>
+      <c r="H85" s="5">
+        <f>134/36</f>
+        <v>3.7222222222222223</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3196,6 +3196,70 @@
         <v>3.7222222222222223</v>
       </c>
     </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="5">
+        <f>15232/126</f>
+        <v>120.88888888888889</v>
+      </c>
+      <c r="D86" s="4">
+        <f>C86/(24*60)</f>
+        <v>8.3950617283950618E-2</v>
+      </c>
+      <c r="E86" s="5">
+        <f>8434.09/126</f>
+        <v>66.937222222222218</v>
+      </c>
+      <c r="F86" s="5">
+        <f>2913.27/126</f>
+        <v>23.121190476190478</v>
+      </c>
+      <c r="G86" s="5">
+        <f>8434.09/(15232/60)</f>
+        <v>33.222518382352938</v>
+      </c>
+      <c r="H86" s="5">
+        <f>369/126</f>
+        <v>2.9285714285714284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="5">
+        <f>6611/36</f>
+        <v>183.63888888888889</v>
+      </c>
+      <c r="D87" s="4">
+        <f>C87/(24*60)</f>
+        <v>0.12752700617283949</v>
+      </c>
+      <c r="E87" s="5">
+        <f>4333.89/36</f>
+        <v>120.38583333333334</v>
+      </c>
+      <c r="F87" s="5">
+        <f>1107.18/36</f>
+        <v>30.755000000000003</v>
+      </c>
+      <c r="G87" s="5">
+        <f>4333.89/(6611/60)</f>
+        <v>39.333444259567386</v>
+      </c>
+      <c r="H87" s="5">
+        <f>169/36</f>
+        <v>4.6944444444444446</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3081,7 +3081,7 @@
         <v>150.36507936507937</v>
       </c>
       <c r="D82" s="4">
-        <f>C82/(24*60)</f>
+        <f t="shared" ref="D82:D87" si="4">C82/(24*60)</f>
         <v>0.10442019400352734</v>
       </c>
       <c r="E82" s="5">
@@ -3112,7 +3112,7 @@
         <v>194.69444444444446</v>
       </c>
       <c r="D83" s="4">
-        <f>C83/(24*60)</f>
+        <f t="shared" si="4"/>
         <v>0.13520447530864199</v>
       </c>
       <c r="E83" s="5">
@@ -3144,7 +3144,7 @@
         <v>127.04761904761905</v>
       </c>
       <c r="D84" s="4">
-        <f>C84/(24*60)</f>
+        <f t="shared" si="4"/>
         <v>8.8227513227513224E-2</v>
       </c>
       <c r="E84" s="5">
@@ -3176,7 +3176,7 @@
         <v>145.41666666666666</v>
       </c>
       <c r="D85" s="4">
-        <f>C85/(24*60)</f>
+        <f t="shared" si="4"/>
         <v>0.10098379629629629</v>
       </c>
       <c r="E85" s="5">
@@ -3208,7 +3208,7 @@
         <v>120.88888888888889</v>
       </c>
       <c r="D86" s="4">
-        <f>C86/(24*60)</f>
+        <f t="shared" si="4"/>
         <v>8.3950617283950618E-2</v>
       </c>
       <c r="E86" s="5">
@@ -3240,7 +3240,7 @@
         <v>183.63888888888889</v>
       </c>
       <c r="D87" s="4">
-        <f>C87/(24*60)</f>
+        <f t="shared" si="4"/>
         <v>0.12752700617283949</v>
       </c>
       <c r="E87" s="5">
@@ -3258,6 +3258,70 @@
       <c r="H87" s="5">
         <f>169/36</f>
         <v>4.6944444444444446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="5">
+        <f>15417/126</f>
+        <v>122.35714285714286</v>
+      </c>
+      <c r="D88" s="4">
+        <f>C88/(24*60)</f>
+        <v>8.4970238095238099E-2</v>
+      </c>
+      <c r="E88" s="5">
+        <f>8775.35/126</f>
+        <v>69.645634920634919</v>
+      </c>
+      <c r="F88" s="5">
+        <f>3053.72/126</f>
+        <v>24.235873015873015</v>
+      </c>
+      <c r="G88" s="5">
+        <f>8775.35/(15417/60)</f>
+        <v>34.15197509243044</v>
+      </c>
+      <c r="H88" s="5">
+        <f>378/126</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="5">
+        <f>6107/36</f>
+        <v>169.63888888888889</v>
+      </c>
+      <c r="D89" s="4">
+        <f>C89/(24*60)</f>
+        <v>0.11780478395061728</v>
+      </c>
+      <c r="E89" s="5">
+        <f>4056.73/36</f>
+        <v>112.68694444444445</v>
+      </c>
+      <c r="F89" s="5">
+        <f>1081.36/36</f>
+        <v>30.037777777777777</v>
+      </c>
+      <c r="G89" s="5">
+        <f>4056.73/(6107/60)</f>
+        <v>39.856525298837404</v>
+      </c>
+      <c r="H89" s="5">
+        <f>160/36</f>
+        <v>4.4444444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3324,6 +3324,70 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="5">
+        <f>15812/126</f>
+        <v>125.49206349206349</v>
+      </c>
+      <c r="D90" s="4">
+        <f>C90/(24*60)</f>
+        <v>8.7147266313932978E-2</v>
+      </c>
+      <c r="E90" s="5">
+        <f>8539.95/126</f>
+        <v>67.777380952380952</v>
+      </c>
+      <c r="F90" s="5">
+        <f>3006.5/126</f>
+        <v>23.861111111111111</v>
+      </c>
+      <c r="G90" s="5">
+        <f>8539.95/(15812/60)</f>
+        <v>32.405578041993422</v>
+      </c>
+      <c r="H90" s="5">
+        <f>375/126</f>
+        <v>2.9761904761904763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="5">
+        <f>6187/36</f>
+        <v>171.86111111111111</v>
+      </c>
+      <c r="D91" s="4">
+        <f>C91/(24*60)</f>
+        <v>0.11934799382716049</v>
+      </c>
+      <c r="E91" s="5">
+        <f>4360.35/36</f>
+        <v>121.12083333333334</v>
+      </c>
+      <c r="F91" s="5">
+        <f>1112.59/36</f>
+        <v>30.905277777777776</v>
+      </c>
+      <c r="G91" s="5">
+        <f>4360.35/(6187/60)</f>
+        <v>42.285598836269607</v>
+      </c>
+      <c r="H91" s="5">
+        <f>152/36</f>
+        <v>4.2222222222222223</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3388,6 +3388,70 @@
         <v>4.2222222222222223</v>
       </c>
     </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="5">
+        <f>15159/126</f>
+        <v>120.30952380952381</v>
+      </c>
+      <c r="D92" s="4">
+        <f>C92/(24*60)</f>
+        <v>8.3548280423280427E-2</v>
+      </c>
+      <c r="E92" s="5">
+        <f>8637.61/126</f>
+        <v>68.552460317460316</v>
+      </c>
+      <c r="F92" s="5">
+        <f>2985.93/126</f>
+        <v>23.697857142857142</v>
+      </c>
+      <c r="G92" s="5">
+        <f>8637.61/(15159/60)</f>
+        <v>34.188046704927764</v>
+      </c>
+      <c r="H92" s="5">
+        <f>374/126</f>
+        <v>2.9682539682539684</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="5">
+        <f>5657/36</f>
+        <v>157.13888888888889</v>
+      </c>
+      <c r="D93" s="4">
+        <f>C93/(24*60)</f>
+        <v>0.10912422839506172</v>
+      </c>
+      <c r="E93" s="5">
+        <f>3972.73/36</f>
+        <v>110.35361111111111</v>
+      </c>
+      <c r="F93" s="5">
+        <f>1042.71/36</f>
+        <v>28.964166666666667</v>
+      </c>
+      <c r="G93" s="5">
+        <f>3972.73/(5667/60)</f>
+        <v>42.061725780836419</v>
+      </c>
+      <c r="H93" s="5">
+        <f>146/36</f>
+        <v>4.0555555555555554</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3272,7 +3272,7 @@
         <v>122.35714285714286</v>
       </c>
       <c r="D88" s="4">
-        <f>C88/(24*60)</f>
+        <f t="shared" ref="D88:D93" si="5">C88/(24*60)</f>
         <v>8.4970238095238099E-2</v>
       </c>
       <c r="E88" s="5">
@@ -3304,7 +3304,7 @@
         <v>169.63888888888889</v>
       </c>
       <c r="D89" s="4">
-        <f>C89/(24*60)</f>
+        <f t="shared" si="5"/>
         <v>0.11780478395061728</v>
       </c>
       <c r="E89" s="5">
@@ -3336,7 +3336,7 @@
         <v>125.49206349206349</v>
       </c>
       <c r="D90" s="4">
-        <f>C90/(24*60)</f>
+        <f t="shared" si="5"/>
         <v>8.7147266313932978E-2</v>
       </c>
       <c r="E90" s="5">
@@ -3368,7 +3368,7 @@
         <v>171.86111111111111</v>
       </c>
       <c r="D91" s="4">
-        <f>C91/(24*60)</f>
+        <f t="shared" si="5"/>
         <v>0.11934799382716049</v>
       </c>
       <c r="E91" s="5">
@@ -3400,7 +3400,7 @@
         <v>120.30952380952381</v>
       </c>
       <c r="D92" s="4">
-        <f>C92/(24*60)</f>
+        <f t="shared" si="5"/>
         <v>8.3548280423280427E-2</v>
       </c>
       <c r="E92" s="5">
@@ -3432,7 +3432,7 @@
         <v>157.13888888888889</v>
       </c>
       <c r="D93" s="4">
-        <f>C93/(24*60)</f>
+        <f t="shared" si="5"/>
         <v>0.10912422839506172</v>
       </c>
       <c r="E93" s="5">
@@ -3450,6 +3450,70 @@
       <c r="H93" s="5">
         <f>146/36</f>
         <v>4.0555555555555554</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>45947</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="5">
+        <f>15588/126</f>
+        <v>123.71428571428571</v>
+      </c>
+      <c r="D94" s="4">
+        <f>C94/(24*60)</f>
+        <v>8.5912698412698413E-2</v>
+      </c>
+      <c r="E94" s="5">
+        <f>8361.11/126</f>
+        <v>66.358015873015873</v>
+      </c>
+      <c r="F94" s="5">
+        <f>2890.07/126</f>
+        <v>22.937063492063494</v>
+      </c>
+      <c r="G94" s="5">
+        <f>8361.11/(15588/60)</f>
+        <v>32.182871439568899</v>
+      </c>
+      <c r="H94" s="5">
+        <f>373/126</f>
+        <v>2.9603174603174605</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>45947</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="5">
+        <f>5103/36</f>
+        <v>141.75</v>
+      </c>
+      <c r="D95" s="4">
+        <f>C95/(24*60)</f>
+        <v>9.8437499999999997E-2</v>
+      </c>
+      <c r="E95" s="5">
+        <f>3470.37/36</f>
+        <v>96.399166666666659</v>
+      </c>
+      <c r="F95" s="5">
+        <f>974.57/36</f>
+        <v>27.07138888888889</v>
+      </c>
+      <c r="G95" s="5">
+        <f>3470.37/(5103/60)</f>
+        <v>40.803880070546739</v>
+      </c>
+      <c r="H95" s="5">
+        <f>131/36</f>
+        <v>3.6388888888888888</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3516,6 +3516,70 @@
         <v>3.6388888888888888</v>
       </c>
     </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>45948</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5">
+        <f>18320/126</f>
+        <v>145.39682539682539</v>
+      </c>
+      <c r="D96" s="4">
+        <f>C96/(24*60)</f>
+        <v>0.1009700176366843</v>
+      </c>
+      <c r="E96" s="5">
+        <f>10067.02/126</f>
+        <v>79.896984126984137</v>
+      </c>
+      <c r="F96" s="5">
+        <f>3486/126</f>
+        <v>27.666666666666668</v>
+      </c>
+      <c r="G96" s="5">
+        <f>10067.02/(18320/60)</f>
+        <v>32.970589519650659</v>
+      </c>
+      <c r="H96" s="5">
+        <f>434/126</f>
+        <v>3.4444444444444446</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>45948</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="5">
+        <f>5801/36</f>
+        <v>161.13888888888889</v>
+      </c>
+      <c r="D97" s="4">
+        <f>C97/(24*60)</f>
+        <v>0.1119020061728395</v>
+      </c>
+      <c r="E97" s="5">
+        <f>3944.96/36</f>
+        <v>109.58222222222223</v>
+      </c>
+      <c r="F97" s="5">
+        <f>989.79/36</f>
+        <v>27.494166666666665</v>
+      </c>
+      <c r="G97" s="5">
+        <f>3944.96/(5801/60)</f>
+        <v>40.802896052404755</v>
+      </c>
+      <c r="H97" s="5">
+        <f>149/36</f>
+        <v>4.1388888888888893</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3580,6 +3580,70 @@
         <v>4.1388888888888893</v>
       </c>
     </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>45949</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="5">
+        <f>16400/126</f>
+        <v>130.15873015873015</v>
+      </c>
+      <c r="D98" s="4">
+        <f>C98/(24*60)</f>
+        <v>9.0388007054673716E-2</v>
+      </c>
+      <c r="E98" s="5">
+        <f>8921.04/126</f>
+        <v>70.801904761904765</v>
+      </c>
+      <c r="F98" s="5">
+        <f>3008.65/126</f>
+        <v>23.878174603174603</v>
+      </c>
+      <c r="G98" s="5">
+        <f>8921.04/(16400/60)</f>
+        <v>32.637951219512203</v>
+      </c>
+      <c r="H98" s="5">
+        <f>369/126</f>
+        <v>2.9285714285714284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>45949</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="5">
+        <f>6291/36</f>
+        <v>174.75</v>
+      </c>
+      <c r="D99" s="4">
+        <f>C99/(24*60)</f>
+        <v>0.12135416666666667</v>
+      </c>
+      <c r="E99" s="5">
+        <f>4269.53/36</f>
+        <v>118.59805555555555</v>
+      </c>
+      <c r="F99" s="5">
+        <f>1039.3/36</f>
+        <v>28.869444444444444</v>
+      </c>
+      <c r="G99" s="5">
+        <f>4269.53/(6291/60)</f>
+        <v>40.720362422508344</v>
+      </c>
+      <c r="H99" s="5">
+        <f>150/36</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3464,7 +3464,7 @@
         <v>123.71428571428571</v>
       </c>
       <c r="D94" s="4">
-        <f>C94/(24*60)</f>
+        <f t="shared" ref="D94:D99" si="6">C94/(24*60)</f>
         <v>8.5912698412698413E-2</v>
       </c>
       <c r="E94" s="5">
@@ -3496,7 +3496,7 @@
         <v>141.75</v>
       </c>
       <c r="D95" s="4">
-        <f>C95/(24*60)</f>
+        <f t="shared" si="6"/>
         <v>9.8437499999999997E-2</v>
       </c>
       <c r="E95" s="5">
@@ -3528,7 +3528,7 @@
         <v>145.39682539682539</v>
       </c>
       <c r="D96" s="4">
-        <f>C96/(24*60)</f>
+        <f t="shared" si="6"/>
         <v>0.1009700176366843</v>
       </c>
       <c r="E96" s="5">
@@ -3560,7 +3560,7 @@
         <v>161.13888888888889</v>
       </c>
       <c r="D97" s="4">
-        <f>C97/(24*60)</f>
+        <f t="shared" si="6"/>
         <v>0.1119020061728395</v>
       </c>
       <c r="E97" s="5">
@@ -3592,7 +3592,7 @@
         <v>130.15873015873015</v>
       </c>
       <c r="D98" s="4">
-        <f>C98/(24*60)</f>
+        <f t="shared" si="6"/>
         <v>9.0388007054673716E-2</v>
       </c>
       <c r="E98" s="5">
@@ -3624,7 +3624,7 @@
         <v>174.75</v>
       </c>
       <c r="D99" s="4">
-        <f>C99/(24*60)</f>
+        <f t="shared" si="6"/>
         <v>0.12135416666666667</v>
       </c>
       <c r="E99" s="5">
@@ -3642,6 +3642,70 @@
       <c r="H99" s="5">
         <f>150/36</f>
         <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="5">
+        <f>19892/126</f>
+        <v>157.87301587301587</v>
+      </c>
+      <c r="D100" s="4">
+        <f>C100/(24*60)</f>
+        <v>0.10963403880070546</v>
+      </c>
+      <c r="E100" s="5">
+        <f>10820.19/126</f>
+        <v>85.874523809523808</v>
+      </c>
+      <c r="F100" s="5">
+        <f>3759.82/126</f>
+        <v>29.839841269841273</v>
+      </c>
+      <c r="G100" s="5">
+        <f>10820.19/(19892/60)</f>
+        <v>32.636808767343652</v>
+      </c>
+      <c r="H100" s="5">
+        <f>427/126</f>
+        <v>3.3888888888888888</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="5">
+        <f>6345/36</f>
+        <v>176.25</v>
+      </c>
+      <c r="D101" s="4">
+        <f>C101/(24*60)</f>
+        <v>0.12239583333333333</v>
+      </c>
+      <c r="E101" s="5">
+        <f>4517.3/36</f>
+        <v>125.48055555555555</v>
+      </c>
+      <c r="F101" s="5">
+        <f>1280.75/36</f>
+        <v>35.576388888888886</v>
+      </c>
+      <c r="G101" s="5">
+        <f>4517.3/(6345/60)</f>
+        <v>42.716784869976358</v>
+      </c>
+      <c r="H101" s="5">
+        <f>157/36</f>
+        <v>4.3611111111111107</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3708,6 +3708,70 @@
         <v>4.3611111111111107</v>
       </c>
     </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="5">
+        <f>18469/126</f>
+        <v>146.57936507936509</v>
+      </c>
+      <c r="D102" s="4">
+        <f>C102/(24*60)</f>
+        <v>0.10179122574955909</v>
+      </c>
+      <c r="E102" s="5">
+        <f>9719.94/126</f>
+        <v>77.142380952380961</v>
+      </c>
+      <c r="F102" s="5">
+        <f>3449.26/126</f>
+        <v>27.375079365079365</v>
+      </c>
+      <c r="G102" s="5">
+        <f>9719.94/(18469/60)</f>
+        <v>31.577042611944343</v>
+      </c>
+      <c r="H102" s="5">
+        <f>408/126</f>
+        <v>3.2380952380952381</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="5">
+        <f>9025/36</f>
+        <v>250.69444444444446</v>
+      </c>
+      <c r="D103" s="4">
+        <f>C103/(24*60)</f>
+        <v>0.17409336419753088</v>
+      </c>
+      <c r="E103" s="5">
+        <f>5947.02/36</f>
+        <v>165.19500000000002</v>
+      </c>
+      <c r="F103" s="5">
+        <f>1572.22/36</f>
+        <v>43.672777777777782</v>
+      </c>
+      <c r="G103" s="5">
+        <f>5947.02/(9025/60)</f>
+        <v>39.53697506925208</v>
+      </c>
+      <c r="H103" s="5">
+        <f>209/36</f>
+        <v>5.8055555555555554</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$53</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +57,78 @@
     <t>单枪日均充电次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>站点名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙飞狐四方坪东区充电站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙飞狐四方坪西区充电站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙飞狐四方坪南区充电站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙飞狐高岭充电站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开福区四方坪东二环立交桥下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开福区高岭国际商贸城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道闸收入(元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月卡收入(元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额定总功率(kw)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电量(kwh)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电总收入(元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电服务费收入(元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,11 +171,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -112,6 +200,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3772,6 +3863,225 @@
         <v>5.8055555555555554</v>
       </c>
     </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="5">
+        <f>17491/126</f>
+        <v>138.81746031746033</v>
+      </c>
+      <c r="D104" s="4">
+        <f>C104/(24*60)</f>
+        <v>9.6401014109347455E-2</v>
+      </c>
+      <c r="E104" s="5">
+        <f>8977.26/126</f>
+        <v>71.248095238095246</v>
+      </c>
+      <c r="F104" s="5">
+        <f>3108.35/126</f>
+        <v>24.669444444444444</v>
+      </c>
+      <c r="G104" s="5">
+        <f>8977.26/(17491/60)</f>
+        <v>30.795014578926306</v>
+      </c>
+      <c r="H104" s="5">
+        <f>388/126</f>
+        <v>3.0793650793650795</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="5">
+        <f>8139/36</f>
+        <v>226.08333333333334</v>
+      </c>
+      <c r="D105" s="4">
+        <f>C105/(24*60)</f>
+        <v>0.15700231481481483</v>
+      </c>
+      <c r="E105" s="5">
+        <f>5175.03/36</f>
+        <v>143.75083333333333</v>
+      </c>
+      <c r="F105" s="5">
+        <f>1404.57/36</f>
+        <v>39.015833333333333</v>
+      </c>
+      <c r="G105" s="5">
+        <f>5175.03/(8139/60)</f>
+        <v>38.149870991522299</v>
+      </c>
+      <c r="H105" s="5">
+        <f>197/36</f>
+        <v>5.4722222222222223</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3590</v>
+      </c>
+      <c r="E2" s="8">
+        <v>49</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4200</v>
+      </c>
+      <c r="E3" s="8">
+        <v>69</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="8">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2160</v>
+      </c>
+      <c r="E5" s="8">
+        <v>36</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3747,7 +3747,7 @@
         <v>157.87301587301587</v>
       </c>
       <c r="D100" s="4">
-        <f>C100/(24*60)</f>
+        <f t="shared" ref="D100:D105" si="7">C100/(24*60)</f>
         <v>0.10963403880070546</v>
       </c>
       <c r="E100" s="5">
@@ -3779,7 +3779,7 @@
         <v>176.25</v>
       </c>
       <c r="D101" s="4">
-        <f>C101/(24*60)</f>
+        <f t="shared" si="7"/>
         <v>0.12239583333333333</v>
       </c>
       <c r="E101" s="5">
@@ -3811,7 +3811,7 @@
         <v>146.57936507936509</v>
       </c>
       <c r="D102" s="4">
-        <f>C102/(24*60)</f>
+        <f t="shared" si="7"/>
         <v>0.10179122574955909</v>
       </c>
       <c r="E102" s="5">
@@ -3843,7 +3843,7 @@
         <v>250.69444444444446</v>
       </c>
       <c r="D103" s="4">
-        <f>C103/(24*60)</f>
+        <f t="shared" si="7"/>
         <v>0.17409336419753088</v>
       </c>
       <c r="E103" s="5">
@@ -3875,7 +3875,7 @@
         <v>138.81746031746033</v>
       </c>
       <c r="D104" s="4">
-        <f>C104/(24*60)</f>
+        <f t="shared" si="7"/>
         <v>9.6401014109347455E-2</v>
       </c>
       <c r="E104" s="5">
@@ -3907,7 +3907,7 @@
         <v>226.08333333333334</v>
       </c>
       <c r="D105" s="4">
-        <f>C105/(24*60)</f>
+        <f t="shared" si="7"/>
         <v>0.15700231481481483</v>
       </c>
       <c r="E105" s="5">
@@ -3925,6 +3925,70 @@
       <c r="H105" s="5">
         <f>197/36</f>
         <v>5.4722222222222223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="5">
+        <f>18485/126</f>
+        <v>146.70634920634922</v>
+      </c>
+      <c r="D106" s="4">
+        <f>C106/(24*60)</f>
+        <v>0.10187940917107584</v>
+      </c>
+      <c r="E106" s="5">
+        <f>10022.34/126</f>
+        <v>79.542380952380952</v>
+      </c>
+      <c r="F106" s="5">
+        <f>3555.21/126</f>
+        <v>28.21595238095238</v>
+      </c>
+      <c r="G106" s="5">
+        <f>10022.34/(18485/60)</f>
+        <v>32.531263186367326</v>
+      </c>
+      <c r="H106" s="5">
+        <f>421/126</f>
+        <v>3.3412698412698414</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="5">
+        <f>7056/36</f>
+        <v>196</v>
+      </c>
+      <c r="D107" s="4">
+        <f>C107/(24*60)</f>
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="E107" s="5">
+        <f>5362.37/36</f>
+        <v>148.95472222222222</v>
+      </c>
+      <c r="F107" s="5">
+        <f>1389.28/36</f>
+        <v>38.591111111111111</v>
+      </c>
+      <c r="G107" s="5">
+        <f>5362.37/(7056/60)</f>
+        <v>45.598384353741501</v>
+      </c>
+      <c r="H107" s="5">
+        <f>214/36</f>
+        <v>5.9444444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O107"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3989,6 +3989,70 @@
       <c r="H107" s="5">
         <f>214/36</f>
         <v>5.9444444444444446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="5">
+        <f>17690/126</f>
+        <v>140.39682539682539</v>
+      </c>
+      <c r="D108" s="4">
+        <f>C108/(24*60)</f>
+        <v>9.7497795414462074E-2</v>
+      </c>
+      <c r="E108" s="5">
+        <f>9462.42/126</f>
+        <v>75.098571428571432</v>
+      </c>
+      <c r="F108" s="5">
+        <f>3311.88/126</f>
+        <v>26.284761904761904</v>
+      </c>
+      <c r="G108" s="5">
+        <f>9462.42/(17690/60)</f>
+        <v>32.094132278123233</v>
+      </c>
+      <c r="H108" s="5">
+        <f>397/126</f>
+        <v>3.1507936507936507</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="5">
+        <f>6975/36</f>
+        <v>193.75</v>
+      </c>
+      <c r="D109" s="4">
+        <f>C109/(24*60)</f>
+        <v>0.1345486111111111</v>
+      </c>
+      <c r="E109" s="5">
+        <f>5405.33/36</f>
+        <v>150.14805555555554</v>
+      </c>
+      <c r="F109" s="5">
+        <f>1398.83/36</f>
+        <v>38.856388888888887</v>
+      </c>
+      <c r="G109" s="5">
+        <f>5405.33/(6975/60)</f>
+        <v>46.497462365591396</v>
+      </c>
+      <c r="H109" s="5">
+        <f>200/36</f>
+        <v>5.5555555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4053,6 +4053,70 @@
       <c r="H109" s="5">
         <f>200/36</f>
         <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>45955</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="5">
+        <f>18844/126</f>
+        <v>149.55555555555554</v>
+      </c>
+      <c r="D110" s="4">
+        <f>C110/(24*60)</f>
+        <v>0.10385802469135802</v>
+      </c>
+      <c r="E110" s="5">
+        <f>10409.1/126</f>
+        <v>82.611904761904768</v>
+      </c>
+      <c r="F110" s="5">
+        <f>3654.9/126</f>
+        <v>29.007142857142856</v>
+      </c>
+      <c r="G110" s="5">
+        <f>10409.4/(18844/60)</f>
+        <v>33.1439184886436</v>
+      </c>
+      <c r="H110" s="5">
+        <f>425/126</f>
+        <v>3.373015873015873</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>45955</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="5">
+        <f>6677/36</f>
+        <v>185.47222222222223</v>
+      </c>
+      <c r="D111" s="4">
+        <f>C111/(24*60)</f>
+        <v>0.12880015432098765</v>
+      </c>
+      <c r="E111" s="5">
+        <f>5114.27/36</f>
+        <v>142.06305555555556</v>
+      </c>
+      <c r="F111" s="5">
+        <f>1334.4/36</f>
+        <v>37.06666666666667</v>
+      </c>
+      <c r="G111" s="5">
+        <f>5114.27/(6677/60)</f>
+        <v>45.957196345664222</v>
+      </c>
+      <c r="H111" s="5">
+        <f>163/36</f>
+        <v>4.5277777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3939,7 +3939,7 @@
         <v>146.70634920634922</v>
       </c>
       <c r="D106" s="4">
-        <f>C106/(24*60)</f>
+        <f t="shared" ref="D106:D111" si="8">C106/(24*60)</f>
         <v>0.10187940917107584</v>
       </c>
       <c r="E106" s="5">
@@ -3971,7 +3971,7 @@
         <v>196</v>
       </c>
       <c r="D107" s="4">
-        <f>C107/(24*60)</f>
+        <f t="shared" si="8"/>
         <v>0.1361111111111111</v>
       </c>
       <c r="E107" s="5">
@@ -4003,7 +4003,7 @@
         <v>140.39682539682539</v>
       </c>
       <c r="D108" s="4">
-        <f>C108/(24*60)</f>
+        <f t="shared" si="8"/>
         <v>9.7497795414462074E-2</v>
       </c>
       <c r="E108" s="5">
@@ -4035,7 +4035,7 @@
         <v>193.75</v>
       </c>
       <c r="D109" s="4">
-        <f>C109/(24*60)</f>
+        <f t="shared" si="8"/>
         <v>0.1345486111111111</v>
       </c>
       <c r="E109" s="5">
@@ -4067,7 +4067,7 @@
         <v>149.55555555555554</v>
       </c>
       <c r="D110" s="4">
-        <f>C110/(24*60)</f>
+        <f t="shared" si="8"/>
         <v>0.10385802469135802</v>
       </c>
       <c r="E110" s="5">
@@ -4099,7 +4099,7 @@
         <v>185.47222222222223</v>
       </c>
       <c r="D111" s="4">
-        <f>C111/(24*60)</f>
+        <f t="shared" si="8"/>
         <v>0.12880015432098765</v>
       </c>
       <c r="E111" s="5">
@@ -4117,6 +4117,70 @@
       <c r="H111" s="5">
         <f>163/36</f>
         <v>4.5277777777777777</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>45956</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="5">
+        <f>18309/126</f>
+        <v>145.3095238095238</v>
+      </c>
+      <c r="D112" s="4">
+        <f>C112/(24*60)</f>
+        <v>0.10090939153439152</v>
+      </c>
+      <c r="E112" s="5">
+        <f>9596.2/126</f>
+        <v>76.160317460317472</v>
+      </c>
+      <c r="F112" s="5">
+        <f>3347.98/126</f>
+        <v>26.571269841269842</v>
+      </c>
+      <c r="G112" s="5">
+        <f>9695.2/(18309/60)</f>
+        <v>31.771915451417339</v>
+      </c>
+      <c r="H112" s="5">
+        <f>409/126</f>
+        <v>3.246031746031746</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>45956</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="5">
+        <f>5857/36</f>
+        <v>162.69444444444446</v>
+      </c>
+      <c r="D113" s="4">
+        <f>C113/(24*60)</f>
+        <v>0.11298225308641976</v>
+      </c>
+      <c r="E113" s="5">
+        <f>4219.62/36</f>
+        <v>117.21166666666666</v>
+      </c>
+      <c r="F113" s="5">
+        <f>1092.16/36</f>
+        <v>30.337777777777781</v>
+      </c>
+      <c r="G113" s="5">
+        <f>4219.62/(5875/60)</f>
+        <v>43.093991489361699</v>
+      </c>
+      <c r="H113" s="5">
+        <f>146/36</f>
+        <v>4.0555555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+      <selection activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4181,6 +4181,70 @@
       <c r="H113" s="5">
         <f>146/36</f>
         <v>4.0555555555555554</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="5">
+        <f>15790/126</f>
+        <v>125.31746031746032</v>
+      </c>
+      <c r="D114" s="4">
+        <f>C114/(24*60)</f>
+        <v>8.7026014109347447E-2</v>
+      </c>
+      <c r="E114" s="5">
+        <f>8252.82/126</f>
+        <v>65.498571428571424</v>
+      </c>
+      <c r="F114" s="5">
+        <f>2845.09/126</f>
+        <v>22.580079365079367</v>
+      </c>
+      <c r="G114" s="5">
+        <f>8252.82/(15790/60)</f>
+        <v>31.359670677644075</v>
+      </c>
+      <c r="H114" s="5">
+        <f>356/126</f>
+        <v>2.8253968253968256</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="5">
+        <f>6690/36</f>
+        <v>185.83333333333334</v>
+      </c>
+      <c r="D115" s="4">
+        <f>C115/(24*60)</f>
+        <v>0.12905092592592593</v>
+      </c>
+      <c r="E115" s="5">
+        <f>4238.8/36</f>
+        <v>117.74444444444445</v>
+      </c>
+      <c r="F115" s="5">
+        <f>1121.63/36</f>
+        <v>31.156388888888891</v>
+      </c>
+      <c r="G115" s="5">
+        <f>4238.8/(6690/60)</f>
+        <v>38.016143497757852</v>
+      </c>
+      <c r="H115" s="5">
+        <f>169/36</f>
+        <v>4.6944444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J117" sqref="J117"/>
+      <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4245,6 +4245,70 @@
       <c r="H115" s="5">
         <f>169/36</f>
         <v>4.6944444444444446</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="5">
+        <f>16362/126</f>
+        <v>129.85714285714286</v>
+      </c>
+      <c r="D116" s="4">
+        <f>C116/(24*60)</f>
+        <v>9.0178571428571427E-2</v>
+      </c>
+      <c r="E116" s="5">
+        <f>8548.61/126</f>
+        <v>67.846111111111114</v>
+      </c>
+      <c r="F116" s="5">
+        <f>2855.65/126</f>
+        <v>22.663888888888888</v>
+      </c>
+      <c r="G116" s="5">
+        <f>8548.61/(16362/60)</f>
+        <v>31.34803813714705</v>
+      </c>
+      <c r="H116" s="5">
+        <f>383/126</f>
+        <v>3.0396825396825395</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="5">
+        <f>5662/36</f>
+        <v>157.27777777777777</v>
+      </c>
+      <c r="D117" s="4">
+        <f>C117/(24*60)</f>
+        <v>0.10922067901234568</v>
+      </c>
+      <c r="E117" s="5">
+        <f>4029.96/36</f>
+        <v>111.94333333333333</v>
+      </c>
+      <c r="F117" s="5">
+        <f>995.91/36</f>
+        <v>27.664166666666667</v>
+      </c>
+      <c r="G117" s="5">
+        <f>4029.96/(5662/60)</f>
+        <v>42.705333804309433</v>
+      </c>
+      <c r="H117" s="5">
+        <f>142/36</f>
+        <v>3.9444444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="L117" sqref="L117"/>
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4131,7 +4131,7 @@
         <v>145.3095238095238</v>
       </c>
       <c r="D112" s="4">
-        <f>C112/(24*60)</f>
+        <f t="shared" ref="D112:D117" si="9">C112/(24*60)</f>
         <v>0.10090939153439152</v>
       </c>
       <c r="E112" s="5">
@@ -4163,7 +4163,7 @@
         <v>162.69444444444446</v>
       </c>
       <c r="D113" s="4">
-        <f>C113/(24*60)</f>
+        <f t="shared" si="9"/>
         <v>0.11298225308641976</v>
       </c>
       <c r="E113" s="5">
@@ -4195,7 +4195,7 @@
         <v>125.31746031746032</v>
       </c>
       <c r="D114" s="4">
-        <f>C114/(24*60)</f>
+        <f t="shared" si="9"/>
         <v>8.7026014109347447E-2</v>
       </c>
       <c r="E114" s="5">
@@ -4227,7 +4227,7 @@
         <v>185.83333333333334</v>
       </c>
       <c r="D115" s="4">
-        <f>C115/(24*60)</f>
+        <f t="shared" si="9"/>
         <v>0.12905092592592593</v>
       </c>
       <c r="E115" s="5">
@@ -4259,7 +4259,7 @@
         <v>129.85714285714286</v>
       </c>
       <c r="D116" s="4">
-        <f>C116/(24*60)</f>
+        <f t="shared" si="9"/>
         <v>9.0178571428571427E-2</v>
       </c>
       <c r="E116" s="5">
@@ -4291,7 +4291,7 @@
         <v>157.27777777777777</v>
       </c>
       <c r="D117" s="4">
-        <f>C117/(24*60)</f>
+        <f t="shared" si="9"/>
         <v>0.10922067901234568</v>
       </c>
       <c r="E117" s="5">
@@ -4309,6 +4309,70 @@
       <c r="H117" s="5">
         <f>142/36</f>
         <v>3.9444444444444446</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="5">
+        <f>15781/126</f>
+        <v>125.24603174603175</v>
+      </c>
+      <c r="D118" s="4">
+        <f>C118/(24*60)</f>
+        <v>8.6976410934744272E-2</v>
+      </c>
+      <c r="E118" s="5">
+        <f>8701.28/126</f>
+        <v>69.057777777777787</v>
+      </c>
+      <c r="F118" s="5">
+        <f>2963.49/126</f>
+        <v>23.519761904761904</v>
+      </c>
+      <c r="G118" s="5">
+        <f>8701.28/(15781/60)</f>
+        <v>33.08261833850834</v>
+      </c>
+      <c r="H118" s="5">
+        <f>381/126</f>
+        <v>3.0238095238095237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="5">
+        <f>5606/36</f>
+        <v>155.72222222222223</v>
+      </c>
+      <c r="D119" s="4">
+        <f>C119/(24*60)</f>
+        <v>0.10814043209876543</v>
+      </c>
+      <c r="E119" s="5">
+        <f>3363.35/36</f>
+        <v>93.42638888888888</v>
+      </c>
+      <c r="F119" s="5">
+        <f>933.96/36</f>
+        <v>25.943333333333335</v>
+      </c>
+      <c r="G119" s="5">
+        <f>3363.35/(5606/60)</f>
+        <v>35.997324295397789</v>
+      </c>
+      <c r="H119" s="5">
+        <f>134/36</f>
+        <v>3.7222222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4373,6 +4373,134 @@
       <c r="H119" s="5">
         <f>134/36</f>
         <v>3.7222222222222223</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="5">
+        <f>15744/126</f>
+        <v>124.95238095238095</v>
+      </c>
+      <c r="D120" s="4">
+        <f>C120/(24*60)</f>
+        <v>8.6772486772486765E-2</v>
+      </c>
+      <c r="E120" s="5">
+        <f>8563.6/126</f>
+        <v>67.965079365079362</v>
+      </c>
+      <c r="F120" s="5">
+        <f>2853.81/126</f>
+        <v>22.649285714285714</v>
+      </c>
+      <c r="G120" s="5">
+        <f>8563.6/(15744/60)</f>
+        <v>32.635670731707322</v>
+      </c>
+      <c r="H120" s="5">
+        <f>274/126</f>
+        <v>2.1746031746031744</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="5">
+        <f>5958/36</f>
+        <v>165.5</v>
+      </c>
+      <c r="D121" s="4">
+        <f>C121/(24*60)</f>
+        <v>0.11493055555555555</v>
+      </c>
+      <c r="E121" s="5">
+        <f>4109/36</f>
+        <v>114.13888888888889</v>
+      </c>
+      <c r="F121" s="5">
+        <f>1031.23/36</f>
+        <v>28.645277777777778</v>
+      </c>
+      <c r="G121" s="5">
+        <f>4109/(5958/60)</f>
+        <v>41.379657603222562</v>
+      </c>
+      <c r="H121" s="5">
+        <f>150/36</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="5">
+        <f>17904/126</f>
+        <v>142.0952380952381</v>
+      </c>
+      <c r="D122" s="4">
+        <f>C122/(24*60)</f>
+        <v>9.8677248677248683E-2</v>
+      </c>
+      <c r="E122" s="5">
+        <f>9541.25/126</f>
+        <v>75.724206349206355</v>
+      </c>
+      <c r="F122" s="5">
+        <f>3130.66/126</f>
+        <v>24.846507936507937</v>
+      </c>
+      <c r="G122" s="5">
+        <f>9541.25/(17904/60)</f>
+        <v>31.974698391420915</v>
+      </c>
+      <c r="H122" s="5">
+        <f>405/126</f>
+        <v>3.2142857142857144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="5">
+        <f>6997/36</f>
+        <v>194.36111111111111</v>
+      </c>
+      <c r="D123" s="4">
+        <f>C123/(24*60)</f>
+        <v>0.13497299382716049</v>
+      </c>
+      <c r="E123" s="5">
+        <f>5003.73/36</f>
+        <v>138.99249999999998</v>
+      </c>
+      <c r="F123" s="5">
+        <f>1323.97/36</f>
+        <v>36.776944444444446</v>
+      </c>
+      <c r="G123" s="5">
+        <f>5003.73/(6997/60)</f>
+        <v>42.907503215663851</v>
+      </c>
+      <c r="H123" s="5">
+        <f>177/36</f>
+        <v>4.916666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O123"/>
+  <dimension ref="A1:O125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119"/>
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4323,7 +4323,7 @@
         <v>125.24603174603175</v>
       </c>
       <c r="D118" s="4">
-        <f>C118/(24*60)</f>
+        <f t="shared" ref="D118:D123" si="10">C118/(24*60)</f>
         <v>8.6976410934744272E-2</v>
       </c>
       <c r="E118" s="5">
@@ -4355,7 +4355,7 @@
         <v>155.72222222222223</v>
       </c>
       <c r="D119" s="4">
-        <f>C119/(24*60)</f>
+        <f t="shared" si="10"/>
         <v>0.10814043209876543</v>
       </c>
       <c r="E119" s="5">
@@ -4387,7 +4387,7 @@
         <v>124.95238095238095</v>
       </c>
       <c r="D120" s="4">
-        <f>C120/(24*60)</f>
+        <f t="shared" si="10"/>
         <v>8.6772486772486765E-2</v>
       </c>
       <c r="E120" s="5">
@@ -4419,7 +4419,7 @@
         <v>165.5</v>
       </c>
       <c r="D121" s="4">
-        <f>C121/(24*60)</f>
+        <f t="shared" si="10"/>
         <v>0.11493055555555555</v>
       </c>
       <c r="E121" s="5">
@@ -4451,7 +4451,7 @@
         <v>142.0952380952381</v>
       </c>
       <c r="D122" s="4">
-        <f>C122/(24*60)</f>
+        <f t="shared" si="10"/>
         <v>9.8677248677248683E-2</v>
       </c>
       <c r="E122" s="5">
@@ -4483,7 +4483,7 @@
         <v>194.36111111111111</v>
       </c>
       <c r="D123" s="4">
-        <f>C123/(24*60)</f>
+        <f t="shared" si="10"/>
         <v>0.13497299382716049</v>
       </c>
       <c r="E123" s="5">
@@ -4501,6 +4501,70 @@
       <c r="H123" s="5">
         <f>177/36</f>
         <v>4.916666666666667</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="5">
+        <f>15626/126</f>
+        <v>124.01587301587301</v>
+      </c>
+      <c r="D124" s="4">
+        <f>C124/(24*60)</f>
+        <v>8.6122134038800702E-2</v>
+      </c>
+      <c r="E124" s="5">
+        <f>8560.8/126</f>
+        <v>67.942857142857136</v>
+      </c>
+      <c r="F124" s="5">
+        <f>2843.51/126</f>
+        <v>22.567539682539685</v>
+      </c>
+      <c r="G124" s="5">
+        <f>8560.8/(15626/60)</f>
+        <v>32.87136823243312</v>
+      </c>
+      <c r="H124" s="5">
+        <f>382/126</f>
+        <v>3.0317460317460316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="5">
+        <f>5006/36</f>
+        <v>139.05555555555554</v>
+      </c>
+      <c r="D125" s="4">
+        <f>C125/(24*60)</f>
+        <v>9.6566358024691351E-2</v>
+      </c>
+      <c r="E125" s="5">
+        <f>3801.21/36</f>
+        <v>105.58916666666667</v>
+      </c>
+      <c r="F125" s="5">
+        <f>934.44/36</f>
+        <v>25.956666666666667</v>
+      </c>
+      <c r="G125" s="5">
+        <f>3801.21/(5006/60)</f>
+        <v>45.559848182181383</v>
+      </c>
+      <c r="H125" s="5">
+        <f>158/36</f>
+        <v>4.3888888888888893</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O125"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4565,6 +4565,70 @@
       <c r="H125" s="5">
         <f>158/36</f>
         <v>4.3888888888888893</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
+        <v>45963</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="5">
+        <f>16211/126</f>
+        <v>128.65873015873015</v>
+      </c>
+      <c r="D126" s="4">
+        <f>C126/(24*60)</f>
+        <v>8.9346340388007053E-2</v>
+      </c>
+      <c r="E126" s="5">
+        <f>8785.66/126</f>
+        <v>69.727460317460313</v>
+      </c>
+      <c r="F126" s="5">
+        <f>2861.71/126</f>
+        <v>22.711984126984127</v>
+      </c>
+      <c r="G126" s="5">
+        <f>8785.66/(16211/126)</f>
+        <v>68.286543704891741</v>
+      </c>
+      <c r="H126" s="5">
+        <f>368/126</f>
+        <v>2.9206349206349205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>45963</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="5">
+        <f>6514/36</f>
+        <v>180.94444444444446</v>
+      </c>
+      <c r="D127" s="4">
+        <f>C127/(24*60)</f>
+        <v>0.12565586419753089</v>
+      </c>
+      <c r="E127" s="5">
+        <f>4392.14/36</f>
+        <v>122.00388888888889</v>
+      </c>
+      <c r="F127" s="5">
+        <f>1125.26/36</f>
+        <v>31.257222222222222</v>
+      </c>
+      <c r="G127" s="5">
+        <f>4392.14/(6514/60)</f>
+        <v>40.455695425237955</v>
+      </c>
+      <c r="H127" s="5">
+        <f>160/36</f>
+        <v>4.4444444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:O129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4629,6 +4629,70 @@
       <c r="H127" s="5">
         <f>160/36</f>
         <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="5">
+        <f>17725/126</f>
+        <v>140.67460317460316</v>
+      </c>
+      <c r="D128" s="4">
+        <f>C128/(24*60)</f>
+        <v>9.7690696649029976E-2</v>
+      </c>
+      <c r="E128" s="5">
+        <f>9515.19/126</f>
+        <v>75.517380952380961</v>
+      </c>
+      <c r="F128" s="5">
+        <f>3163.72/126</f>
+        <v>25.108888888888888</v>
+      </c>
+      <c r="G128" s="5">
+        <f>9515.19/(17725/60)</f>
+        <v>32.209387870239773</v>
+      </c>
+      <c r="H128" s="5">
+        <f>403/126</f>
+        <v>3.1984126984126986</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="5">
+        <f>5741/36</f>
+        <v>159.47222222222223</v>
+      </c>
+      <c r="D129" s="4">
+        <f>C129/(24*60)</f>
+        <v>0.11074459876543211</v>
+      </c>
+      <c r="E129" s="5">
+        <f>3710.22/36</f>
+        <v>103.06166666666667</v>
+      </c>
+      <c r="F129" s="5">
+        <f>1016.93/36</f>
+        <v>28.248055555555553</v>
+      </c>
+      <c r="G129" s="5">
+        <f>3710.22/(5741/60)</f>
+        <v>38.776032050165476</v>
+      </c>
+      <c r="H129" s="5">
+        <f>137/36</f>
+        <v>3.8055555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4515,7 +4515,7 @@
         <v>124.01587301587301</v>
       </c>
       <c r="D124" s="4">
-        <f>C124/(24*60)</f>
+        <f t="shared" ref="D124:D129" si="11">C124/(24*60)</f>
         <v>8.6122134038800702E-2</v>
       </c>
       <c r="E124" s="5">
@@ -4547,7 +4547,7 @@
         <v>139.05555555555554</v>
       </c>
       <c r="D125" s="4">
-        <f>C125/(24*60)</f>
+        <f t="shared" si="11"/>
         <v>9.6566358024691351E-2</v>
       </c>
       <c r="E125" s="5">
@@ -4579,7 +4579,7 @@
         <v>128.65873015873015</v>
       </c>
       <c r="D126" s="4">
-        <f>C126/(24*60)</f>
+        <f t="shared" si="11"/>
         <v>8.9346340388007053E-2</v>
       </c>
       <c r="E126" s="5">
@@ -4611,7 +4611,7 @@
         <v>180.94444444444446</v>
       </c>
       <c r="D127" s="4">
-        <f>C127/(24*60)</f>
+        <f t="shared" si="11"/>
         <v>0.12565586419753089</v>
       </c>
       <c r="E127" s="5">
@@ -4643,7 +4643,7 @@
         <v>140.67460317460316</v>
       </c>
       <c r="D128" s="4">
-        <f>C128/(24*60)</f>
+        <f t="shared" si="11"/>
         <v>9.7690696649029976E-2</v>
       </c>
       <c r="E128" s="5">
@@ -4675,7 +4675,7 @@
         <v>159.47222222222223</v>
       </c>
       <c r="D129" s="4">
-        <f>C129/(24*60)</f>
+        <f t="shared" si="11"/>
         <v>0.11074459876543211</v>
       </c>
       <c r="E129" s="5">
@@ -4693,6 +4693,70 @@
       <c r="H129" s="5">
         <f>137/36</f>
         <v>3.8055555555555554</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A130" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="5">
+        <f>17277/126</f>
+        <v>137.11904761904762</v>
+      </c>
+      <c r="D130" s="4">
+        <f>C130/(24*60)</f>
+        <v>9.5221560846560846E-2</v>
+      </c>
+      <c r="E130" s="5">
+        <f>9285.74/126</f>
+        <v>73.696349206349211</v>
+      </c>
+      <c r="F130" s="5">
+        <f>3136.57/126</f>
+        <v>24.8934126984127</v>
+      </c>
+      <c r="G130" s="5">
+        <f>9285.74/(17277/60)</f>
+        <v>32.247751345719742</v>
+      </c>
+      <c r="H130" s="5">
+        <f>393/126</f>
+        <v>3.1190476190476191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A131" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="5">
+        <f>5973/36</f>
+        <v>165.91666666666666</v>
+      </c>
+      <c r="D131" s="4">
+        <f>C131/(24*60)</f>
+        <v>0.1152199074074074</v>
+      </c>
+      <c r="E131" s="5">
+        <f>3837.03/36</f>
+        <v>106.58416666666668</v>
+      </c>
+      <c r="F131" s="5">
+        <f>1047.09/36</f>
+        <v>29.08583333333333</v>
+      </c>
+      <c r="G131" s="5">
+        <f>3837.03/(5973/60)</f>
+        <v>38.543746860873938</v>
+      </c>
+      <c r="H131" s="5">
+        <f>152/36</f>
+        <v>4.2222222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O131"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H133" sqref="H133"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4757,6 +4757,70 @@
       <c r="H131" s="5">
         <f>152/36</f>
         <v>4.2222222222222223</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A132" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="5">
+        <f>15346/126</f>
+        <v>121.7936507936508</v>
+      </c>
+      <c r="D132" s="4">
+        <f>C132/(24*60)</f>
+        <v>8.4578924162257499E-2</v>
+      </c>
+      <c r="E132" s="5">
+        <f>7953.77/126</f>
+        <v>63.125158730158731</v>
+      </c>
+      <c r="F132" s="5">
+        <f>2678.68/126</f>
+        <v>21.259365079365079</v>
+      </c>
+      <c r="G132" s="5">
+        <f>7953.77/(15346/60)</f>
+        <v>31.097758373517529</v>
+      </c>
+      <c r="H132" s="5">
+        <f>360/126</f>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A133" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="5">
+        <f>7472/36</f>
+        <v>207.55555555555554</v>
+      </c>
+      <c r="D133" s="4">
+        <f>C133/(24*60)</f>
+        <v>0.14413580246913579</v>
+      </c>
+      <c r="E133" s="5">
+        <f>5558.54/36</f>
+        <v>154.4038888888889</v>
+      </c>
+      <c r="F133" s="5">
+        <f>1415.89/36</f>
+        <v>39.330277777777781</v>
+      </c>
+      <c r="G133" s="5">
+        <f>5558.54/(7472/60)</f>
+        <v>44.634957173447539</v>
+      </c>
+      <c r="H133" s="5">
+        <f>228/36</f>
+        <v>6.333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J129" sqref="J129"/>
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4821,6 +4821,70 @@
       <c r="H133" s="5">
         <f>228/36</f>
         <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A134" s="1">
+        <v>45967</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="5">
+        <f>15495/126</f>
+        <v>122.97619047619048</v>
+      </c>
+      <c r="D134" s="4">
+        <f>C134/(24*60)</f>
+        <v>8.5400132275132282E-2</v>
+      </c>
+      <c r="E134" s="5">
+        <f>8103.55/126</f>
+        <v>64.313888888888897</v>
+      </c>
+      <c r="F134" s="5">
+        <f>2735.31/126</f>
+        <v>21.708809523809524</v>
+      </c>
+      <c r="G134" s="5">
+        <f>8103.55/(15495/60)</f>
+        <v>31.378702807357211</v>
+      </c>
+      <c r="H134" s="5">
+        <f>374/126</f>
+        <v>2.9682539682539684</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A135" s="1">
+        <v>45967</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="5">
+        <f>5556/36</f>
+        <v>154.33333333333334</v>
+      </c>
+      <c r="D135" s="4">
+        <f>C135/(24*60)</f>
+        <v>0.10717592592592594</v>
+      </c>
+      <c r="E135" s="5">
+        <f>3940.82/36</f>
+        <v>109.46722222222223</v>
+      </c>
+      <c r="F135" s="5">
+        <f>1050.59/36</f>
+        <v>29.183055555555555</v>
+      </c>
+      <c r="G135" s="5">
+        <f>3940.82/(5556/60)</f>
+        <v>42.55745140388769</v>
+      </c>
+      <c r="H135" s="5">
+        <f>145/36</f>
+        <v>4.0277777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O135"/>
+  <dimension ref="A1:O137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4707,7 +4707,7 @@
         <v>137.11904761904762</v>
       </c>
       <c r="D130" s="4">
-        <f>C130/(24*60)</f>
+        <f t="shared" ref="D130:D135" si="12">C130/(24*60)</f>
         <v>9.5221560846560846E-2</v>
       </c>
       <c r="E130" s="5">
@@ -4739,7 +4739,7 @@
         <v>165.91666666666666</v>
       </c>
       <c r="D131" s="4">
-        <f>C131/(24*60)</f>
+        <f t="shared" si="12"/>
         <v>0.1152199074074074</v>
       </c>
       <c r="E131" s="5">
@@ -4771,7 +4771,7 @@
         <v>121.7936507936508</v>
       </c>
       <c r="D132" s="4">
-        <f>C132/(24*60)</f>
+        <f t="shared" si="12"/>
         <v>8.4578924162257499E-2</v>
       </c>
       <c r="E132" s="5">
@@ -4803,7 +4803,7 @@
         <v>207.55555555555554</v>
       </c>
       <c r="D133" s="4">
-        <f>C133/(24*60)</f>
+        <f t="shared" si="12"/>
         <v>0.14413580246913579</v>
       </c>
       <c r="E133" s="5">
@@ -4835,7 +4835,7 @@
         <v>122.97619047619048</v>
       </c>
       <c r="D134" s="4">
-        <f>C134/(24*60)</f>
+        <f t="shared" si="12"/>
         <v>8.5400132275132282E-2</v>
       </c>
       <c r="E134" s="5">
@@ -4867,7 +4867,7 @@
         <v>154.33333333333334</v>
       </c>
       <c r="D135" s="4">
-        <f>C135/(24*60)</f>
+        <f t="shared" si="12"/>
         <v>0.10717592592592594</v>
       </c>
       <c r="E135" s="5">
@@ -4885,6 +4885,70 @@
       <c r="H135" s="5">
         <f>145/36</f>
         <v>4.0277777777777777</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A136" s="1">
+        <v>45968</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="5">
+        <f>15477/126</f>
+        <v>122.83333333333333</v>
+      </c>
+      <c r="D136" s="4">
+        <f>C136/(24*60)</f>
+        <v>8.5300925925925919E-2</v>
+      </c>
+      <c r="E136" s="5">
+        <f>8017.18/126</f>
+        <v>63.628412698412703</v>
+      </c>
+      <c r="F136" s="5">
+        <f>2656.04/126</f>
+        <v>21.07968253968254</v>
+      </c>
+      <c r="G136" s="5">
+        <f>8017.18/(15477/60)</f>
+        <v>31.080364411707698</v>
+      </c>
+      <c r="H136" s="5">
+        <f>383/126</f>
+        <v>3.0396825396825395</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A137" s="1">
+        <v>45968</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="5">
+        <f>5909/36</f>
+        <v>164.13888888888889</v>
+      </c>
+      <c r="D137" s="4">
+        <f>C137/(24*60)</f>
+        <v>0.11398533950617283</v>
+      </c>
+      <c r="E137" s="5">
+        <f>4299.03/36</f>
+        <v>119.41749999999999</v>
+      </c>
+      <c r="F137" s="5">
+        <f>1119.68/36</f>
+        <v>31.102222222222224</v>
+      </c>
+      <c r="G137" s="5">
+        <f>4299.03/(5909/60)</f>
+        <v>43.652360805550849</v>
+      </c>
+      <c r="H137" s="5">
+        <f>157/36</f>
+        <v>4.3611111111111107</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O137"/>
+  <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J136" sqref="J136"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4949,6 +4949,70 @@
       <c r="H137" s="5">
         <f>157/36</f>
         <v>4.3611111111111107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A138" s="1">
+        <v>45969</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="5">
+        <f>20209/126</f>
+        <v>160.38888888888889</v>
+      </c>
+      <c r="D138" s="4">
+        <f>C138/(24*60)</f>
+        <v>0.11138117283950617</v>
+      </c>
+      <c r="E138" s="5">
+        <f>10999.84/126</f>
+        <v>87.300317460317459</v>
+      </c>
+      <c r="F138" s="5">
+        <f>3708.77/126</f>
+        <v>29.434682539682541</v>
+      </c>
+      <c r="G138" s="5">
+        <f>10999.84/(20209/60)</f>
+        <v>32.658241377604035</v>
+      </c>
+      <c r="H138" s="5">
+        <f>462/126</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A139" s="1">
+        <v>45969</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="5">
+        <f>6504/36</f>
+        <v>180.66666666666666</v>
+      </c>
+      <c r="D139" s="4">
+        <f>C139/(24*60)</f>
+        <v>0.12546296296296294</v>
+      </c>
+      <c r="E139" s="5">
+        <f>4218.97/36</f>
+        <v>117.19361111111112</v>
+      </c>
+      <c r="F139" s="5">
+        <f>1169.28/36</f>
+        <v>32.479999999999997</v>
+      </c>
+      <c r="G139" s="5">
+        <f>4218.97/(6504/60)</f>
+        <v>38.92038745387454</v>
+      </c>
+      <c r="H139" s="5">
+        <f>151/36</f>
+        <v>4.1944444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O139"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+      <selection activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5013,6 +5013,70 @@
       <c r="H139" s="5">
         <f>151/36</f>
         <v>4.1944444444444446</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A140" s="1">
+        <v>45970</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="5">
+        <f>18286/126</f>
+        <v>145.12698412698413</v>
+      </c>
+      <c r="D140" s="4">
+        <f>C140/(24*60)</f>
+        <v>0.10078262786596121</v>
+      </c>
+      <c r="E140" s="5">
+        <f>10063.49/126</f>
+        <v>79.868968253968248</v>
+      </c>
+      <c r="F140" s="5">
+        <f>3279.8/126</f>
+        <v>26.030158730158732</v>
+      </c>
+      <c r="G140" s="5">
+        <f>10063.49/(18286/60)</f>
+        <v>33.02031062014656</v>
+      </c>
+      <c r="H140" s="5">
+        <f>415/126</f>
+        <v>3.2936507936507935</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A141" s="1">
+        <v>45970</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="5">
+        <f>6150/36</f>
+        <v>170.83333333333334</v>
+      </c>
+      <c r="D141" s="4">
+        <f>C141/(24*60)</f>
+        <v>0.11863425925925927</v>
+      </c>
+      <c r="E141" s="5">
+        <f>4260.7/36</f>
+        <v>118.35277777777777</v>
+      </c>
+      <c r="F141" s="5">
+        <f>1136.31/36</f>
+        <v>31.564166666666665</v>
+      </c>
+      <c r="G141" s="5">
+        <f>4260.7/(6150/60)</f>
+        <v>41.567804878048776</v>
+      </c>
+      <c r="H141" s="5">
+        <f>140/36</f>
+        <v>3.8888888888888888</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
       <selection activeCell="J141" sqref="J141"/>
@@ -4899,7 +4899,7 @@
         <v>122.83333333333333</v>
       </c>
       <c r="D136" s="4">
-        <f>C136/(24*60)</f>
+        <f t="shared" ref="D136:D141" si="13">C136/(24*60)</f>
         <v>8.5300925925925919E-2</v>
       </c>
       <c r="E136" s="5">
@@ -4931,7 +4931,7 @@
         <v>164.13888888888889</v>
       </c>
       <c r="D137" s="4">
-        <f>C137/(24*60)</f>
+        <f t="shared" si="13"/>
         <v>0.11398533950617283</v>
       </c>
       <c r="E137" s="5">
@@ -4963,7 +4963,7 @@
         <v>160.38888888888889</v>
       </c>
       <c r="D138" s="4">
-        <f>C138/(24*60)</f>
+        <f t="shared" si="13"/>
         <v>0.11138117283950617</v>
       </c>
       <c r="E138" s="5">
@@ -4995,7 +4995,7 @@
         <v>180.66666666666666</v>
       </c>
       <c r="D139" s="4">
-        <f>C139/(24*60)</f>
+        <f t="shared" si="13"/>
         <v>0.12546296296296294</v>
       </c>
       <c r="E139" s="5">
@@ -5027,7 +5027,7 @@
         <v>145.12698412698413</v>
       </c>
       <c r="D140" s="4">
-        <f>C140/(24*60)</f>
+        <f t="shared" si="13"/>
         <v>0.10078262786596121</v>
       </c>
       <c r="E140" s="5">
@@ -5059,7 +5059,7 @@
         <v>170.83333333333334</v>
       </c>
       <c r="D141" s="4">
-        <f>C141/(24*60)</f>
+        <f t="shared" si="13"/>
         <v>0.11863425925925927</v>
       </c>
       <c r="E141" s="5">
@@ -5077,6 +5077,70 @@
       <c r="H141" s="5">
         <f>140/36</f>
         <v>3.8888888888888888</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A142" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="5">
+        <f>20127/126</f>
+        <v>159.73809523809524</v>
+      </c>
+      <c r="D142" s="4">
+        <f>C142/(24*60)</f>
+        <v>0.11092923280423281</v>
+      </c>
+      <c r="E142" s="5">
+        <f>10798.15/126</f>
+        <v>85.699603174603169</v>
+      </c>
+      <c r="F142" s="5">
+        <f>3568.03/126</f>
+        <v>28.317698412698416</v>
+      </c>
+      <c r="G142" s="5">
+        <f>10798.15/(20127/60)</f>
+        <v>32.190043225517961</v>
+      </c>
+      <c r="H142" s="5">
+        <f>441/126</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A143" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="5">
+        <f>6879/36</f>
+        <v>191.08333333333334</v>
+      </c>
+      <c r="D143" s="4">
+        <f>C143/(24*60)</f>
+        <v>0.13269675925925928</v>
+      </c>
+      <c r="E143" s="5">
+        <f>4554.88/36</f>
+        <v>126.52444444444444</v>
+      </c>
+      <c r="F143" s="5">
+        <f>1219.25/36</f>
+        <v>33.868055555555557</v>
+      </c>
+      <c r="G143" s="5">
+        <f>4554.88/(6879/60)</f>
+        <v>39.728565198430005</v>
+      </c>
+      <c r="H143" s="5">
+        <f>167/36</f>
+        <v>4.6388888888888893</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O143"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="J141" sqref="J141"/>
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5141,6 +5141,70 @@
       <c r="H143" s="5">
         <f>167/36</f>
         <v>4.6388888888888893</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A144" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="5">
+        <f>17013/126</f>
+        <v>135.02380952380952</v>
+      </c>
+      <c r="D144" s="4">
+        <f>C144/(24*60)</f>
+        <v>9.3766534391534387E-2</v>
+      </c>
+      <c r="E144" s="5">
+        <f>8716.41/126</f>
+        <v>69.177857142857135</v>
+      </c>
+      <c r="F144" s="5">
+        <f>2990.34/126</f>
+        <v>23.732857142857146</v>
+      </c>
+      <c r="G144" s="5">
+        <f>8716.41/(17013/60)</f>
+        <v>30.740292717333801</v>
+      </c>
+      <c r="H144" s="5">
+        <f>378/126</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A145" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="5">
+        <f>5873/36</f>
+        <v>163.13888888888889</v>
+      </c>
+      <c r="D145" s="4">
+        <f>C145/(24*60)</f>
+        <v>0.11329089506172839</v>
+      </c>
+      <c r="E145" s="5">
+        <f>4125.06/36</f>
+        <v>114.58500000000001</v>
+      </c>
+      <c r="F145" s="5">
+        <f>1140.66/36</f>
+        <v>31.685000000000002</v>
+      </c>
+      <c r="G145" s="5">
+        <f>4125.06/(5873/60)</f>
+        <v>42.142618763834498</v>
+      </c>
+      <c r="H145" s="5">
+        <f>166/36</f>
+        <v>4.6111111111111107</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O145"/>
+  <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5205,6 +5205,70 @@
       <c r="H145" s="5">
         <f>166/36</f>
         <v>4.6111111111111107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A146" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="5">
+        <f>16053/126</f>
+        <v>127.4047619047619</v>
+      </c>
+      <c r="D146" s="4">
+        <f>C146/(24*60)</f>
+        <v>8.8475529100529096E-2</v>
+      </c>
+      <c r="E146" s="5">
+        <f>8365.93/126</f>
+        <v>66.396269841269842</v>
+      </c>
+      <c r="F146" s="5">
+        <f>2768.53/126</f>
+        <v>21.972460317460317</v>
+      </c>
+      <c r="G146" s="5">
+        <f>8365.93/(16053/60)</f>
+        <v>31.268660063539524</v>
+      </c>
+      <c r="H146" s="5">
+        <f>353/126</f>
+        <v>2.8015873015873014</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A147" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="5">
+        <f>6740/36</f>
+        <v>187.22222222222223</v>
+      </c>
+      <c r="D147" s="4">
+        <f>C147/(24*60)</f>
+        <v>0.13001543209876543</v>
+      </c>
+      <c r="E147" s="5">
+        <f>4569.6/36</f>
+        <v>126.93333333333334</v>
+      </c>
+      <c r="F147" s="5">
+        <f>1142.5/36</f>
+        <v>31.736111111111111</v>
+      </c>
+      <c r="G147" s="5">
+        <f>4569.3/(6740/60)</f>
+        <v>40.67626112759644</v>
+      </c>
+      <c r="H147" s="5">
+        <f>162/36</f>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O147"/>
+  <dimension ref="A1:O149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="J148" sqref="J148"/>
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5091,7 +5091,7 @@
         <v>159.73809523809524</v>
       </c>
       <c r="D142" s="4">
-        <f>C142/(24*60)</f>
+        <f t="shared" ref="D142:D147" si="14">C142/(24*60)</f>
         <v>0.11092923280423281</v>
       </c>
       <c r="E142" s="5">
@@ -5123,7 +5123,7 @@
         <v>191.08333333333334</v>
       </c>
       <c r="D143" s="4">
-        <f>C143/(24*60)</f>
+        <f t="shared" si="14"/>
         <v>0.13269675925925928</v>
       </c>
       <c r="E143" s="5">
@@ -5155,7 +5155,7 @@
         <v>135.02380952380952</v>
       </c>
       <c r="D144" s="4">
-        <f>C144/(24*60)</f>
+        <f t="shared" si="14"/>
         <v>9.3766534391534387E-2</v>
       </c>
       <c r="E144" s="5">
@@ -5187,7 +5187,7 @@
         <v>163.13888888888889</v>
       </c>
       <c r="D145" s="4">
-        <f>C145/(24*60)</f>
+        <f t="shared" si="14"/>
         <v>0.11329089506172839</v>
       </c>
       <c r="E145" s="5">
@@ -5219,7 +5219,7 @@
         <v>127.4047619047619</v>
       </c>
       <c r="D146" s="4">
-        <f>C146/(24*60)</f>
+        <f t="shared" si="14"/>
         <v>8.8475529100529096E-2</v>
       </c>
       <c r="E146" s="5">
@@ -5251,7 +5251,7 @@
         <v>187.22222222222223</v>
       </c>
       <c r="D147" s="4">
-        <f>C147/(24*60)</f>
+        <f t="shared" si="14"/>
         <v>0.13001543209876543</v>
       </c>
       <c r="E147" s="5">
@@ -5269,6 +5269,70 @@
       <c r="H147" s="5">
         <f>162/36</f>
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A148" s="1">
+        <v>45974</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="5">
+        <f>16074/126</f>
+        <v>127.57142857142857</v>
+      </c>
+      <c r="D148" s="4">
+        <f>C148/(24*60)</f>
+        <v>8.8591269841269846E-2</v>
+      </c>
+      <c r="E148" s="5">
+        <f>8540.36/126</f>
+        <v>67.780634920634924</v>
+      </c>
+      <c r="F148" s="5">
+        <f>2855.21/126</f>
+        <v>22.660396825396827</v>
+      </c>
+      <c r="G148" s="5">
+        <f>8540.36/(16074/60)</f>
+        <v>31.878910041060102</v>
+      </c>
+      <c r="H148" s="5">
+        <f>369/126</f>
+        <v>2.9285714285714284</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A149" s="1">
+        <v>45974</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="5">
+        <f>5877/36</f>
+        <v>163.25</v>
+      </c>
+      <c r="D149" s="4">
+        <f>C149/(24*60)</f>
+        <v>0.11336805555555556</v>
+      </c>
+      <c r="E149" s="5">
+        <f>4197.05/36</f>
+        <v>116.58472222222223</v>
+      </c>
+      <c r="F149" s="5">
+        <f>1070.23/36</f>
+        <v>29.72861111111111</v>
+      </c>
+      <c r="G149" s="5">
+        <f>4197.05/(5877/60)</f>
+        <v>42.848902501276164</v>
+      </c>
+      <c r="H149" s="5">
+        <f>154/36</f>
+        <v>4.2777777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O149"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="I150" sqref="I150"/>
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5333,6 +5333,70 @@
       <c r="H149" s="5">
         <f>154/36</f>
         <v>4.2777777777777777</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A150" s="1">
+        <v>45975</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="5">
+        <f>16816/126</f>
+        <v>133.46031746031747</v>
+      </c>
+      <c r="D150" s="4">
+        <f>C150/(24*60)</f>
+        <v>9.2680776014109359E-2</v>
+      </c>
+      <c r="E150" s="5">
+        <f>9179.99/126</f>
+        <v>72.857063492063489</v>
+      </c>
+      <c r="F150" s="5">
+        <f>3068.72/126</f>
+        <v>24.354920634920635</v>
+      </c>
+      <c r="G150" s="5">
+        <f>9179.99/(16816/60)</f>
+        <v>32.754483824928641</v>
+      </c>
+      <c r="H150" s="5">
+        <f>380/126</f>
+        <v>3.0158730158730158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A151" s="1">
+        <v>45975</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="5">
+        <f>6253/36</f>
+        <v>173.69444444444446</v>
+      </c>
+      <c r="D151" s="4">
+        <f>C151/(24*60)</f>
+        <v>0.12062114197530865</v>
+      </c>
+      <c r="E151" s="5">
+        <f>4566.62/36</f>
+        <v>126.85055555555556</v>
+      </c>
+      <c r="F151" s="5">
+        <f>1188.81/36</f>
+        <v>33.022500000000001</v>
+      </c>
+      <c r="G151" s="5">
+        <f>4566.62/(6253/60)</f>
+        <v>43.818519110826799</v>
+      </c>
+      <c r="H151" s="5">
+        <f>159/36</f>
+        <v>4.416666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="601"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O151"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+      <selection activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5399,6 +5400,70 @@
         <v>4.416666666666667</v>
       </c>
     </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A152" s="1">
+        <v>45976</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="5">
+        <f>16483/126</f>
+        <v>130.81746031746033</v>
+      </c>
+      <c r="D152" s="4">
+        <f>C152/(24*60)</f>
+        <v>9.0845458553791891E-2</v>
+      </c>
+      <c r="E152" s="5">
+        <f>9342.76/126</f>
+        <v>74.148888888888891</v>
+      </c>
+      <c r="F152" s="5">
+        <f>3054.69/126</f>
+        <v>24.243571428571428</v>
+      </c>
+      <c r="G152" s="5">
+        <f>9342.76/(16483/60)</f>
+        <v>34.008712006309537</v>
+      </c>
+      <c r="H152" s="5">
+        <f>384/126</f>
+        <v>3.0476190476190474</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A153" s="1">
+        <v>45976</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="5">
+        <f>5773/36</f>
+        <v>160.36111111111111</v>
+      </c>
+      <c r="D153" s="4">
+        <f>C153/(24*60)</f>
+        <v>0.11136188271604938</v>
+      </c>
+      <c r="E153" s="5">
+        <f>4114.2/36</f>
+        <v>114.28333333333333</v>
+      </c>
+      <c r="F153" s="5">
+        <f>1041.86/36</f>
+        <v>28.940555555555552</v>
+      </c>
+      <c r="G153" s="5">
+        <f>4114.2/(5773/60)</f>
+        <v>42.759743634159015</v>
+      </c>
+      <c r="H153" s="5">
+        <f>147/36</f>
+        <v>4.083333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5407,6 +5472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O153"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="J155" sqref="J155"/>
+      <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5284,7 +5284,7 @@
         <v>127.57142857142857</v>
       </c>
       <c r="D148" s="4">
-        <f>C148/(24*60)</f>
+        <f t="shared" ref="D148:D153" si="15">C148/(24*60)</f>
         <v>8.8591269841269846E-2</v>
       </c>
       <c r="E148" s="5">
@@ -5316,7 +5316,7 @@
         <v>163.25</v>
       </c>
       <c r="D149" s="4">
-        <f>C149/(24*60)</f>
+        <f t="shared" si="15"/>
         <v>0.11336805555555556</v>
       </c>
       <c r="E149" s="5">
@@ -5348,7 +5348,7 @@
         <v>133.46031746031747</v>
       </c>
       <c r="D150" s="4">
-        <f>C150/(24*60)</f>
+        <f t="shared" si="15"/>
         <v>9.2680776014109359E-2</v>
       </c>
       <c r="E150" s="5">
@@ -5380,7 +5380,7 @@
         <v>173.69444444444446</v>
       </c>
       <c r="D151" s="4">
-        <f>C151/(24*60)</f>
+        <f t="shared" si="15"/>
         <v>0.12062114197530865</v>
       </c>
       <c r="E151" s="5">
@@ -5412,7 +5412,7 @@
         <v>130.81746031746033</v>
       </c>
       <c r="D152" s="4">
-        <f>C152/(24*60)</f>
+        <f t="shared" si="15"/>
         <v>9.0845458553791891E-2</v>
       </c>
       <c r="E152" s="5">
@@ -5444,7 +5444,7 @@
         <v>160.36111111111111</v>
       </c>
       <c r="D153" s="4">
-        <f>C153/(24*60)</f>
+        <f t="shared" si="15"/>
         <v>0.11136188271604938</v>
       </c>
       <c r="E153" s="5">
@@ -5462,6 +5462,70 @@
       <c r="H153" s="5">
         <f>147/36</f>
         <v>4.083333333333333</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A154" s="1">
+        <v>45977</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="5">
+        <f>15605/126</f>
+        <v>123.84920634920636</v>
+      </c>
+      <c r="D154" s="4">
+        <f>C154/(24*60)</f>
+        <v>8.6006393298059966E-2</v>
+      </c>
+      <c r="E154" s="5">
+        <f>8750.49/126</f>
+        <v>69.448333333333338</v>
+      </c>
+      <c r="F154" s="5">
+        <f>2845.94/126</f>
+        <v>22.586825396825397</v>
+      </c>
+      <c r="G154" s="5">
+        <f>8750.49/(15605/60)</f>
+        <v>33.644947132329385</v>
+      </c>
+      <c r="H154" s="5">
+        <f>360/126</f>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A155" s="1">
+        <v>45977</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="5">
+        <f>6392/36</f>
+        <v>177.55555555555554</v>
+      </c>
+      <c r="D155" s="4">
+        <f>C155/(24*60)</f>
+        <v>0.12330246913580246</v>
+      </c>
+      <c r="E155" s="5">
+        <f>4541.23/36</f>
+        <v>126.14527777777776</v>
+      </c>
+      <c r="F155" s="5">
+        <f>1110/36</f>
+        <v>30.833333333333332</v>
+      </c>
+      <c r="G155" s="5">
+        <f>4541.23/(6392/60)</f>
+        <v>42.6273153942428</v>
+      </c>
+      <c r="H155" s="5">
+        <f>155/36</f>
+        <v>4.3055555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O155"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5526,6 +5526,70 @@
       <c r="H155" s="5">
         <f>155/36</f>
         <v>4.3055555555555554</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A156" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="5">
+        <f>17440/126</f>
+        <v>138.4126984126984</v>
+      </c>
+      <c r="D156" s="4">
+        <f>C156/(24*60)</f>
+        <v>9.6119929453262781E-2</v>
+      </c>
+      <c r="E156" s="5">
+        <f>9597.15/126</f>
+        <v>76.167857142857144</v>
+      </c>
+      <c r="F156" s="5">
+        <f>3109.43/126</f>
+        <v>24.678015873015873</v>
+      </c>
+      <c r="G156" s="5">
+        <f>9597.15/(17440/60)</f>
+        <v>33.017717889908255</v>
+      </c>
+      <c r="H156" s="5">
+        <f>397/126</f>
+        <v>3.1507936507936507</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A157" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="5">
+        <f>7072/36</f>
+        <v>196.44444444444446</v>
+      </c>
+      <c r="D157" s="4">
+        <f>C157/(24*60)</f>
+        <v>0.13641975308641976</v>
+      </c>
+      <c r="E157" s="5">
+        <f>4848.63/36</f>
+        <v>134.68416666666667</v>
+      </c>
+      <c r="F157" s="5">
+        <f>1240.82/36</f>
+        <v>34.467222222222219</v>
+      </c>
+      <c r="G157" s="5">
+        <f>4848.63/(7072/60)</f>
+        <v>41.136566742081449</v>
+      </c>
+      <c r="H157" s="5">
+        <f>175/36</f>
+        <v>4.8611111111111107</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O157"/>
+  <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="J153" sqref="J153"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="J161" sqref="J161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5590,6 +5590,70 @@
       <c r="H157" s="5">
         <f>175/36</f>
         <v>4.8611111111111107</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A158" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="5">
+        <f>20257/126</f>
+        <v>160.76984126984127</v>
+      </c>
+      <c r="D158" s="4">
+        <f>C158/(24*60)</f>
+        <v>0.11164572310405643</v>
+      </c>
+      <c r="E158" s="5">
+        <f>9993.93/126</f>
+        <v>79.316904761904766</v>
+      </c>
+      <c r="F158" s="5">
+        <f>3294.21/126</f>
+        <v>26.144523809523811</v>
+      </c>
+      <c r="G158" s="5">
+        <f>9993.93/(20257/60)</f>
+        <v>29.601411857629461</v>
+      </c>
+      <c r="H158" s="5">
+        <f>410/126</f>
+        <v>3.253968253968254</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A159" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="5">
+        <f>8892/36</f>
+        <v>247</v>
+      </c>
+      <c r="D159" s="4">
+        <f>C159/(24*60)</f>
+        <v>0.17152777777777778</v>
+      </c>
+      <c r="E159" s="5">
+        <f>5793.18/36</f>
+        <v>160.92166666666668</v>
+      </c>
+      <c r="F159" s="5">
+        <f>1547.65/36</f>
+        <v>42.990277777777777</v>
+      </c>
+      <c r="G159" s="5">
+        <f>5793.18/(8892/60)</f>
+        <v>39.090283400809724</v>
+      </c>
+      <c r="H159" s="5">
+        <f>212/36</f>
+        <v>5.8888888888888893</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O159"/>
+  <dimension ref="A1:O161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="J161" sqref="J161"/>
+      <selection activeCell="M160" sqref="M160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5476,7 +5476,7 @@
         <v>123.84920634920636</v>
       </c>
       <c r="D154" s="4">
-        <f>C154/(24*60)</f>
+        <f t="shared" ref="D154:D159" si="16">C154/(24*60)</f>
         <v>8.6006393298059966E-2</v>
       </c>
       <c r="E154" s="5">
@@ -5508,7 +5508,7 @@
         <v>177.55555555555554</v>
       </c>
       <c r="D155" s="4">
-        <f>C155/(24*60)</f>
+        <f t="shared" si="16"/>
         <v>0.12330246913580246</v>
       </c>
       <c r="E155" s="5">
@@ -5540,7 +5540,7 @@
         <v>138.4126984126984</v>
       </c>
       <c r="D156" s="4">
-        <f>C156/(24*60)</f>
+        <f t="shared" si="16"/>
         <v>9.6119929453262781E-2</v>
       </c>
       <c r="E156" s="5">
@@ -5572,7 +5572,7 @@
         <v>196.44444444444446</v>
       </c>
       <c r="D157" s="4">
-        <f>C157/(24*60)</f>
+        <f t="shared" si="16"/>
         <v>0.13641975308641976</v>
       </c>
       <c r="E157" s="5">
@@ -5604,7 +5604,7 @@
         <v>160.76984126984127</v>
       </c>
       <c r="D158" s="4">
-        <f>C158/(24*60)</f>
+        <f t="shared" si="16"/>
         <v>0.11164572310405643</v>
       </c>
       <c r="E158" s="5">
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="D159" s="4">
-        <f>C159/(24*60)</f>
+        <f t="shared" si="16"/>
         <v>0.17152777777777778</v>
       </c>
       <c r="E159" s="5">
@@ -5654,6 +5654,70 @@
       <c r="H159" s="5">
         <f>212/36</f>
         <v>5.8888888888888893</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A160" s="1">
+        <v>45980</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="5">
+        <f>17192/126</f>
+        <v>136.44444444444446</v>
+      </c>
+      <c r="D160" s="4">
+        <f>C160/(24*60)</f>
+        <v>9.4753086419753094E-2</v>
+      </c>
+      <c r="E160" s="5">
+        <f>9131.59/126</f>
+        <v>72.47293650793651</v>
+      </c>
+      <c r="F160" s="5">
+        <f>3039.16/126</f>
+        <v>24.120317460317459</v>
+      </c>
+      <c r="G160" s="5">
+        <f>9131.59/(17192/60)</f>
+        <v>31.869206607724522</v>
+      </c>
+      <c r="H160" s="5">
+        <f>383/126</f>
+        <v>3.0396825396825395</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A161" s="1">
+        <v>45980</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="5">
+        <f>7739/36</f>
+        <v>214.97222222222223</v>
+      </c>
+      <c r="D161" s="4">
+        <f>C161/(24*60)</f>
+        <v>0.14928626543209877</v>
+      </c>
+      <c r="E161" s="5">
+        <f>4902.33/36</f>
+        <v>136.17583333333334</v>
+      </c>
+      <c r="F161" s="5">
+        <f>4410.03/36</f>
+        <v>122.50083333333333</v>
+      </c>
+      <c r="G161" s="5">
+        <f>4902.33/(7739/60)</f>
+        <v>38.007468665202225</v>
+      </c>
+      <c r="H161" s="5">
+        <f>181/36</f>
+        <v>5.0277777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O161"/>
+  <dimension ref="A1:O163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="M160" sqref="M160"/>
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5718,6 +5718,70 @@
       <c r="H161" s="5">
         <f>181/36</f>
         <v>5.0277777777777777</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A162" s="1">
+        <v>45981</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="5">
+        <f>18163/126</f>
+        <v>144.15079365079364</v>
+      </c>
+      <c r="D162" s="4">
+        <f>C162/(24*60)</f>
+        <v>0.10010471781305114</v>
+      </c>
+      <c r="E162" s="5">
+        <f>9341.08/126</f>
+        <v>74.135555555555555</v>
+      </c>
+      <c r="F162" s="5">
+        <f>3132.18/126</f>
+        <v>24.858571428571427</v>
+      </c>
+      <c r="G162" s="5">
+        <f>9341.08/(18163/60)</f>
+        <v>30.85750151406706</v>
+      </c>
+      <c r="H162" s="5">
+        <f>404/126</f>
+        <v>3.2063492063492065</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A163" s="1">
+        <v>45981</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="5">
+        <f>6052/36</f>
+        <v>168.11111111111111</v>
+      </c>
+      <c r="D163" s="4">
+        <f>C163/(24*60)</f>
+        <v>0.11674382716049383</v>
+      </c>
+      <c r="E163" s="5">
+        <f>4084.06/36</f>
+        <v>113.44611111111111</v>
+      </c>
+      <c r="F163" s="5">
+        <f>1024.14/36</f>
+        <v>28.448333333333338</v>
+      </c>
+      <c r="G163" s="5">
+        <f>4084.06/(6052/60)</f>
+        <v>40.489689358889628</v>
+      </c>
+      <c r="H163" s="5">
+        <f>146/36</f>
+        <v>4.0555555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O163"/>
+  <dimension ref="A1:O165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5782,6 +5782,70 @@
       <c r="H163" s="5">
         <f>146/36</f>
         <v>4.0555555555555554</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A164" s="1">
+        <v>45982</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="5">
+        <f>18603/126</f>
+        <v>147.64285714285714</v>
+      </c>
+      <c r="D164" s="4">
+        <f>C164/(24*60)</f>
+        <v>0.1025297619047619</v>
+      </c>
+      <c r="E164" s="5">
+        <f>9400.87/126</f>
+        <v>74.610079365079372</v>
+      </c>
+      <c r="F164" s="5">
+        <f>3134.01/126</f>
+        <v>24.873095238095239</v>
+      </c>
+      <c r="G164" s="5">
+        <f>9400.87/(18603/60)</f>
+        <v>30.320496694081601</v>
+      </c>
+      <c r="H164" s="5">
+        <f>407/126</f>
+        <v>3.2301587301587302</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A165" s="1">
+        <v>45982</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="5">
+        <f>7870/36</f>
+        <v>218.61111111111111</v>
+      </c>
+      <c r="D165" s="4">
+        <f>C165/(24*60)</f>
+        <v>0.15181327160493827</v>
+      </c>
+      <c r="E165" s="5">
+        <f>4978.18/36</f>
+        <v>138.2827777777778</v>
+      </c>
+      <c r="F165" s="5">
+        <f>1290.75/36</f>
+        <v>35.854166666666664</v>
+      </c>
+      <c r="G165" s="5">
+        <f>4978.18/(7870/60)</f>
+        <v>37.953087674714112</v>
+      </c>
+      <c r="H165" s="5">
+        <f>173/36</f>
+        <v>4.8055555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O165"/>
+  <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="J165" sqref="J165"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="J168" sqref="J168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5668,7 +5668,7 @@
         <v>136.44444444444446</v>
       </c>
       <c r="D160" s="4">
-        <f>C160/(24*60)</f>
+        <f t="shared" ref="D160:D165" si="17">C160/(24*60)</f>
         <v>9.4753086419753094E-2</v>
       </c>
       <c r="E160" s="5">
@@ -5700,7 +5700,7 @@
         <v>214.97222222222223</v>
       </c>
       <c r="D161" s="4">
-        <f>C161/(24*60)</f>
+        <f t="shared" si="17"/>
         <v>0.14928626543209877</v>
       </c>
       <c r="E161" s="5">
@@ -5732,7 +5732,7 @@
         <v>144.15079365079364</v>
       </c>
       <c r="D162" s="4">
-        <f>C162/(24*60)</f>
+        <f t="shared" si="17"/>
         <v>0.10010471781305114</v>
       </c>
       <c r="E162" s="5">
@@ -5764,7 +5764,7 @@
         <v>168.11111111111111</v>
       </c>
       <c r="D163" s="4">
-        <f>C163/(24*60)</f>
+        <f t="shared" si="17"/>
         <v>0.11674382716049383</v>
       </c>
       <c r="E163" s="5">
@@ -5796,7 +5796,7 @@
         <v>147.64285714285714</v>
       </c>
       <c r="D164" s="4">
-        <f>C164/(24*60)</f>
+        <f t="shared" si="17"/>
         <v>0.1025297619047619</v>
       </c>
       <c r="E164" s="5">
@@ -5828,7 +5828,7 @@
         <v>218.61111111111111</v>
       </c>
       <c r="D165" s="4">
-        <f>C165/(24*60)</f>
+        <f t="shared" si="17"/>
         <v>0.15181327160493827</v>
       </c>
       <c r="E165" s="5">
@@ -5846,6 +5846,198 @@
       <c r="H165" s="5">
         <f>173/36</f>
         <v>4.8055555555555554</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A166" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="5">
+        <f>17923/126</f>
+        <v>142.24603174603175</v>
+      </c>
+      <c r="D166" s="4">
+        <f>C166/(24*60)</f>
+        <v>9.8781966490299827E-2</v>
+      </c>
+      <c r="E166" s="5">
+        <f>9503.73/126</f>
+        <v>75.426428571428573</v>
+      </c>
+      <c r="F166" s="5">
+        <f>3149.8/126</f>
+        <v>24.9984126984127</v>
+      </c>
+      <c r="G166" s="5">
+        <f>9503.73/(17923/60)</f>
+        <v>31.815198348490767</v>
+      </c>
+      <c r="H166" s="5">
+        <f>405/126</f>
+        <v>3.2142857142857144</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A167" s="1">
+        <v>45983</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="5">
+        <f>7776/36</f>
+        <v>216</v>
+      </c>
+      <c r="D167" s="4">
+        <f>C167/(24*60)</f>
+        <v>0.15</v>
+      </c>
+      <c r="E167" s="5">
+        <f>5214.63/36</f>
+        <v>144.85083333333333</v>
+      </c>
+      <c r="F167" s="5">
+        <f>1303.53/36</f>
+        <v>36.209166666666668</v>
+      </c>
+      <c r="G167" s="5">
+        <f>5214.63/(7776/60)</f>
+        <v>40.236342592592592</v>
+      </c>
+      <c r="H167" s="5">
+        <f>188/36</f>
+        <v>5.2222222222222223</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A168" s="1">
+        <v>45984</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="5">
+        <f>16247/126</f>
+        <v>128.94444444444446</v>
+      </c>
+      <c r="D168" s="4">
+        <f>C168/(24*60)</f>
+        <v>8.9544753086419765E-2</v>
+      </c>
+      <c r="E168" s="5">
+        <f>8696.35/126</f>
+        <v>69.018650793650792</v>
+      </c>
+      <c r="F168" s="5">
+        <f>2891.55/126</f>
+        <v>22.948809523809526</v>
+      </c>
+      <c r="G168" s="5">
+        <f>8696.35/(16247/60)</f>
+        <v>32.115529020742287</v>
+      </c>
+      <c r="H168" s="5">
+        <f>369/126</f>
+        <v>2.9285714285714284</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A169" s="1">
+        <v>45984</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="5">
+        <f>6088/36</f>
+        <v>169.11111111111111</v>
+      </c>
+      <c r="D169" s="4">
+        <f>C169/(24*60)</f>
+        <v>0.11743827160493828</v>
+      </c>
+      <c r="E169" s="5">
+        <f>3771.38/36</f>
+        <v>104.76055555555556</v>
+      </c>
+      <c r="F169" s="5">
+        <f>946.75/36</f>
+        <v>26.298611111111111</v>
+      </c>
+      <c r="G169" s="5">
+        <f>3771.38/(6088/60)</f>
+        <v>37.168659658344282</v>
+      </c>
+      <c r="H169" s="5">
+        <f>150/36</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A170" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="5">
+        <f>16756/126</f>
+        <v>132.98412698412699</v>
+      </c>
+      <c r="D170" s="4">
+        <f>C170/(24*60)</f>
+        <v>9.2350088183421525E-2</v>
+      </c>
+      <c r="E170" s="5">
+        <f>8534.87/126</f>
+        <v>67.737063492063498</v>
+      </c>
+      <c r="F170" s="5">
+        <f>2770.42/126</f>
+        <v>21.987460317460318</v>
+      </c>
+      <c r="G170" s="5">
+        <f>8534.87/(16756/60)</f>
+        <v>30.561721174504658</v>
+      </c>
+      <c r="H170" s="5">
+        <f>370/126</f>
+        <v>2.9365079365079363</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A171" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="5">
+        <f>5905/36</f>
+        <v>164.02777777777777</v>
+      </c>
+      <c r="D171" s="4">
+        <f>C171/(24*60)</f>
+        <v>0.11390817901234568</v>
+      </c>
+      <c r="E171" s="5">
+        <f>3778.09/36</f>
+        <v>104.94694444444445</v>
+      </c>
+      <c r="F171" s="5">
+        <f>1007.54/36</f>
+        <v>27.987222222222222</v>
+      </c>
+      <c r="G171" s="5">
+        <f>3778.09/(5905/60)</f>
+        <v>38.388721422523282</v>
+      </c>
+      <c r="H171" s="5">
+        <f>143/36</f>
+        <v>3.9722222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O171"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="J168" sqref="J168"/>
+      <selection activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5860,7 +5860,7 @@
         <v>142.24603174603175</v>
       </c>
       <c r="D166" s="4">
-        <f>C166/(24*60)</f>
+        <f t="shared" ref="D166:D171" si="18">C166/(24*60)</f>
         <v>9.8781966490299827E-2</v>
       </c>
       <c r="E166" s="5">
@@ -5892,7 +5892,7 @@
         <v>216</v>
       </c>
       <c r="D167" s="4">
-        <f>C167/(24*60)</f>
+        <f t="shared" si="18"/>
         <v>0.15</v>
       </c>
       <c r="E167" s="5">
@@ -5924,7 +5924,7 @@
         <v>128.94444444444446</v>
       </c>
       <c r="D168" s="4">
-        <f>C168/(24*60)</f>
+        <f t="shared" si="18"/>
         <v>8.9544753086419765E-2</v>
       </c>
       <c r="E168" s="5">
@@ -5956,7 +5956,7 @@
         <v>169.11111111111111</v>
       </c>
       <c r="D169" s="4">
-        <f>C169/(24*60)</f>
+        <f t="shared" si="18"/>
         <v>0.11743827160493828</v>
       </c>
       <c r="E169" s="5">
@@ -5988,7 +5988,7 @@
         <v>132.98412698412699</v>
       </c>
       <c r="D170" s="4">
-        <f>C170/(24*60)</f>
+        <f t="shared" si="18"/>
         <v>9.2350088183421525E-2</v>
       </c>
       <c r="E170" s="5">
@@ -6020,7 +6020,7 @@
         <v>164.02777777777777</v>
       </c>
       <c r="D171" s="4">
-        <f>C171/(24*60)</f>
+        <f t="shared" si="18"/>
         <v>0.11390817901234568</v>
       </c>
       <c r="E171" s="5">
@@ -6038,6 +6038,70 @@
       <c r="H171" s="5">
         <f>143/36</f>
         <v>3.9722222222222223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A172" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="5">
+        <f>15719/126</f>
+        <v>124.75396825396825</v>
+      </c>
+      <c r="D172" s="4">
+        <f>C172/(24*60)</f>
+        <v>8.6634700176366847E-2</v>
+      </c>
+      <c r="E172" s="5">
+        <f>8144.57/126</f>
+        <v>64.639444444444436</v>
+      </c>
+      <c r="F172" s="5">
+        <f>2728.64/126</f>
+        <v>21.655873015873016</v>
+      </c>
+      <c r="G172" s="5">
+        <f>8144.57/(15719/60)</f>
+        <v>31.088122654112855</v>
+      </c>
+      <c r="H172" s="5">
+        <f>357/126</f>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A173" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="5">
+        <f>6336/36</f>
+        <v>176</v>
+      </c>
+      <c r="D173" s="4">
+        <f>C173/(24*60)</f>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="E173" s="5">
+        <f>4037.14/36</f>
+        <v>112.14277777777778</v>
+      </c>
+      <c r="F173" s="5">
+        <f>999.4/36</f>
+        <v>27.761111111111109</v>
+      </c>
+      <c r="G173" s="5">
+        <f>4037.14/(6336/60)</f>
+        <v>38.230492424242428</v>
+      </c>
+      <c r="H173" s="5">
+        <f>156/36</f>
+        <v>4.333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O173"/>
+  <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="J173" sqref="J173"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="J175" sqref="J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6102,6 +6102,70 @@
       <c r="H173" s="5">
         <f>156/36</f>
         <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A174" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="5">
+        <f>15319/126</f>
+        <v>121.57936507936508</v>
+      </c>
+      <c r="D174" s="4">
+        <f>C174/(24*60)</f>
+        <v>8.4430114638447976E-2</v>
+      </c>
+      <c r="E174" s="5">
+        <f>7978.38/126</f>
+        <v>63.320476190476192</v>
+      </c>
+      <c r="F174" s="5">
+        <f>2656.3/126</f>
+        <v>21.081746031746032</v>
+      </c>
+      <c r="G174" s="5">
+        <f>7978.38/(15319/60)</f>
+        <v>31.24895880932176</v>
+      </c>
+      <c r="H174" s="5">
+        <f>342/126</f>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A175" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="5">
+        <f>8202/36</f>
+        <v>227.83333333333334</v>
+      </c>
+      <c r="D175" s="4">
+        <f>C175/(24*60)</f>
+        <v>0.1582175925925926</v>
+      </c>
+      <c r="E175" s="5">
+        <f>5264.22/36</f>
+        <v>146.22833333333335</v>
+      </c>
+      <c r="F175" s="5">
+        <f>1349.22/36</f>
+        <v>37.478333333333332</v>
+      </c>
+      <c r="G175" s="5">
+        <f>5264.22/(8202/60)</f>
+        <v>38.509290416971474</v>
+      </c>
+      <c r="H175" s="5">
+        <f>189/36</f>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O175"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="J175" sqref="J175"/>
+      <selection activeCell="J179" sqref="J179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6166,6 +6166,70 @@
       <c r="H175" s="5">
         <f>189/36</f>
         <v>5.25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A176" s="1">
+        <v>45988</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="5">
+        <f>15245/126</f>
+        <v>120.99206349206349</v>
+      </c>
+      <c r="D176" s="4">
+        <f>C176/(24*60)</f>
+        <v>8.4022266313932975E-2</v>
+      </c>
+      <c r="E176" s="5">
+        <f>8224.8/126</f>
+        <v>65.276190476190465</v>
+      </c>
+      <c r="F176" s="5">
+        <f>2762.38/126</f>
+        <v>21.923650793650793</v>
+      </c>
+      <c r="G176" s="5">
+        <f>8224.8/(15245/60)</f>
+        <v>32.370482125286976</v>
+      </c>
+      <c r="H176" s="5">
+        <f>341/126</f>
+        <v>2.7063492063492065</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A177" s="1">
+        <v>45988</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="5">
+        <f>6480/36</f>
+        <v>180</v>
+      </c>
+      <c r="D177" s="4">
+        <f>C177/(24*60)</f>
+        <v>0.125</v>
+      </c>
+      <c r="E177" s="5">
+        <f>4637.62/36</f>
+        <v>128.82277777777779</v>
+      </c>
+      <c r="F177" s="5">
+        <f>1192.38/36</f>
+        <v>33.12166666666667</v>
+      </c>
+      <c r="G177" s="5">
+        <f>4637.62/(6480/60)</f>
+        <v>42.940925925925924</v>
+      </c>
+      <c r="H177" s="5">
+        <f>169/36</f>
+        <v>4.6944444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,7 +509,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
       <selection activeCell="J179" sqref="J179"/>
@@ -6052,7 +6052,7 @@
         <v>124.75396825396825</v>
       </c>
       <c r="D172" s="4">
-        <f>C172/(24*60)</f>
+        <f t="shared" ref="D172:D177" si="19">C172/(24*60)</f>
         <v>8.6634700176366847E-2</v>
       </c>
       <c r="E172" s="5">
@@ -6084,7 +6084,7 @@
         <v>176</v>
       </c>
       <c r="D173" s="4">
-        <f>C173/(24*60)</f>
+        <f t="shared" si="19"/>
         <v>0.12222222222222222</v>
       </c>
       <c r="E173" s="5">
@@ -6116,7 +6116,7 @@
         <v>121.57936507936508</v>
       </c>
       <c r="D174" s="4">
-        <f>C174/(24*60)</f>
+        <f t="shared" si="19"/>
         <v>8.4430114638447976E-2</v>
       </c>
       <c r="E174" s="5">
@@ -6148,7 +6148,7 @@
         <v>227.83333333333334</v>
       </c>
       <c r="D175" s="4">
-        <f>C175/(24*60)</f>
+        <f t="shared" si="19"/>
         <v>0.1582175925925926</v>
       </c>
       <c r="E175" s="5">
@@ -6180,7 +6180,7 @@
         <v>120.99206349206349</v>
       </c>
       <c r="D176" s="4">
-        <f>C176/(24*60)</f>
+        <f t="shared" si="19"/>
         <v>8.4022266313932975E-2</v>
       </c>
       <c r="E176" s="5">
@@ -6212,7 +6212,7 @@
         <v>180</v>
       </c>
       <c r="D177" s="4">
-        <f>C177/(24*60)</f>
+        <f t="shared" si="19"/>
         <v>0.125</v>
       </c>
       <c r="E177" s="5">
@@ -6230,6 +6230,70 @@
       <c r="H177" s="5">
         <f>169/36</f>
         <v>4.6944444444444446</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A178" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="5">
+        <f>18017/126</f>
+        <v>142.99206349206349</v>
+      </c>
+      <c r="D178" s="4">
+        <f>C178/(24*60)</f>
+        <v>9.9300044091710754E-2</v>
+      </c>
+      <c r="E178" s="5">
+        <f>9150.9/126</f>
+        <v>72.626190476190473</v>
+      </c>
+      <c r="F178" s="5">
+        <f>3056.78/126</f>
+        <v>24.260158730158732</v>
+      </c>
+      <c r="G178" s="5">
+        <f>9150.9/(18017/60)</f>
+        <v>30.474218793361821</v>
+      </c>
+      <c r="H178" s="5">
+        <f>401/126</f>
+        <v>3.1825396825396823</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A179" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="5">
+        <f>7536/36</f>
+        <v>209.33333333333334</v>
+      </c>
+      <c r="D179" s="4">
+        <f>C179/(24*60)</f>
+        <v>0.14537037037037037</v>
+      </c>
+      <c r="E179" s="5">
+        <f>5278.48/36</f>
+        <v>146.62444444444444</v>
+      </c>
+      <c r="F179" s="5">
+        <f>1352.8/36</f>
+        <v>37.577777777777776</v>
+      </c>
+      <c r="G179" s="5">
+        <f>5278.48/(7536/60)</f>
+        <v>42.026114649681524</v>
+      </c>
+      <c r="H179" s="5">
+        <f>185/36</f>
+        <v>5.1388888888888893</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="J179" sqref="J179"/>
+      <selection activeCell="J182" sqref="J182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6294,6 +6294,70 @@
       <c r="H179" s="5">
         <f>185/36</f>
         <v>5.1388888888888893</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A180" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="5">
+        <f>16476/126</f>
+        <v>130.76190476190476</v>
+      </c>
+      <c r="D180" s="4">
+        <f>C180/(24*60)</f>
+        <v>9.0806878306878308E-2</v>
+      </c>
+      <c r="E180" s="5">
+        <f>8964.73/126</f>
+        <v>71.148650793650788</v>
+      </c>
+      <c r="F180" s="5">
+        <f>2975.11/126</f>
+        <v>23.61198412698413</v>
+      </c>
+      <c r="G180" s="5">
+        <f>8964.73/(16476/60)</f>
+        <v>32.64650400582665</v>
+      </c>
+      <c r="H180" s="5">
+        <f>367/126</f>
+        <v>2.9126984126984126</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A181" s="1">
+        <v>45990</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="5">
+        <f>8775/36</f>
+        <v>243.75</v>
+      </c>
+      <c r="D181" s="4">
+        <f>C181/(24*60)</f>
+        <v>0.16927083333333334</v>
+      </c>
+      <c r="E181" s="5">
+        <f>5552.17/36</f>
+        <v>154.22694444444446</v>
+      </c>
+      <c r="F181" s="5">
+        <f>1406.67/36</f>
+        <v>39.07416666666667</v>
+      </c>
+      <c r="G181" s="5">
+        <f>5552.17/(8775/60)</f>
+        <v>37.963555555555558</v>
+      </c>
+      <c r="H181" s="5">
+        <f>186/36</f>
+        <v>5.166666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O181"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="J182" sqref="J182"/>
+      <selection activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6358,6 +6358,70 @@
       <c r="H181" s="5">
         <f>186/36</f>
         <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A182" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="5">
+        <f>15976/126</f>
+        <v>126.7936507936508</v>
+      </c>
+      <c r="D182" s="4">
+        <f>C182/(24*60)</f>
+        <v>8.8051146384479723E-2</v>
+      </c>
+      <c r="E182" s="5">
+        <f>8853.3/126</f>
+        <v>70.264285714285705</v>
+      </c>
+      <c r="F182" s="5">
+        <f>2831.83/126</f>
+        <v>22.474841269841271</v>
+      </c>
+      <c r="G182" s="5">
+        <f>8853.3/(15976/60)</f>
+        <v>33.249749624436653</v>
+      </c>
+      <c r="H182" s="5">
+        <f>372/126</f>
+        <v>2.9523809523809526</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A183" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="5">
+        <f>7383/36</f>
+        <v>205.08333333333334</v>
+      </c>
+      <c r="D183" s="4">
+        <f>C183/(24*60)</f>
+        <v>0.14241898148148149</v>
+      </c>
+      <c r="E183" s="5">
+        <f>5103.96/36</f>
+        <v>141.77666666666667</v>
+      </c>
+      <c r="F183" s="5">
+        <f>1372.71/36</f>
+        <v>38.130833333333335</v>
+      </c>
+      <c r="G183" s="5">
+        <f>5103.96/(7383/60)</f>
+        <v>41.478748476229178</v>
+      </c>
+      <c r="H183" s="5">
+        <f>176/36</f>
+        <v>4.8888888888888893</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O183"/>
+  <dimension ref="A1:O185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="J183" sqref="J183"/>
+      <selection activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6244,7 +6244,7 @@
         <v>142.99206349206349</v>
       </c>
       <c r="D178" s="4">
-        <f>C178/(24*60)</f>
+        <f t="shared" ref="D178:D183" si="20">C178/(24*60)</f>
         <v>9.9300044091710754E-2</v>
       </c>
       <c r="E178" s="5">
@@ -6276,7 +6276,7 @@
         <v>209.33333333333334</v>
       </c>
       <c r="D179" s="4">
-        <f>C179/(24*60)</f>
+        <f t="shared" si="20"/>
         <v>0.14537037037037037</v>
       </c>
       <c r="E179" s="5">
@@ -6308,7 +6308,7 @@
         <v>130.76190476190476</v>
       </c>
       <c r="D180" s="4">
-        <f>C180/(24*60)</f>
+        <f t="shared" si="20"/>
         <v>9.0806878306878308E-2</v>
       </c>
       <c r="E180" s="5">
@@ -6340,7 +6340,7 @@
         <v>243.75</v>
       </c>
       <c r="D181" s="4">
-        <f>C181/(24*60)</f>
+        <f t="shared" si="20"/>
         <v>0.16927083333333334</v>
       </c>
       <c r="E181" s="5">
@@ -6372,7 +6372,7 @@
         <v>126.7936507936508</v>
       </c>
       <c r="D182" s="4">
-        <f>C182/(24*60)</f>
+        <f t="shared" si="20"/>
         <v>8.8051146384479723E-2</v>
       </c>
       <c r="E182" s="5">
@@ -6404,7 +6404,7 @@
         <v>205.08333333333334</v>
       </c>
       <c r="D183" s="4">
-        <f>C183/(24*60)</f>
+        <f t="shared" si="20"/>
         <v>0.14241898148148149</v>
       </c>
       <c r="E183" s="5">
@@ -6422,6 +6422,70 @@
       <c r="H183" s="5">
         <f>176/36</f>
         <v>4.8888888888888893</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A184" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="5">
+        <f>14729/126</f>
+        <v>116.89682539682539</v>
+      </c>
+      <c r="D184" s="4">
+        <f>C184/(24*60)</f>
+        <v>8.1178350970017632E-2</v>
+      </c>
+      <c r="E184" s="5">
+        <f>7937.68/126</f>
+        <v>62.997460317460323</v>
+      </c>
+      <c r="F184" s="5">
+        <f>2593.18/126</f>
+        <v>20.580793650793648</v>
+      </c>
+      <c r="G184" s="5">
+        <f>7937.68/(14729/60)</f>
+        <v>32.334903931020442</v>
+      </c>
+      <c r="H184" s="5">
+        <f>345/126</f>
+        <v>2.7380952380952381</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A185" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="5">
+        <f>5867/36</f>
+        <v>162.97222222222223</v>
+      </c>
+      <c r="D185" s="4">
+        <f>C185/(24*60)</f>
+        <v>0.11317515432098765</v>
+      </c>
+      <c r="E185" s="5">
+        <f>4236.15/36</f>
+        <v>117.67083333333332</v>
+      </c>
+      <c r="F185" s="5">
+        <f>1062.83/36</f>
+        <v>29.523055555555555</v>
+      </c>
+      <c r="G185" s="5">
+        <f>4236.15/(5867/60)</f>
+        <v>43.321799897733079</v>
+      </c>
+      <c r="H185" s="5">
+        <f>149/36</f>
+        <v>4.1388888888888893</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O185"/>
+  <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="J181" sqref="J181"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="L192" sqref="L192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6486,6 +6486,70 @@
       <c r="H185" s="5">
         <f>149/36</f>
         <v>4.1388888888888893</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A186" s="1">
+        <v>45993</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="5">
+        <f>15595/126</f>
+        <v>123.76984126984127</v>
+      </c>
+      <c r="D186" s="4">
+        <f>C186/(24*60)</f>
+        <v>8.5951278659611996E-2</v>
+      </c>
+      <c r="E186" s="5">
+        <f>7975.17/126</f>
+        <v>63.295000000000002</v>
+      </c>
+      <c r="F186" s="5">
+        <f>2647.03/126</f>
+        <v>21.008174603174606</v>
+      </c>
+      <c r="G186" s="5">
+        <f>7975.17/(15595/60)</f>
+        <v>30.68356524527092</v>
+      </c>
+      <c r="H186" s="5">
+        <f>352/126</f>
+        <v>2.7936507936507935</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A187" s="1">
+        <v>45993</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="5">
+        <f>9181/36</f>
+        <v>255.02777777777777</v>
+      </c>
+      <c r="D187" s="4">
+        <f>C187/(24*60)</f>
+        <v>0.17710262345679012</v>
+      </c>
+      <c r="E187" s="5">
+        <f>5614.48/36</f>
+        <v>155.95777777777778</v>
+      </c>
+      <c r="F187" s="5">
+        <f>1442.2/36</f>
+        <v>40.06111111111111</v>
+      </c>
+      <c r="G187" s="5">
+        <f>5614.48/(9181/60)</f>
+        <v>36.691950767890205</v>
+      </c>
+      <c r="H187" s="5">
+        <f>211/36</f>
+        <v>5.8611111111111107</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O187"/>
+  <dimension ref="A1:O189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="L192" sqref="L192"/>
+      <selection activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6550,6 +6550,70 @@
       <c r="H187" s="5">
         <f>211/36</f>
         <v>5.8611111111111107</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A188" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="5">
+        <f>16455/126</f>
+        <v>130.5952380952381</v>
+      </c>
+      <c r="D188" s="4">
+        <f>C188/(24*60)</f>
+        <v>9.0691137566137572E-2</v>
+      </c>
+      <c r="E188" s="5">
+        <f>8653.21/126</f>
+        <v>68.676269841269828</v>
+      </c>
+      <c r="F188" s="5">
+        <f>2904.55/126</f>
+        <v>23.051984126984127</v>
+      </c>
+      <c r="G188" s="5">
+        <f>8653.21/(16455/60)</f>
+        <v>31.552269826800362</v>
+      </c>
+      <c r="H188" s="5">
+        <f>373/126</f>
+        <v>2.9603174603174605</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A189" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="5">
+        <f>7910/36</f>
+        <v>219.72222222222223</v>
+      </c>
+      <c r="D189" s="4">
+        <f>C189/(24*60)</f>
+        <v>0.15258487654320987</v>
+      </c>
+      <c r="E189" s="5">
+        <f>4352.49/36</f>
+        <v>120.90249999999999</v>
+      </c>
+      <c r="F189" s="5">
+        <f>1190.84/36</f>
+        <v>33.078888888888883</v>
+      </c>
+      <c r="G189" s="5">
+        <f>4352.49/(7910/60)</f>
+        <v>33.015094816687736</v>
+      </c>
+      <c r="H189" s="5">
+        <f>165/36</f>
+        <v>4.583333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O189"/>
+  <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="G195" sqref="G195"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6436,7 +6436,7 @@
         <v>116.89682539682539</v>
       </c>
       <c r="D184" s="4">
-        <f>C184/(24*60)</f>
+        <f t="shared" ref="D184:D189" si="21">C184/(24*60)</f>
         <v>8.1178350970017632E-2</v>
       </c>
       <c r="E184" s="5">
@@ -6468,7 +6468,7 @@
         <v>162.97222222222223</v>
       </c>
       <c r="D185" s="4">
-        <f>C185/(24*60)</f>
+        <f t="shared" si="21"/>
         <v>0.11317515432098765</v>
       </c>
       <c r="E185" s="5">
@@ -6500,7 +6500,7 @@
         <v>123.76984126984127</v>
       </c>
       <c r="D186" s="4">
-        <f>C186/(24*60)</f>
+        <f t="shared" si="21"/>
         <v>8.5951278659611996E-2</v>
       </c>
       <c r="E186" s="5">
@@ -6532,7 +6532,7 @@
         <v>255.02777777777777</v>
       </c>
       <c r="D187" s="4">
-        <f>C187/(24*60)</f>
+        <f t="shared" si="21"/>
         <v>0.17710262345679012</v>
       </c>
       <c r="E187" s="5">
@@ -6564,7 +6564,7 @@
         <v>130.5952380952381</v>
       </c>
       <c r="D188" s="4">
-        <f>C188/(24*60)</f>
+        <f t="shared" si="21"/>
         <v>9.0691137566137572E-2</v>
       </c>
       <c r="E188" s="5">
@@ -6596,7 +6596,7 @@
         <v>219.72222222222223</v>
       </c>
       <c r="D189" s="4">
-        <f>C189/(24*60)</f>
+        <f t="shared" si="21"/>
         <v>0.15258487654320987</v>
       </c>
       <c r="E189" s="5">
@@ -6614,6 +6614,70 @@
       <c r="H189" s="5">
         <f>165/36</f>
         <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A190" s="1">
+        <v>45995</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="5">
+        <f>17418/126</f>
+        <v>138.23809523809524</v>
+      </c>
+      <c r="D190" s="4">
+        <f>C190/(24*60)</f>
+        <v>9.599867724867725E-2</v>
+      </c>
+      <c r="E190" s="5">
+        <f>8580.26/126</f>
+        <v>68.097301587301587</v>
+      </c>
+      <c r="F190" s="5">
+        <f>2850.22/126</f>
+        <v>22.620793650793651</v>
+      </c>
+      <c r="G190" s="5">
+        <f>8580.26/(17418/60)</f>
+        <v>29.556527729934551</v>
+      </c>
+      <c r="H190" s="5">
+        <f>392/126</f>
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A191" s="1">
+        <v>45995</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="5">
+        <f>7430/36</f>
+        <v>206.38888888888889</v>
+      </c>
+      <c r="D191" s="4">
+        <f>C191/(24*60)</f>
+        <v>0.1433256172839506</v>
+      </c>
+      <c r="E191" s="5">
+        <f>4940.75/36</f>
+        <v>137.24305555555554</v>
+      </c>
+      <c r="F191" s="5">
+        <f>1413.67/36</f>
+        <v>39.268611111111113</v>
+      </c>
+      <c r="G191" s="5">
+        <f>4940.75/(7430/60)</f>
+        <v>39.898384925975776</v>
+      </c>
+      <c r="H191" s="5">
+        <f>170/36</f>
+        <v>4.7222222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O191"/>
+  <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="I190" sqref="I190"/>
+      <selection activeCell="K192" sqref="K192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6678,6 +6678,70 @@
       <c r="H191" s="5">
         <f>170/36</f>
         <v>4.7222222222222223</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A192" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="5">
+        <f>17574/126</f>
+        <v>139.47619047619048</v>
+      </c>
+      <c r="D192" s="4">
+        <f>C192/(24*60)</f>
+        <v>9.6858465608465616E-2</v>
+      </c>
+      <c r="E192" s="5">
+        <f>8708.01/126</f>
+        <v>69.111190476190473</v>
+      </c>
+      <c r="F192" s="5">
+        <f>2907.12/126</f>
+        <v>23.07238095238095</v>
+      </c>
+      <c r="G192" s="5">
+        <f>8708.01/(17574/60)</f>
+        <v>29.730317514510073</v>
+      </c>
+      <c r="H192" s="5">
+        <f>370/126</f>
+        <v>2.9365079365079363</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A193" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" s="5">
+        <f>9098/36</f>
+        <v>252.72222222222223</v>
+      </c>
+      <c r="D193" s="4">
+        <f>C193/(24*60)</f>
+        <v>0.17550154320987654</v>
+      </c>
+      <c r="E193" s="5">
+        <f>5598.96/36</f>
+        <v>155.52666666666667</v>
+      </c>
+      <c r="F193" s="5">
+        <f>1584.5/36</f>
+        <v>44.013888888888886</v>
+      </c>
+      <c r="G193" s="5">
+        <f>5598.96/(9098/60)</f>
+        <v>36.924335018685426</v>
+      </c>
+      <c r="H193" s="5">
+        <f>188/36</f>
+        <v>5.2222222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O193"/>
+  <dimension ref="A1:O195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="K192" sqref="K192"/>
+      <selection activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6742,6 +6742,70 @@
       <c r="H193" s="5">
         <f>188/36</f>
         <v>5.2222222222222223</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A194" s="1">
+        <v>45997</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="5">
+        <f>19453/126</f>
+        <v>154.38888888888889</v>
+      </c>
+      <c r="D194" s="4">
+        <f>C194/(24*60)</f>
+        <v>0.10721450617283951</v>
+      </c>
+      <c r="E194" s="5">
+        <f>10156.38/126</f>
+        <v>80.606190476190463</v>
+      </c>
+      <c r="F194" s="5">
+        <f>3371.76/126</f>
+        <v>26.76</v>
+      </c>
+      <c r="G194" s="5">
+        <f>10156.38/(19453/60)</f>
+        <v>31.325903459620623</v>
+      </c>
+      <c r="H194" s="5">
+        <f>436/126</f>
+        <v>3.4603174603174605</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A195" s="1">
+        <v>45997</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="5">
+        <f>7493/36</f>
+        <v>208.13888888888889</v>
+      </c>
+      <c r="D195" s="4">
+        <f>C195/(24*60)</f>
+        <v>0.1445408950617284</v>
+      </c>
+      <c r="E195" s="5">
+        <f>4756.08/36</f>
+        <v>132.11333333333334</v>
+      </c>
+      <c r="F195" s="5">
+        <f>1143.91/36</f>
+        <v>31.775277777777781</v>
+      </c>
+      <c r="G195" s="5">
+        <f>4756.08/(7493/60)</f>
+        <v>38.084185239556916</v>
+      </c>
+      <c r="H195" s="5">
+        <f>170/36</f>
+        <v>4.7222222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O195"/>
+  <dimension ref="A1:O197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="J196" sqref="J196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6628,7 +6628,7 @@
         <v>138.23809523809524</v>
       </c>
       <c r="D190" s="4">
-        <f>C190/(24*60)</f>
+        <f t="shared" ref="D190:D195" si="22">C190/(24*60)</f>
         <v>9.599867724867725E-2</v>
       </c>
       <c r="E190" s="5">
@@ -6660,7 +6660,7 @@
         <v>206.38888888888889</v>
       </c>
       <c r="D191" s="4">
-        <f>C191/(24*60)</f>
+        <f t="shared" si="22"/>
         <v>0.1433256172839506</v>
       </c>
       <c r="E191" s="5">
@@ -6692,7 +6692,7 @@
         <v>139.47619047619048</v>
       </c>
       <c r="D192" s="4">
-        <f>C192/(24*60)</f>
+        <f t="shared" si="22"/>
         <v>9.6858465608465616E-2</v>
       </c>
       <c r="E192" s="5">
@@ -6724,7 +6724,7 @@
         <v>252.72222222222223</v>
       </c>
       <c r="D193" s="4">
-        <f>C193/(24*60)</f>
+        <f t="shared" si="22"/>
         <v>0.17550154320987654</v>
       </c>
       <c r="E193" s="5">
@@ -6756,7 +6756,7 @@
         <v>154.38888888888889</v>
       </c>
       <c r="D194" s="4">
-        <f>C194/(24*60)</f>
+        <f t="shared" si="22"/>
         <v>0.10721450617283951</v>
       </c>
       <c r="E194" s="5">
@@ -6788,7 +6788,7 @@
         <v>208.13888888888889</v>
       </c>
       <c r="D195" s="4">
-        <f>C195/(24*60)</f>
+        <f t="shared" si="22"/>
         <v>0.1445408950617284</v>
       </c>
       <c r="E195" s="5">
@@ -6806,6 +6806,70 @@
       <c r="H195" s="5">
         <f>170/36</f>
         <v>4.7222222222222223</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A196" s="1">
+        <v>45998</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="5">
+        <f>16075/126</f>
+        <v>127.57936507936508</v>
+      </c>
+      <c r="D196" s="4">
+        <f>C196/(24*60)</f>
+        <v>8.8596781305114641E-2</v>
+      </c>
+      <c r="E196" s="5">
+        <f>8240.17/126</f>
+        <v>65.39817460317461</v>
+      </c>
+      <c r="F196" s="5">
+        <f>2604.63/126</f>
+        <v>20.671666666666667</v>
+      </c>
+      <c r="G196" s="5">
+        <f>8240.17/(16075/60)</f>
+        <v>30.756466562986002</v>
+      </c>
+      <c r="H196" s="5">
+        <f>355/126</f>
+        <v>2.8174603174603177</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A197" s="1">
+        <v>45998</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="5">
+        <f>6939/36</f>
+        <v>192.75</v>
+      </c>
+      <c r="D197" s="4">
+        <f>C197/(24*60)</f>
+        <v>0.13385416666666666</v>
+      </c>
+      <c r="E197" s="5">
+        <f>4653.99/36</f>
+        <v>129.2775</v>
+      </c>
+      <c r="F197" s="5">
+        <f>1264.04/36</f>
+        <v>35.112222222222222</v>
+      </c>
+      <c r="G197" s="5">
+        <f>4653.99/(6939/60)</f>
+        <v>40.242023346303498</v>
+      </c>
+      <c r="H197" s="5">
+        <f>158/36</f>
+        <v>4.3888888888888893</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O197"/>
+  <dimension ref="A1:O199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="J196" sqref="J196"/>
+      <selection activeCell="J199" sqref="J199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6870,6 +6870,70 @@
       <c r="H197" s="5">
         <f>158/36</f>
         <v>4.3888888888888893</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A198" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="5">
+        <f>16737/126</f>
+        <v>132.83333333333334</v>
+      </c>
+      <c r="D198" s="4">
+        <f>C198/(24*60)</f>
+        <v>9.224537037037038E-2</v>
+      </c>
+      <c r="E198" s="5">
+        <f>8839.37/126</f>
+        <v>70.15373015873017</v>
+      </c>
+      <c r="F198" s="5">
+        <f>2976.56/126</f>
+        <v>23.623492063492062</v>
+      </c>
+      <c r="G198" s="5">
+        <f>8839.37/(16737/60)</f>
+        <v>31.68800860369242</v>
+      </c>
+      <c r="H198" s="5">
+        <f>362/126</f>
+        <v>2.873015873015873</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A199" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="5">
+        <f>7993/36</f>
+        <v>222.02777777777777</v>
+      </c>
+      <c r="D199" s="4">
+        <f>C199/(24*60)</f>
+        <v>0.15418595679012345</v>
+      </c>
+      <c r="E199" s="5">
+        <f>4916.45/36</f>
+        <v>136.56805555555556</v>
+      </c>
+      <c r="F199" s="5">
+        <f>1287.05/36</f>
+        <v>35.75138888888889</v>
+      </c>
+      <c r="G199" s="5">
+        <f>4916.45/(7993/60)</f>
+        <v>36.905667459026645</v>
+      </c>
+      <c r="H199" s="5">
+        <f>185/36</f>
+        <v>5.1388888888888893</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="J199" sqref="J199"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="J203" sqref="J203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6934,6 +6934,70 @@
       <c r="H199" s="5">
         <f>185/36</f>
         <v>5.1388888888888893</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A200" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="5">
+        <f>16064/126</f>
+        <v>127.49206349206349</v>
+      </c>
+      <c r="D200" s="4">
+        <f>C200/1440</f>
+        <v>8.8536155202821876E-2</v>
+      </c>
+      <c r="E200" s="5">
+        <f>7937.97/126</f>
+        <v>62.999761904761904</v>
+      </c>
+      <c r="F200" s="5">
+        <f>2588.88/126</f>
+        <v>20.546666666666667</v>
+      </c>
+      <c r="G200" s="5">
+        <f>7937.97/(16064/60)</f>
+        <v>29.648792330677288</v>
+      </c>
+      <c r="H200" s="5">
+        <f>353/126</f>
+        <v>2.8015873015873014</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A201" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="5">
+        <f>6779/36</f>
+        <v>188.30555555555554</v>
+      </c>
+      <c r="D201" s="4">
+        <f>C201/1440</f>
+        <v>0.13076774691358023</v>
+      </c>
+      <c r="E201" s="5">
+        <f>4188.15/36</f>
+        <v>116.33749999999999</v>
+      </c>
+      <c r="F201" s="5">
+        <f>1159.55/36</f>
+        <v>32.209722222222219</v>
+      </c>
+      <c r="G201" s="5">
+        <f>4188.15/(6779/60)</f>
+        <v>37.068741702315975</v>
+      </c>
+      <c r="H201" s="5">
+        <f>165/36</f>
+        <v>4.583333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:O203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="J203" sqref="J203"/>
+      <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6998,6 +6998,70 @@
       <c r="H201" s="5">
         <f>165/36</f>
         <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A202" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="5">
+        <f>16947/126</f>
+        <v>134.5</v>
+      </c>
+      <c r="D202" s="4">
+        <f>C202/1440</f>
+        <v>9.3402777777777779E-2</v>
+      </c>
+      <c r="E202" s="5">
+        <f>8498.33/126</f>
+        <v>67.447063492063492</v>
+      </c>
+      <c r="F202" s="5">
+        <f>2770.04/126</f>
+        <v>21.984444444444446</v>
+      </c>
+      <c r="G202" s="5">
+        <f>8498.33/(16947/60)</f>
+        <v>30.087909364489292</v>
+      </c>
+      <c r="H202" s="5">
+        <f>374/126</f>
+        <v>2.9682539682539684</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A203" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="5">
+        <f>6930/36</f>
+        <v>192.5</v>
+      </c>
+      <c r="D203" s="4">
+        <f>C203/1440</f>
+        <v>0.13368055555555555</v>
+      </c>
+      <c r="E203" s="5">
+        <f>4483.63/36</f>
+        <v>124.54527777777778</v>
+      </c>
+      <c r="F203" s="5">
+        <f>1194.08/36</f>
+        <v>33.168888888888887</v>
+      </c>
+      <c r="G203" s="5">
+        <f>4483.63/(6930/60)</f>
+        <v>38.819307359307359</v>
+      </c>
+      <c r="H203" s="5">
+        <f>164/36</f>
+        <v>4.5555555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O203"/>
+  <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="I200" sqref="I200"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="I206" sqref="I206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7062,6 +7062,70 @@
       <c r="H203" s="5">
         <f>164/36</f>
         <v>4.5555555555555554</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A204" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" s="5">
+        <f>16268/126</f>
+        <v>129.11111111111111</v>
+      </c>
+      <c r="D204" s="4">
+        <f>C204/1440</f>
+        <v>8.9660493827160501E-2</v>
+      </c>
+      <c r="E204" s="5">
+        <f>8172.82/126</f>
+        <v>64.863650793650791</v>
+      </c>
+      <c r="F204" s="5">
+        <f>2728.39/126</f>
+        <v>21.653888888888886</v>
+      </c>
+      <c r="G204" s="5">
+        <f>8172.82/(16268/60)</f>
+        <v>30.143176788787805</v>
+      </c>
+      <c r="H204" s="5">
+        <f>372/126</f>
+        <v>2.9523809523809526</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A205" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="5">
+        <f>6308/36</f>
+        <v>175.22222222222223</v>
+      </c>
+      <c r="D205" s="4">
+        <f>C205/1440</f>
+        <v>0.12168209876543211</v>
+      </c>
+      <c r="E205" s="5">
+        <f>4169.42/36</f>
+        <v>115.81722222222223</v>
+      </c>
+      <c r="F205" s="5">
+        <f>1137.06/36</f>
+        <v>31.584999999999997</v>
+      </c>
+      <c r="G205" s="5">
+        <f>4169.42/(6308/60)</f>
+        <v>39.658402029169309</v>
+      </c>
+      <c r="H205" s="5">
+        <f>159/36</f>
+        <v>4.416666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O205"/>
+  <dimension ref="A1:O207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="I206" sqref="I206"/>
+      <selection activeCell="K207" sqref="K207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6948,7 +6948,7 @@
         <v>127.49206349206349</v>
       </c>
       <c r="D200" s="4">
-        <f>C200/1440</f>
+        <f t="shared" ref="D200:D205" si="23">C200/1440</f>
         <v>8.8536155202821876E-2</v>
       </c>
       <c r="E200" s="5">
@@ -6980,7 +6980,7 @@
         <v>188.30555555555554</v>
       </c>
       <c r="D201" s="4">
-        <f>C201/1440</f>
+        <f t="shared" si="23"/>
         <v>0.13076774691358023</v>
       </c>
       <c r="E201" s="5">
@@ -7012,7 +7012,7 @@
         <v>134.5</v>
       </c>
       <c r="D202" s="4">
-        <f>C202/1440</f>
+        <f t="shared" si="23"/>
         <v>9.3402777777777779E-2</v>
       </c>
       <c r="E202" s="5">
@@ -7044,7 +7044,7 @@
         <v>192.5</v>
       </c>
       <c r="D203" s="4">
-        <f>C203/1440</f>
+        <f t="shared" si="23"/>
         <v>0.13368055555555555</v>
       </c>
       <c r="E203" s="5">
@@ -7076,7 +7076,7 @@
         <v>129.11111111111111</v>
       </c>
       <c r="D204" s="4">
-        <f>C204/1440</f>
+        <f t="shared" si="23"/>
         <v>8.9660493827160501E-2</v>
       </c>
       <c r="E204" s="5">
@@ -7108,7 +7108,7 @@
         <v>175.22222222222223</v>
       </c>
       <c r="D205" s="4">
-        <f>C205/1440</f>
+        <f t="shared" si="23"/>
         <v>0.12168209876543211</v>
       </c>
       <c r="E205" s="5">
@@ -7126,6 +7126,70 @@
       <c r="H205" s="5">
         <f>159/36</f>
         <v>4.416666666666667</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A206" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="5">
+        <f>17688/126</f>
+        <v>140.38095238095238</v>
+      </c>
+      <c r="D206" s="4">
+        <f>C206/1440</f>
+        <v>9.7486772486772483E-2</v>
+      </c>
+      <c r="E206" s="5">
+        <f>8938.24/126</f>
+        <v>70.938412698412691</v>
+      </c>
+      <c r="F206" s="5">
+        <f>2961.32/126</f>
+        <v>23.502539682539684</v>
+      </c>
+      <c r="G206" s="5">
+        <f>8938.24/(17688/60)</f>
+        <v>30.319674355495248</v>
+      </c>
+      <c r="H206" s="5">
+        <f>412/126</f>
+        <v>3.2698412698412698</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A207" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="5">
+        <f>7075/36</f>
+        <v>196.52777777777777</v>
+      </c>
+      <c r="D207" s="4">
+        <f>C207/1440</f>
+        <v>0.13647762345679013</v>
+      </c>
+      <c r="E207" s="5">
+        <f>4923.18/36</f>
+        <v>136.755</v>
+      </c>
+      <c r="F207" s="5">
+        <f>1228.83/36</f>
+        <v>34.134166666666665</v>
+      </c>
+      <c r="G207" s="5">
+        <f>4923.18/(7075/60)</f>
+        <v>41.751349823321554</v>
+      </c>
+      <c r="H207" s="5">
+        <f>180/36</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O207"/>
+  <dimension ref="A1:O209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="K207" sqref="K207"/>
+      <selection activeCell="I208" sqref="I208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7190,6 +7190,70 @@
       <c r="H207" s="5">
         <f>180/36</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A208" s="1">
+        <v>46004</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="5">
+        <f>20544/126</f>
+        <v>163.04761904761904</v>
+      </c>
+      <c r="D208" s="4">
+        <f>C208/1440</f>
+        <v>0.11322751322751322</v>
+      </c>
+      <c r="E208" s="5">
+        <f>10330.68/126</f>
+        <v>81.989523809523817</v>
+      </c>
+      <c r="F208" s="5">
+        <f>3388.73/126</f>
+        <v>26.894682539682538</v>
+      </c>
+      <c r="G208" s="5">
+        <f>10330.68/(20544/60)</f>
+        <v>30.171378504672901</v>
+      </c>
+      <c r="H208" s="5">
+        <f>428/126</f>
+        <v>3.3968253968253967</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A209" s="1">
+        <v>46004</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="5">
+        <f>9393/36</f>
+        <v>260.91666666666669</v>
+      </c>
+      <c r="D209" s="4">
+        <f>C209/1440</f>
+        <v>0.18119212962962963</v>
+      </c>
+      <c r="E209" s="5">
+        <f>6216.39/36</f>
+        <v>172.67750000000001</v>
+      </c>
+      <c r="F209" s="5">
+        <f>1624.58/36</f>
+        <v>45.127222222222223</v>
+      </c>
+      <c r="G209" s="5">
+        <f>6216.39/(9393/60)</f>
+        <v>39.708655381667199</v>
+      </c>
+      <c r="H209" s="5">
+        <f>213/36</f>
+        <v>5.916666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O209"/>
+  <dimension ref="A1:O211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="I208" sqref="I208"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="J210" sqref="J210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7254,6 +7254,70 @@
       <c r="H209" s="5">
         <f>213/36</f>
         <v>5.916666666666667</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A210" s="1">
+        <v>46005</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="5">
+        <f>16891/126</f>
+        <v>134.05555555555554</v>
+      </c>
+      <c r="D210" s="4">
+        <f>C210/1440</f>
+        <v>9.3094135802469127E-2</v>
+      </c>
+      <c r="E210" s="5">
+        <f>8725.93/126</f>
+        <v>69.253412698412703</v>
+      </c>
+      <c r="F210" s="5">
+        <f>2907.75/126</f>
+        <v>23.077380952380953</v>
+      </c>
+      <c r="G210" s="5">
+        <f>8725.93/(16891/60)</f>
+        <v>30.99613995618969</v>
+      </c>
+      <c r="H210" s="5">
+        <f>354/126</f>
+        <v>2.8095238095238093</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A211" s="1">
+        <v>46005</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="5">
+        <f>7570/36</f>
+        <v>210.27777777777777</v>
+      </c>
+      <c r="D211" s="4">
+        <f>C211/1440</f>
+        <v>0.14602623456790123</v>
+      </c>
+      <c r="E211" s="5">
+        <f>5263.11/36</f>
+        <v>146.19749999999999</v>
+      </c>
+      <c r="F211" s="5">
+        <f>1353.99/36</f>
+        <v>37.610833333333332</v>
+      </c>
+      <c r="G211" s="5">
+        <f>5263.11/(7570/60)</f>
+        <v>41.715535006605016</v>
+      </c>
+      <c r="H211" s="5">
+        <f>181/36</f>
+        <v>5.0277777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O211"/>
+  <dimension ref="A1:O213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="J210" sqref="J210"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="J213" sqref="J213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7140,7 +7140,7 @@
         <v>140.38095238095238</v>
       </c>
       <c r="D206" s="4">
-        <f>C206/1440</f>
+        <f t="shared" ref="D206:D211" si="24">C206/1440</f>
         <v>9.7486772486772483E-2</v>
       </c>
       <c r="E206" s="5">
@@ -7172,7 +7172,7 @@
         <v>196.52777777777777</v>
       </c>
       <c r="D207" s="4">
-        <f>C207/1440</f>
+        <f t="shared" si="24"/>
         <v>0.13647762345679013</v>
       </c>
       <c r="E207" s="5">
@@ -7204,7 +7204,7 @@
         <v>163.04761904761904</v>
       </c>
       <c r="D208" s="4">
-        <f>C208/1440</f>
+        <f t="shared" si="24"/>
         <v>0.11322751322751322</v>
       </c>
       <c r="E208" s="5">
@@ -7236,7 +7236,7 @@
         <v>260.91666666666669</v>
       </c>
       <c r="D209" s="4">
-        <f>C209/1440</f>
+        <f t="shared" si="24"/>
         <v>0.18119212962962963</v>
       </c>
       <c r="E209" s="5">
@@ -7268,7 +7268,7 @@
         <v>134.05555555555554</v>
       </c>
       <c r="D210" s="4">
-        <f>C210/1440</f>
+        <f t="shared" si="24"/>
         <v>9.3094135802469127E-2</v>
       </c>
       <c r="E210" s="5">
@@ -7300,7 +7300,7 @@
         <v>210.27777777777777</v>
       </c>
       <c r="D211" s="4">
-        <f>C211/1440</f>
+        <f t="shared" si="24"/>
         <v>0.14602623456790123</v>
       </c>
       <c r="E211" s="5">
@@ -7318,6 +7318,70 @@
       <c r="H211" s="5">
         <f>181/36</f>
         <v>5.0277777777777777</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A212" s="1">
+        <v>46006</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" s="5">
+        <f>18016/126</f>
+        <v>142.98412698412699</v>
+      </c>
+      <c r="D212" s="4">
+        <f>C212/1440</f>
+        <v>9.9294532627865958E-2</v>
+      </c>
+      <c r="E212" s="5">
+        <f>8859.8/126</f>
+        <v>70.315873015873009</v>
+      </c>
+      <c r="F212" s="5">
+        <f>2939.86/126</f>
+        <v>23.332222222222224</v>
+      </c>
+      <c r="G212" s="5">
+        <f>8859.8/(18016/60)</f>
+        <v>29.506438721136767</v>
+      </c>
+      <c r="H212" s="5">
+        <f>388/126</f>
+        <v>3.0793650793650795</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A213" s="1">
+        <v>46006</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="5">
+        <f>8779/36</f>
+        <v>243.86111111111111</v>
+      </c>
+      <c r="D213" s="4">
+        <f>C213/1440</f>
+        <v>0.16934799382716051</v>
+      </c>
+      <c r="E213" s="5">
+        <f>5669.34/36</f>
+        <v>157.48166666666668</v>
+      </c>
+      <c r="F213" s="5">
+        <f>1538.96/36</f>
+        <v>42.748888888888892</v>
+      </c>
+      <c r="G213" s="5">
+        <f>5669.34/(8779/60)</f>
+        <v>38.747055473288533</v>
+      </c>
+      <c r="H213" s="5">
+        <f>209/36</f>
+        <v>5.8055555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O213"/>
+  <dimension ref="A1:O219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="J213" sqref="J213"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="I220" sqref="I220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7382,6 +7382,198 @@
       <c r="H213" s="5">
         <f>209/36</f>
         <v>5.8055555555555554</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A214" s="1">
+        <v>46007</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2</v>
+      </c>
+      <c r="C214" s="5">
+        <f>15455/126</f>
+        <v>122.65873015873017</v>
+      </c>
+      <c r="D214" s="4">
+        <f>C214/1440</f>
+        <v>8.5179673721340388E-2</v>
+      </c>
+      <c r="E214" s="5">
+        <f>7975.08/126</f>
+        <v>63.294285714285714</v>
+      </c>
+      <c r="F214" s="5">
+        <f>2617.95/126</f>
+        <v>20.777380952380952</v>
+      </c>
+      <c r="G214" s="5">
+        <f>7975.08/(15455/60)</f>
+        <v>30.961164671627309</v>
+      </c>
+      <c r="H214" s="5">
+        <f>345/126</f>
+        <v>2.7380952380952381</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A215" s="1">
+        <v>46007</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="5">
+        <f>6397/36</f>
+        <v>177.69444444444446</v>
+      </c>
+      <c r="D215" s="4">
+        <f>C215/1440</f>
+        <v>0.12339891975308642</v>
+      </c>
+      <c r="E215" s="5">
+        <f>4366.49/36</f>
+        <v>121.29138888888889</v>
+      </c>
+      <c r="F215" s="5">
+        <f>1160.77/36</f>
+        <v>32.243611111111107</v>
+      </c>
+      <c r="G215" s="5">
+        <f>4366.49/(6397/60)</f>
+        <v>40.955041425668284</v>
+      </c>
+      <c r="H215" s="5">
+        <f>164/36</f>
+        <v>4.5555555555555554</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A216" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216" s="5">
+        <f>16475/126</f>
+        <v>130.75396825396825</v>
+      </c>
+      <c r="D216" s="4">
+        <f>C216/1440</f>
+        <v>9.0801366843033512E-2</v>
+      </c>
+      <c r="E216" s="5">
+        <f>7802.58/126</f>
+        <v>61.925238095238093</v>
+      </c>
+      <c r="F216" s="5">
+        <f>2592.82/126</f>
+        <v>20.57793650793651</v>
+      </c>
+      <c r="G216" s="5">
+        <f>7802/(15475/60)</f>
+        <v>30.250080775444264</v>
+      </c>
+      <c r="H216" s="5">
+        <f>349/126</f>
+        <v>2.7698412698412698</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A217" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="5">
+        <f>7017/36</f>
+        <v>194.91666666666666</v>
+      </c>
+      <c r="D217" s="4">
+        <f>C217/1440</f>
+        <v>0.1353587962962963</v>
+      </c>
+      <c r="E217" s="5">
+        <f>4438.31/36</f>
+        <v>123.28638888888889</v>
+      </c>
+      <c r="F217" s="5">
+        <f>1209.84/36</f>
+        <v>33.606666666666662</v>
+      </c>
+      <c r="G217" s="5">
+        <f>4436.31/(7017/60)</f>
+        <v>37.933390337751177</v>
+      </c>
+      <c r="H217" s="5">
+        <f>169/36</f>
+        <v>4.6944444444444446</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A218" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B218" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="5">
+        <f>16700/126</f>
+        <v>132.53968253968253</v>
+      </c>
+      <c r="D218" s="4">
+        <f>C218/1440</f>
+        <v>9.2041446208112873E-2</v>
+      </c>
+      <c r="E218" s="5">
+        <f>8362.59/126</f>
+        <v>66.369761904761901</v>
+      </c>
+      <c r="F218" s="5">
+        <f>2767.43/126</f>
+        <v>21.963730158730158</v>
+      </c>
+      <c r="G218" s="5">
+        <f>8362.59/(16700/60)</f>
+        <v>30.045233532934134</v>
+      </c>
+      <c r="H218" s="5">
+        <f>374/126</f>
+        <v>2.9682539682539684</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A219" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" s="5">
+        <f>6960/36</f>
+        <v>193.33333333333334</v>
+      </c>
+      <c r="D219" s="4">
+        <f>C219/1440</f>
+        <v>0.13425925925925927</v>
+      </c>
+      <c r="E219" s="5">
+        <f>4338.56/36</f>
+        <v>120.51555555555557</v>
+      </c>
+      <c r="F219" s="5">
+        <f>1117.58/36</f>
+        <v>31.043888888888887</v>
+      </c>
+      <c r="G219" s="5">
+        <f>4338.56/(6960/60)</f>
+        <v>37.401379310344829</v>
+      </c>
+      <c r="H219" s="5">
+        <f>174/36</f>
+        <v>4.833333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,7 +509,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O219"/>
+  <dimension ref="A1:O221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
       <selection activeCell="I220" sqref="I220"/>
@@ -7332,7 +7332,7 @@
         <v>142.98412698412699</v>
       </c>
       <c r="D212" s="4">
-        <f>C212/1440</f>
+        <f t="shared" ref="D212:D219" si="25">C212/1440</f>
         <v>9.9294532627865958E-2</v>
       </c>
       <c r="E212" s="5">
@@ -7364,7 +7364,7 @@
         <v>243.86111111111111</v>
       </c>
       <c r="D213" s="4">
-        <f>C213/1440</f>
+        <f t="shared" si="25"/>
         <v>0.16934799382716051</v>
       </c>
       <c r="E213" s="5">
@@ -7396,7 +7396,7 @@
         <v>122.65873015873017</v>
       </c>
       <c r="D214" s="4">
-        <f>C214/1440</f>
+        <f t="shared" si="25"/>
         <v>8.5179673721340388E-2</v>
       </c>
       <c r="E214" s="5">
@@ -7428,7 +7428,7 @@
         <v>177.69444444444446</v>
       </c>
       <c r="D215" s="4">
-        <f>C215/1440</f>
+        <f t="shared" si="25"/>
         <v>0.12339891975308642</v>
       </c>
       <c r="E215" s="5">
@@ -7460,7 +7460,7 @@
         <v>130.75396825396825</v>
       </c>
       <c r="D216" s="4">
-        <f>C216/1440</f>
+        <f t="shared" si="25"/>
         <v>9.0801366843033512E-2</v>
       </c>
       <c r="E216" s="5">
@@ -7492,7 +7492,7 @@
         <v>194.91666666666666</v>
       </c>
       <c r="D217" s="4">
-        <f>C217/1440</f>
+        <f t="shared" si="25"/>
         <v>0.1353587962962963</v>
       </c>
       <c r="E217" s="5">
@@ -7524,7 +7524,7 @@
         <v>132.53968253968253</v>
       </c>
       <c r="D218" s="4">
-        <f>C218/1440</f>
+        <f t="shared" si="25"/>
         <v>9.2041446208112873E-2</v>
       </c>
       <c r="E218" s="5">
@@ -7556,7 +7556,7 @@
         <v>193.33333333333334</v>
       </c>
       <c r="D219" s="4">
-        <f>C219/1440</f>
+        <f t="shared" si="25"/>
         <v>0.13425925925925927</v>
       </c>
       <c r="E219" s="5">
@@ -7574,6 +7574,70 @@
       <c r="H219" s="5">
         <f>174/36</f>
         <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A220" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220" s="5">
+        <f>16308/126</f>
+        <v>129.42857142857142</v>
+      </c>
+      <c r="D220" s="4">
+        <f>C220/1440</f>
+        <v>8.9880952380952367E-2</v>
+      </c>
+      <c r="E220" s="5">
+        <f>8259.1/126</f>
+        <v>65.548412698412704</v>
+      </c>
+      <c r="F220" s="5">
+        <f>2699.54/126</f>
+        <v>21.424920634920635</v>
+      </c>
+      <c r="G220" s="5">
+        <f>8259.1/(16308/60)</f>
+        <v>30.386681383370124</v>
+      </c>
+      <c r="H220" s="5">
+        <f>378/126</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A221" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B221" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="5">
+        <f>7424/36</f>
+        <v>206.22222222222223</v>
+      </c>
+      <c r="D221" s="4">
+        <f>C221/1440</f>
+        <v>0.14320987654320988</v>
+      </c>
+      <c r="E221" s="5">
+        <f>4913.54/36</f>
+        <v>136.48722222222221</v>
+      </c>
+      <c r="F221" s="5">
+        <f>1301.66/36</f>
+        <v>36.157222222222224</v>
+      </c>
+      <c r="G221" s="5">
+        <f>4913.54/(7424/60)</f>
+        <v>39.710721982758621</v>
+      </c>
+      <c r="H221" s="5">
+        <f>173/36</f>
+        <v>4.8055555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O221"/>
+  <dimension ref="A1:O225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="I220" sqref="I220"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="I224" sqref="I224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7638,6 +7638,134 @@
       <c r="H221" s="5">
         <f>173/36</f>
         <v>4.8055555555555554</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A222" s="1">
+        <v>46011</v>
+      </c>
+      <c r="B222" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" s="5">
+        <f>15208/126</f>
+        <v>120.6984126984127</v>
+      </c>
+      <c r="D222" s="4">
+        <f>C222/1440</f>
+        <v>8.3818342151675482E-2</v>
+      </c>
+      <c r="E222" s="5">
+        <f>7786/126</f>
+        <v>61.793650793650791</v>
+      </c>
+      <c r="F222" s="5">
+        <f>2513/126</f>
+        <v>19.944444444444443</v>
+      </c>
+      <c r="G222" s="5">
+        <f>7786/(15208/60)</f>
+        <v>30.718043135192005</v>
+      </c>
+      <c r="H222" s="5">
+        <f>352/126</f>
+        <v>2.7936507936507935</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A223" s="1">
+        <v>46011</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="5">
+        <f>6500/36</f>
+        <v>180.55555555555554</v>
+      </c>
+      <c r="D223" s="4">
+        <f>C223/1440</f>
+        <v>0.1253858024691358</v>
+      </c>
+      <c r="E223" s="5">
+        <f>4371/36</f>
+        <v>121.41666666666667</v>
+      </c>
+      <c r="F223" s="5">
+        <f>1163/36</f>
+        <v>32.305555555555557</v>
+      </c>
+      <c r="G223" s="5">
+        <f>4371/(6500/60)</f>
+        <v>40.347692307692313</v>
+      </c>
+      <c r="H223" s="5">
+        <f>156/36</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A224" s="1">
+        <v>46012</v>
+      </c>
+      <c r="B224" t="s">
+        <v>2</v>
+      </c>
+      <c r="C224" s="5">
+        <f>17585/126</f>
+        <v>139.56349206349208</v>
+      </c>
+      <c r="D224" s="4">
+        <f>C224/1440</f>
+        <v>9.6919091710758382E-2</v>
+      </c>
+      <c r="E224" s="5">
+        <f>9150/126</f>
+        <v>72.61904761904762</v>
+      </c>
+      <c r="F224" s="5">
+        <f>2926/126</f>
+        <v>23.222222222222221</v>
+      </c>
+      <c r="G224" s="5">
+        <f>9150/(17585/60)</f>
+        <v>31.219789593403473</v>
+      </c>
+      <c r="H224" s="5">
+        <f>385/126</f>
+        <v>3.0555555555555554</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A225" s="1">
+        <v>46012</v>
+      </c>
+      <c r="B225" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="5">
+        <f>6654/36</f>
+        <v>184.83333333333334</v>
+      </c>
+      <c r="D225" s="4">
+        <f>C225/1440</f>
+        <v>0.12835648148148149</v>
+      </c>
+      <c r="E225" s="5">
+        <f>4651/36</f>
+        <v>129.19444444444446</v>
+      </c>
+      <c r="F225" s="5">
+        <f>1228/36</f>
+        <v>34.111111111111114</v>
+      </c>
+      <c r="G225" s="5">
+        <f>4651/(6654/60)</f>
+        <v>41.938683498647428</v>
+      </c>
+      <c r="H225" s="5">
+        <f>157/36</f>
+        <v>4.3611111111111107</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O225"/>
+  <dimension ref="A1:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="I224" sqref="I224"/>
+      <selection activeCell="J225" sqref="J225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7588,7 +7588,7 @@
         <v>129.42857142857142</v>
       </c>
       <c r="D220" s="4">
-        <f>C220/1440</f>
+        <f t="shared" ref="D220:D225" si="26">C220/1440</f>
         <v>8.9880952380952367E-2</v>
       </c>
       <c r="E220" s="5">
@@ -7620,7 +7620,7 @@
         <v>206.22222222222223</v>
       </c>
       <c r="D221" s="4">
-        <f>C221/1440</f>
+        <f t="shared" si="26"/>
         <v>0.14320987654320988</v>
       </c>
       <c r="E221" s="5">
@@ -7652,7 +7652,7 @@
         <v>120.6984126984127</v>
       </c>
       <c r="D222" s="4">
-        <f>C222/1440</f>
+        <f t="shared" si="26"/>
         <v>8.3818342151675482E-2</v>
       </c>
       <c r="E222" s="5">
@@ -7684,7 +7684,7 @@
         <v>180.55555555555554</v>
       </c>
       <c r="D223" s="4">
-        <f>C223/1440</f>
+        <f t="shared" si="26"/>
         <v>0.1253858024691358</v>
       </c>
       <c r="E223" s="5">
@@ -7716,7 +7716,7 @@
         <v>139.56349206349208</v>
       </c>
       <c r="D224" s="4">
-        <f>C224/1440</f>
+        <f t="shared" si="26"/>
         <v>9.6919091710758382E-2</v>
       </c>
       <c r="E224" s="5">
@@ -7748,7 +7748,7 @@
         <v>184.83333333333334</v>
       </c>
       <c r="D225" s="4">
-        <f>C225/1440</f>
+        <f t="shared" si="26"/>
         <v>0.12835648148148149</v>
       </c>
       <c r="E225" s="5">
@@ -7766,6 +7766,70 @@
       <c r="H225" s="5">
         <f>157/36</f>
         <v>4.3611111111111107</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A226" s="1">
+        <v>46013</v>
+      </c>
+      <c r="B226" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="5">
+        <f>17750/126</f>
+        <v>140.87301587301587</v>
+      </c>
+      <c r="D226" s="4">
+        <f>C226/1440</f>
+        <v>9.7828483245149908E-2</v>
+      </c>
+      <c r="E226" s="5">
+        <f>8898/126</f>
+        <v>70.61904761904762</v>
+      </c>
+      <c r="F226" s="5">
+        <f>2872/126</f>
+        <v>22.793650793650794</v>
+      </c>
+      <c r="G226" s="5">
+        <f>8898/(17750/60)</f>
+        <v>30.077746478873241</v>
+      </c>
+      <c r="H226" s="5">
+        <f>286/126</f>
+        <v>2.2698412698412698</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A227" s="1">
+        <v>46013</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="5">
+        <f>8384/36</f>
+        <v>232.88888888888889</v>
+      </c>
+      <c r="D227" s="4">
+        <f>C227/1440</f>
+        <v>0.1617283950617284</v>
+      </c>
+      <c r="E227" s="5">
+        <f>5621/36</f>
+        <v>156.13888888888889</v>
+      </c>
+      <c r="F227" s="5">
+        <f>1378/36</f>
+        <v>38.277777777777779</v>
+      </c>
+      <c r="G227" s="5">
+        <f>5621/(8384/60)</f>
+        <v>40.226622137404583</v>
+      </c>
+      <c r="H227" s="5">
+        <f>207/36</f>
+        <v>5.75</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O227"/>
+  <dimension ref="A1:O229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="J225" sqref="J225"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="I230" sqref="I230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7830,6 +7830,70 @@
       <c r="H227" s="5">
         <f>207/36</f>
         <v>5.75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A228" s="1">
+        <v>46014</v>
+      </c>
+      <c r="B228" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" s="5">
+        <f>17266/126</f>
+        <v>137.03174603174602</v>
+      </c>
+      <c r="D228" s="4">
+        <f>C228/1440</f>
+        <v>9.5160934744268066E-2</v>
+      </c>
+      <c r="E228" s="5">
+        <f>8753/126</f>
+        <v>69.468253968253961</v>
+      </c>
+      <c r="F228" s="5">
+        <f>2895/126</f>
+        <v>22.976190476190474</v>
+      </c>
+      <c r="G228" s="5">
+        <f>8753/(17266/60)</f>
+        <v>30.417004517548943</v>
+      </c>
+      <c r="H228" s="5">
+        <f>374/126</f>
+        <v>2.9682539682539684</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A229" s="1">
+        <v>46014</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="5">
+        <f>7996/36</f>
+        <v>222.11111111111111</v>
+      </c>
+      <c r="D229" s="4">
+        <f>C229/1440</f>
+        <v>0.15424382716049384</v>
+      </c>
+      <c r="E229" s="5">
+        <f>5074.23/36</f>
+        <v>140.95083333333332</v>
+      </c>
+      <c r="F229" s="5">
+        <f>1289/36</f>
+        <v>35.805555555555557</v>
+      </c>
+      <c r="G229" s="5">
+        <f>5074/(7996/60)</f>
+        <v>38.074037018509252</v>
+      </c>
+      <c r="H229" s="5">
+        <f>183/36</f>
+        <v>5.083333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O229"/>
+  <dimension ref="A1:O231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="I230" sqref="I230"/>
+      <selection activeCell="I231" sqref="I231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7894,6 +7894,70 @@
       <c r="H229" s="5">
         <f>183/36</f>
         <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A230" s="1">
+        <v>46015</v>
+      </c>
+      <c r="B230" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="5">
+        <f>21692/126</f>
+        <v>172.15873015873015</v>
+      </c>
+      <c r="D230" s="4">
+        <f>C230/1440</f>
+        <v>0.11955467372134038</v>
+      </c>
+      <c r="E230" s="5">
+        <f>10754/126</f>
+        <v>85.349206349206355</v>
+      </c>
+      <c r="F230" s="5">
+        <f>3508/126</f>
+        <v>27.841269841269842</v>
+      </c>
+      <c r="G230" s="5">
+        <f>10754/(21692/60)</f>
+        <v>29.745528305366033</v>
+      </c>
+      <c r="H230" s="5">
+        <f>439/126</f>
+        <v>3.4841269841269842</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A231" s="1">
+        <v>46015</v>
+      </c>
+      <c r="B231" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="5">
+        <f>8421/36</f>
+        <v>233.91666666666666</v>
+      </c>
+      <c r="D231" s="4">
+        <f>C231/1440</f>
+        <v>0.16244212962962962</v>
+      </c>
+      <c r="E231" s="5">
+        <f>5147/36</f>
+        <v>142.97222222222223</v>
+      </c>
+      <c r="F231" s="5">
+        <f>1375/36</f>
+        <v>38.194444444444443</v>
+      </c>
+      <c r="G231" s="5">
+        <f>5147/(8421/60)</f>
+        <v>36.672604203776274</v>
+      </c>
+      <c r="H231" s="5">
+        <f>182/36</f>
+        <v>5.0555555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O231"/>
+  <dimension ref="A1:O233"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="I231" sqref="I231"/>
+      <selection activeCell="I234" sqref="I234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7780,7 +7780,7 @@
         <v>140.87301587301587</v>
       </c>
       <c r="D226" s="4">
-        <f>C226/1440</f>
+        <f t="shared" ref="D226:D231" si="27">C226/1440</f>
         <v>9.7828483245149908E-2</v>
       </c>
       <c r="E226" s="5">
@@ -7812,7 +7812,7 @@
         <v>232.88888888888889</v>
       </c>
       <c r="D227" s="4">
-        <f>C227/1440</f>
+        <f t="shared" si="27"/>
         <v>0.1617283950617284</v>
       </c>
       <c r="E227" s="5">
@@ -7844,7 +7844,7 @@
         <v>137.03174603174602</v>
       </c>
       <c r="D228" s="4">
-        <f>C228/1440</f>
+        <f t="shared" si="27"/>
         <v>9.5160934744268066E-2</v>
       </c>
       <c r="E228" s="5">
@@ -7876,7 +7876,7 @@
         <v>222.11111111111111</v>
       </c>
       <c r="D229" s="4">
-        <f>C229/1440</f>
+        <f t="shared" si="27"/>
         <v>0.15424382716049384</v>
       </c>
       <c r="E229" s="5">
@@ -7908,7 +7908,7 @@
         <v>172.15873015873015</v>
       </c>
       <c r="D230" s="4">
-        <f>C230/1440</f>
+        <f t="shared" si="27"/>
         <v>0.11955467372134038</v>
       </c>
       <c r="E230" s="5">
@@ -7940,7 +7940,7 @@
         <v>233.91666666666666</v>
       </c>
       <c r="D231" s="4">
-        <f>C231/1440</f>
+        <f t="shared" si="27"/>
         <v>0.16244212962962962</v>
       </c>
       <c r="E231" s="5">
@@ -7958,6 +7958,70 @@
       <c r="H231" s="5">
         <f>182/36</f>
         <v>5.0555555555555554</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A232" s="1">
+        <v>46016</v>
+      </c>
+      <c r="B232" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" s="5">
+        <f>21598/126</f>
+        <v>171.4126984126984</v>
+      </c>
+      <c r="D232" s="4">
+        <f>C232/1440</f>
+        <v>0.11903659611992945</v>
+      </c>
+      <c r="E232" s="5">
+        <f>10431/126</f>
+        <v>82.785714285714292</v>
+      </c>
+      <c r="F232" s="5">
+        <f>3547/126</f>
+        <v>28.150793650793652</v>
+      </c>
+      <c r="G232" s="5">
+        <f>10431/(21598/60)</f>
+        <v>28.977683118807299</v>
+      </c>
+      <c r="H232" s="5">
+        <f>438/126</f>
+        <v>3.4761904761904763</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A233" s="1">
+        <v>46016</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="5">
+        <f>9941/36</f>
+        <v>276.13888888888891</v>
+      </c>
+      <c r="D233" s="4">
+        <f>C233/1440</f>
+        <v>0.19176311728395062</v>
+      </c>
+      <c r="E233" s="5">
+        <f>6540/36</f>
+        <v>181.66666666666666</v>
+      </c>
+      <c r="F233" s="5">
+        <f>1724/36</f>
+        <v>47.888888888888886</v>
+      </c>
+      <c r="G233" s="5">
+        <f>6540/(9941/60)</f>
+        <v>39.472890051302684</v>
+      </c>
+      <c r="H233" s="5">
+        <f>222/36</f>
+        <v>6.166666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O233"/>
+  <dimension ref="A1:O235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="I234" sqref="I234"/>
+      <selection activeCell="I235" sqref="I235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8022,6 +8022,70 @@
       <c r="H233" s="5">
         <f>222/36</f>
         <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A234" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B234" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="5">
+        <f>21253/126</f>
+        <v>168.67460317460316</v>
+      </c>
+      <c r="D234" s="4">
+        <f>C234/1440</f>
+        <v>0.11713514109347442</v>
+      </c>
+      <c r="E234" s="5">
+        <f>10476/126</f>
+        <v>83.142857142857139</v>
+      </c>
+      <c r="F234" s="5">
+        <f>3453/126</f>
+        <v>27.404761904761905</v>
+      </c>
+      <c r="G234" s="5">
+        <f>10476/(21253/60)</f>
+        <v>29.575118806756695</v>
+      </c>
+      <c r="H234" s="5">
+        <f>423/126</f>
+        <v>3.3571428571428572</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A235" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B235" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="5">
+        <f>8990/36</f>
+        <v>249.72222222222223</v>
+      </c>
+      <c r="D235" s="4">
+        <f>C235/1440</f>
+        <v>0.17341820987654322</v>
+      </c>
+      <c r="E235" s="5">
+        <f>6068/36</f>
+        <v>168.55555555555554</v>
+      </c>
+      <c r="F235" s="5">
+        <f>1619/36</f>
+        <v>44.972222222222221</v>
+      </c>
+      <c r="G235" s="5">
+        <f>6068/(8990/60)</f>
+        <v>40.49833147942158</v>
+      </c>
+      <c r="H235" s="5">
+        <f>203/36</f>
+        <v>5.6388888888888893</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O235"/>
+  <dimension ref="A1:O237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="I235" sqref="I235"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="J237" sqref="J237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8086,6 +8086,70 @@
       <c r="H235" s="5">
         <f>203/36</f>
         <v>5.6388888888888893</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A236" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B236" t="s">
+        <v>2</v>
+      </c>
+      <c r="C236" s="5">
+        <f>18541/126</f>
+        <v>147.15079365079364</v>
+      </c>
+      <c r="D236" s="4">
+        <f>C236/1440</f>
+        <v>0.10218805114638448</v>
+      </c>
+      <c r="E236" s="5">
+        <f>9217/126</f>
+        <v>73.150793650793645</v>
+      </c>
+      <c r="F236" s="5">
+        <f>3062/126</f>
+        <v>24.301587301587301</v>
+      </c>
+      <c r="G236" s="5">
+        <f>9217/(18541/60)</f>
+        <v>29.826870179601965</v>
+      </c>
+      <c r="H236" s="5">
+        <f>377/126</f>
+        <v>2.9920634920634921</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A237" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="5">
+        <f>7735/36</f>
+        <v>214.86111111111111</v>
+      </c>
+      <c r="D237" s="4">
+        <f>C237/1440</f>
+        <v>0.14920910493827161</v>
+      </c>
+      <c r="E237" s="5">
+        <f>4885/36</f>
+        <v>135.69444444444446</v>
+      </c>
+      <c r="F237" s="5">
+        <f>1295/36</f>
+        <v>35.972222222222221</v>
+      </c>
+      <c r="G237" s="5">
+        <f>4885/(7735/60)</f>
+        <v>37.892695539754364</v>
+      </c>
+      <c r="H237" s="5">
+        <f>182/36</f>
+        <v>5.0555555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O237"/>
+  <dimension ref="A1:O239"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="J237" sqref="J237"/>
+      <selection activeCell="J238" sqref="J238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7972,7 +7972,7 @@
         <v>171.4126984126984</v>
       </c>
       <c r="D232" s="4">
-        <f>C232/1440</f>
+        <f t="shared" ref="D232:D237" si="28">C232/1440</f>
         <v>0.11903659611992945</v>
       </c>
       <c r="E232" s="5">
@@ -8004,7 +8004,7 @@
         <v>276.13888888888891</v>
       </c>
       <c r="D233" s="4">
-        <f>C233/1440</f>
+        <f t="shared" si="28"/>
         <v>0.19176311728395062</v>
       </c>
       <c r="E233" s="5">
@@ -8036,7 +8036,7 @@
         <v>168.67460317460316</v>
       </c>
       <c r="D234" s="4">
-        <f>C234/1440</f>
+        <f t="shared" si="28"/>
         <v>0.11713514109347442</v>
       </c>
       <c r="E234" s="5">
@@ -8068,7 +8068,7 @@
         <v>249.72222222222223</v>
       </c>
       <c r="D235" s="4">
-        <f>C235/1440</f>
+        <f t="shared" si="28"/>
         <v>0.17341820987654322</v>
       </c>
       <c r="E235" s="5">
@@ -8100,7 +8100,7 @@
         <v>147.15079365079364</v>
       </c>
       <c r="D236" s="4">
-        <f>C236/1440</f>
+        <f t="shared" si="28"/>
         <v>0.10218805114638448</v>
       </c>
       <c r="E236" s="5">
@@ -8132,7 +8132,7 @@
         <v>214.86111111111111</v>
       </c>
       <c r="D237" s="4">
-        <f>C237/1440</f>
+        <f t="shared" si="28"/>
         <v>0.14920910493827161</v>
       </c>
       <c r="E237" s="5">
@@ -8148,6 +8148,70 @@
         <v>37.892695539754364</v>
       </c>
       <c r="H237" s="5">
+        <f>182/36</f>
+        <v>5.0555555555555554</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A238" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238" s="5">
+        <f>18010/126</f>
+        <v>142.93650793650792</v>
+      </c>
+      <c r="D238" s="4">
+        <f>C238/1440</f>
+        <v>9.9261463844797171E-2</v>
+      </c>
+      <c r="E238" s="5">
+        <f>9449/126</f>
+        <v>74.992063492063494</v>
+      </c>
+      <c r="F238" s="5">
+        <f>3011/126</f>
+        <v>23.896825396825395</v>
+      </c>
+      <c r="G238" s="5">
+        <f>9449/(18010/60)</f>
+        <v>31.479178234314269</v>
+      </c>
+      <c r="H238" s="5">
+        <f>386/126</f>
+        <v>3.0634920634920637</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A239" s="1">
+        <v>46019</v>
+      </c>
+      <c r="B239" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="5">
+        <f>8078/36</f>
+        <v>224.38888888888889</v>
+      </c>
+      <c r="D239" s="4">
+        <f>C239/1440</f>
+        <v>0.15582561728395061</v>
+      </c>
+      <c r="E239" s="5">
+        <f>5423/36</f>
+        <v>150.63888888888889</v>
+      </c>
+      <c r="F239" s="5">
+        <f>1472/36</f>
+        <v>40.888888888888886</v>
+      </c>
+      <c r="G239" s="5">
+        <f>5423/(8078/60)</f>
+        <v>40.279772220846745</v>
+      </c>
+      <c r="H239" s="5">
         <f>182/36</f>
         <v>5.0555555555555554</v>
       </c>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O239"/>
+  <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="J238" sqref="J238"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="K240" sqref="K240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8214,6 +8214,70 @@
       <c r="H239" s="5">
         <f>182/36</f>
         <v>5.0555555555555554</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A240" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B240" t="s">
+        <v>2</v>
+      </c>
+      <c r="C240" s="5">
+        <f>18300/126</f>
+        <v>145.23809523809524</v>
+      </c>
+      <c r="D240" s="4">
+        <f>C240/1440</f>
+        <v>0.10085978835978836</v>
+      </c>
+      <c r="E240" s="5">
+        <f>9427/126</f>
+        <v>74.817460317460316</v>
+      </c>
+      <c r="F240" s="5">
+        <f>3148/126</f>
+        <v>24.984126984126984</v>
+      </c>
+      <c r="G240" s="5">
+        <f>9427/(18300/60)</f>
+        <v>30.908196721311477</v>
+      </c>
+      <c r="H240" s="5">
+        <f>390/126</f>
+        <v>3.0952380952380953</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A241" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="5">
+        <f>8501/36</f>
+        <v>236.13888888888889</v>
+      </c>
+      <c r="D241" s="4">
+        <f>C241/1440</f>
+        <v>0.16398533950617283</v>
+      </c>
+      <c r="E241" s="5">
+        <f>5636/36</f>
+        <v>156.55555555555554</v>
+      </c>
+      <c r="F241" s="5">
+        <f>1547/36</f>
+        <v>42.972222222222221</v>
+      </c>
+      <c r="G241" s="5">
+        <f>5636/(8501/60)</f>
+        <v>39.778849547112102</v>
+      </c>
+      <c r="H241" s="5">
+        <f>189/36</f>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>

--- a/data/yyxl.xlsx
+++ b/data/yyxl.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$53</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -204,6 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,10 +510,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O241"/>
+  <dimension ref="A1:J395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="K240" sqref="K240"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -525,11 +527,9 @@
     <col min="7" max="7" width="24.375" style="5" customWidth="1"/>
     <col min="8" max="8" width="25.125" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="12.875" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,13 +556,8 @@
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>45901</v>
       </c>
@@ -570,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5">
-        <v>156.39370078740157</v>
+        <v>156.393700787402</v>
       </c>
       <c r="D2" s="3">
         <v>0.10860673665791776</v>
@@ -589,13 +584,8 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>45901</v>
       </c>
@@ -622,13 +612,8 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>45902</v>
       </c>
@@ -655,13 +640,8 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>45902</v>
       </c>
@@ -688,13 +668,8 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>45903</v>
       </c>
@@ -721,13 +696,8 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>45903</v>
       </c>
@@ -754,13 +724,8 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>45904</v>
       </c>
@@ -787,13 +752,8 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>45904</v>
       </c>
@@ -820,13 +780,8 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>45905</v>
       </c>
@@ -853,13 +808,8 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>45905</v>
       </c>
@@ -886,13 +836,8 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>45906</v>
       </c>
@@ -919,13 +864,8 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>45906</v>
       </c>
@@ -952,13 +892,8 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>45907</v>
       </c>
@@ -985,13 +920,8 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>45907</v>
       </c>
@@ -1018,13 +948,8 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>45908</v>
       </c>
@@ -1051,13 +976,8 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>45908</v>
       </c>
@@ -1084,13 +1004,8 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>45909</v>
       </c>
@@ -1117,13 +1032,8 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>45909</v>
       </c>
@@ -1150,13 +1060,8 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>45910</v>
       </c>
@@ -1183,13 +1088,8 @@
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>45910</v>
       </c>
@@ -1216,13 +1116,8 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>45911</v>
       </c>
@@ -1249,13 +1144,8 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>45911</v>
       </c>
@@ -1282,13 +1172,8 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>45912</v>
       </c>
@@ -1315,13 +1200,8 @@
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>45912</v>
       </c>
@@ -1348,13 +1228,8 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>45913</v>
       </c>
@@ -1381,13 +1256,8 @@
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>45913</v>
       </c>
@@ -1414,13 +1284,8 @@
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>45914</v>
       </c>
@@ -1447,13 +1312,8 @@
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>45914</v>
       </c>
@@ -1480,13 +1340,8 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>45915</v>
       </c>
@@ -1513,13 +1368,8 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>45915</v>
       </c>
@@ -1546,13 +1396,8 @@
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>45916</v>
       </c>
@@ -1579,13 +1424,8 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>45916</v>
       </c>
@@ -1612,13 +1452,8 @@
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>45917</v>
       </c>
@@ -1645,13 +1480,8 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>45917</v>
       </c>
@@ -1678,13 +1508,8 @@
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>45918</v>
       </c>
@@ -1711,13 +1536,8 @@
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>45918</v>
       </c>
@@ -1744,13 +1564,8 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>45919</v>
       </c>
@@ -1777,13 +1592,8 @@
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>45919</v>
       </c>
@@ -1810,13 +1620,8 @@
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>45920</v>
       </c>
@@ -1843,13 +1648,8 @@
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>45920</v>
       </c>
@@ -1876,13 +1676,8 @@
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>45921</v>
       </c>
@@ -1909,13 +1704,8 @@
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>45921</v>
       </c>
@@ -1942,13 +1732,8 @@
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>45922</v>
       </c>
@@ -1975,13 +1760,8 @@
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>45922</v>
       </c>
@@ -2008,13 +1788,8 @@
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45923</v>
       </c>
@@ -2041,13 +1816,8 @@
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45923</v>
       </c>
@@ -2074,13 +1844,8 @@
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>45924</v>
       </c>
@@ -2107,13 +1872,8 @@
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>45924</v>
       </c>
@@ -2140,13 +1900,8 @@
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>45925</v>
       </c>
@@ -2173,13 +1928,8 @@
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>45925</v>
       </c>
@@ -2206,13 +1956,8 @@
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>45926</v>
       </c>
@@ -2239,13 +1984,8 @@
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>45926</v>
       </c>
@@ -2272,13 +2012,8 @@
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>45927</v>
       </c>
@@ -2304,7 +2039,7 @@
         <v>3.2125984251968505</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>45927</v>
       </c>
@@ -2330,7 +2065,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>45928</v>
       </c>
@@ -2362,7 +2097,7 @@
         <v>3.0393700787401574</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>45928</v>
       </c>
@@ -2394,7 +2129,7 @@
         <v>5.7222222222222223</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>45929</v>
       </c>
@@ -2426,7 +2161,7 @@
         <v>2.9370078740157481</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>45929</v>
       </c>
@@ -2458,7 +2193,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>45930</v>
       </c>
@@ -2490,7 +2225,7 @@
         <v>3.7401574803149606</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>45930</v>
       </c>
@@ -2522,7 +2257,7 @@
         <v>6.0555555555555554</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>45931</v>
       </c>
@@ -2554,7 +2289,7 @@
         <v>3.4330708661417324</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>45931</v>
       </c>
@@ -2586,7 +2321,7 @@
         <v>4.9444444444444446</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>45932</v>
       </c>
@@ -8279,6 +8014,1572 @@
         <f>189/36</f>
         <v>5.25</v>
       </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A242" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B242" t="s">
+        <v>2</v>
+      </c>
+      <c r="C242" s="5">
+        <v>154.6950354609929</v>
+      </c>
+      <c r="D242" s="4">
+        <v>0.10742710795902284</v>
+      </c>
+      <c r="E242" s="5">
+        <v>82.129432624113477</v>
+      </c>
+      <c r="F242" s="5">
+        <v>30.5167375886525</v>
+      </c>
+      <c r="G242" s="5">
+        <v>31.854713002017235</v>
+      </c>
+      <c r="H242" s="5">
+        <v>3.3262411347517729</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A243" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="5">
+        <v>212.80555555555554</v>
+      </c>
+      <c r="D243" s="4">
+        <v>0.14778163580246911</v>
+      </c>
+      <c r="E243" s="5">
+        <v>139.89527777777778</v>
+      </c>
+      <c r="F243" s="5">
+        <v>37.893055555555556</v>
+      </c>
+      <c r="G243" s="5">
+        <v>39.443127529043203</v>
+      </c>
+      <c r="H243" s="5">
+        <v>4.6388888888888893</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A244" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B244" t="s">
+        <v>2</v>
+      </c>
+      <c r="C244" s="5">
+        <v>156.85106382978722</v>
+      </c>
+      <c r="D244" s="4">
+        <v>0.10892434988179668</v>
+      </c>
+      <c r="E244" s="5">
+        <v>80.802907801418428</v>
+      </c>
+      <c r="F244" s="5">
+        <v>30.093971631205672</v>
+      </c>
+      <c r="G244" s="5">
+        <v>30.909413998914808</v>
+      </c>
+      <c r="H244" s="5">
+        <v>3.4326241134751774</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A245" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="5">
+        <v>216.63888888888889</v>
+      </c>
+      <c r="D245" s="4">
+        <v>0.15044367283950616</v>
+      </c>
+      <c r="E245" s="5">
+        <v>131.46694444444447</v>
+      </c>
+      <c r="F245" s="5">
+        <v>36.265277777777776</v>
+      </c>
+      <c r="G245" s="5">
+        <v>36.410898833183751</v>
+      </c>
+      <c r="H245" s="5">
+        <v>5.1111111111111107</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A246" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B246" t="s">
+        <v>2</v>
+      </c>
+      <c r="C246" s="5">
+        <v>136.3758865248227</v>
+      </c>
+      <c r="D246" s="4">
+        <v>9.4705476753349102E-2</v>
+      </c>
+      <c r="E246" s="5">
+        <v>70.637730496453898</v>
+      </c>
+      <c r="F246" s="5">
+        <v>26.494397163120567</v>
+      </c>
+      <c r="G246" s="5">
+        <v>31.07780955847938</v>
+      </c>
+      <c r="H246" s="5">
+        <v>3.0921985815602837</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A247" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B247" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" s="5">
+        <v>183.13888888888889</v>
+      </c>
+      <c r="D247" s="4">
+        <v>0.12717978395061727</v>
+      </c>
+      <c r="E247" s="5">
+        <v>118.94222222222223</v>
+      </c>
+      <c r="F247" s="5">
+        <v>31.724444444444444</v>
+      </c>
+      <c r="G247" s="5">
+        <v>38.967875018959504</v>
+      </c>
+      <c r="H247" s="5">
+        <v>4.3611111111111107</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A248" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B248" t="s">
+        <v>2</v>
+      </c>
+      <c r="C248" s="5">
+        <v>135.73049645390071</v>
+      </c>
+      <c r="D248" s="4">
+        <v>9.4257289204097719E-2</v>
+      </c>
+      <c r="E248" s="5">
+        <v>71.347092198581564</v>
+      </c>
+      <c r="F248" s="5">
+        <v>26.81304964539007</v>
+      </c>
+      <c r="G248" s="5">
+        <v>31.539157696729024</v>
+      </c>
+      <c r="H248" s="5">
+        <v>3.1560283687943262</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A249" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="5">
+        <v>191.11111111111111</v>
+      </c>
+      <c r="D249" s="4">
+        <v>0.13271604938271606</v>
+      </c>
+      <c r="E249" s="5">
+        <v>123.31916666666666</v>
+      </c>
+      <c r="F249" s="5">
+        <v>33.134166666666665</v>
+      </c>
+      <c r="G249" s="5">
+        <v>38.716482558139532</v>
+      </c>
+      <c r="H249" s="5">
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A250" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B250" t="s">
+        <v>2</v>
+      </c>
+      <c r="C250" s="5">
+        <v>133.34042553191489</v>
+      </c>
+      <c r="D250" s="4">
+        <v>9.2597517730496445E-2</v>
+      </c>
+      <c r="E250" s="5">
+        <v>70.836737588652483</v>
+      </c>
+      <c r="F250" s="5">
+        <v>26.894113475177306</v>
+      </c>
+      <c r="G250" s="5">
+        <v>31.874836444869949</v>
+      </c>
+      <c r="H250" s="5">
+        <v>3.0709219858156027</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A251" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B251" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="5">
+        <v>165.38888888888889</v>
+      </c>
+      <c r="D251" s="4">
+        <v>0.1148533950617284</v>
+      </c>
+      <c r="E251" s="5">
+        <v>105.05166666666668</v>
+      </c>
+      <c r="F251" s="5">
+        <v>28.37027777777778</v>
+      </c>
+      <c r="G251" s="5">
+        <v>38.110782667114549</v>
+      </c>
+      <c r="H251" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A252" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B252" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" s="5">
+        <v>154.80141843971631</v>
+      </c>
+      <c r="D252" s="4">
+        <v>0.10750098502758078</v>
+      </c>
+      <c r="E252" s="5">
+        <v>84.175673758865258</v>
+      </c>
+      <c r="F252" s="5">
+        <v>30.786808510638295</v>
+      </c>
+      <c r="G252" s="5">
+        <v>32.6259311861456</v>
+      </c>
+      <c r="H252" s="5">
+        <v>3.5035460992907801</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A253" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B253" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="5">
+        <v>217.63888888888889</v>
+      </c>
+      <c r="D253" s="4">
+        <v>0.1511381172839506</v>
+      </c>
+      <c r="E253" s="5">
+        <v>143.63250000000002</v>
+      </c>
+      <c r="F253" s="5">
+        <v>38.480277777777779</v>
+      </c>
+      <c r="G253" s="5">
+        <v>39.597472878111041</v>
+      </c>
+      <c r="H253" s="5">
+        <v>4.7222222222222223</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A254" s="1">
+        <v>46060</v>
+      </c>
+      <c r="B254" t="s">
+        <v>2</v>
+      </c>
+      <c r="C254" s="5">
+        <v>152.81560283687944</v>
+      </c>
+      <c r="D254" s="4">
+        <v>0.10612194641449961</v>
+      </c>
+      <c r="E254" s="5">
+        <v>81.144751773049649</v>
+      </c>
+      <c r="F254" s="5">
+        <v>29.980354609929076</v>
+      </c>
+      <c r="G254" s="5">
+        <v>31.859869123311828</v>
+      </c>
+      <c r="H254" s="5">
+        <v>3.3404255319148937</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A255" s="1">
+        <v>46060</v>
+      </c>
+      <c r="B255" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="5">
+        <v>219.30555555555554</v>
+      </c>
+      <c r="D255" s="4">
+        <v>0.15229552469135801</v>
+      </c>
+      <c r="E255" s="5">
+        <v>134.41055555555556</v>
+      </c>
+      <c r="F255" s="5">
+        <v>36.601388888888891</v>
+      </c>
+      <c r="G255" s="5">
+        <v>36.773502216592775</v>
+      </c>
+      <c r="H255" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A256" s="1">
+        <v>46061</v>
+      </c>
+      <c r="B256" t="s">
+        <v>2</v>
+      </c>
+      <c r="C256" s="5">
+        <v>149.49645390070921</v>
+      </c>
+      <c r="D256" s="4">
+        <v>0.10381698187549251</v>
+      </c>
+      <c r="E256" s="5">
+        <v>78.56978723404255</v>
+      </c>
+      <c r="F256" s="5">
+        <v>29.772411347517728</v>
+      </c>
+      <c r="G256" s="5">
+        <v>31.5337729493809</v>
+      </c>
+      <c r="H256" s="5">
+        <v>3.2056737588652484</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A257" s="1">
+        <v>46061</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="5">
+        <v>197.61111111111111</v>
+      </c>
+      <c r="D257" s="4">
+        <v>0.13722993827160493</v>
+      </c>
+      <c r="E257" s="5">
+        <v>129.14444444444445</v>
+      </c>
+      <c r="F257" s="5">
+        <v>34.617777777777775</v>
+      </c>
+      <c r="G257" s="5">
+        <v>39.211695248805171</v>
+      </c>
+      <c r="H257" s="5">
+        <v>4.4722222222222223</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A258" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B258" t="s">
+        <v>2</v>
+      </c>
+      <c r="C258" s="5">
+        <v>165.50354609929079</v>
+      </c>
+      <c r="D258" s="4">
+        <v>0.11493301812450749</v>
+      </c>
+      <c r="E258" s="5">
+        <v>89.579219858156023</v>
+      </c>
+      <c r="F258" s="5">
+        <v>33.477234042553192</v>
+      </c>
+      <c r="G258" s="5">
+        <v>32.475154268083649</v>
+      </c>
+      <c r="H258" s="5">
+        <v>3.8226950354609928</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A259" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B259" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" s="5">
+        <v>216.30555555555554</v>
+      </c>
+      <c r="D259" s="4">
+        <v>0.15021219135802469</v>
+      </c>
+      <c r="E259" s="5">
+        <v>133.34416666666667</v>
+      </c>
+      <c r="F259" s="5">
+        <v>35.777500000000003</v>
+      </c>
+      <c r="G259" s="5">
+        <v>36.987723128290746</v>
+      </c>
+      <c r="H259" s="5">
+        <v>4.6944444444444446</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A260" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B260" t="s">
+        <v>2</v>
+      </c>
+      <c r="C260" s="5">
+        <v>175.01418439716312</v>
+      </c>
+      <c r="D260" s="4">
+        <v>0.12153762805358551</v>
+      </c>
+      <c r="E260" s="5">
+        <v>88.696241134751773</v>
+      </c>
+      <c r="F260" s="5">
+        <v>32.868014184397168</v>
+      </c>
+      <c r="G260" s="5">
+        <v>30.407675163107346</v>
+      </c>
+      <c r="H260" s="5">
+        <v>3.5886524822695036</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A261" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B261" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" s="5">
+        <v>204.75</v>
+      </c>
+      <c r="D261" s="4">
+        <v>0.14218749999999999</v>
+      </c>
+      <c r="E261" s="5">
+        <v>139.07388888888889</v>
+      </c>
+      <c r="F261" s="5">
+        <v>37.49861111111111</v>
+      </c>
+      <c r="G261" s="5">
+        <v>40.754253154253156</v>
+      </c>
+      <c r="H261" s="5">
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A262" s="1">
+        <v>46064</v>
+      </c>
+      <c r="B262" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" s="5">
+        <v>161.44680851063831</v>
+      </c>
+      <c r="D262" s="4">
+        <v>0.11211583924349883</v>
+      </c>
+      <c r="E262" s="5">
+        <v>87.886241134751771</v>
+      </c>
+      <c r="F262" s="5">
+        <v>32.641560283687944</v>
+      </c>
+      <c r="G262" s="5">
+        <v>32.661992619926195</v>
+      </c>
+      <c r="H262" s="5">
+        <v>3.602836879432624</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A263" s="1">
+        <v>46064</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" s="5">
+        <v>183.75</v>
+      </c>
+      <c r="D263" s="4">
+        <v>0.12760416666666666</v>
+      </c>
+      <c r="E263" s="5">
+        <v>117.22055555555555</v>
+      </c>
+      <c r="F263" s="5">
+        <v>33.527222222222221</v>
+      </c>
+      <c r="G263" s="5">
+        <v>38.276099773242628</v>
+      </c>
+      <c r="H263" s="5">
+        <v>4.083333333333333</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A264" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B264" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" s="5">
+        <v>140.19148936170214</v>
+      </c>
+      <c r="D264" s="4">
+        <v>9.7355200945626483E-2</v>
+      </c>
+      <c r="E264" s="5">
+        <v>76.590709219858155</v>
+      </c>
+      <c r="F264" s="5">
+        <v>28.48382978723404</v>
+      </c>
+      <c r="G264" s="5">
+        <v>32.779754135680683</v>
+      </c>
+      <c r="H264" s="5">
+        <v>3.2695035460992909</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A265" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" s="5">
+        <v>156.63888888888889</v>
+      </c>
+      <c r="D265" s="4">
+        <v>0.1087770061728395</v>
+      </c>
+      <c r="E265" s="5">
+        <v>104.81416666666667</v>
+      </c>
+      <c r="F265" s="5">
+        <v>30.519722222222224</v>
+      </c>
+      <c r="G265" s="5">
+        <v>40.14871431104806</v>
+      </c>
+      <c r="H265" s="5">
+        <v>3.3055555555555554</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A266" s="1">
+        <v>46066</v>
+      </c>
+      <c r="B266" t="s">
+        <v>2</v>
+      </c>
+      <c r="C266" s="5">
+        <v>140.50354609929079</v>
+      </c>
+      <c r="D266" s="4">
+        <v>9.7571907013396381E-2</v>
+      </c>
+      <c r="E266" s="5">
+        <v>75.454964539007094</v>
+      </c>
+      <c r="F266" s="5">
+        <v>28.181985815602836</v>
+      </c>
+      <c r="G266" s="5">
+        <v>32.221947402957952</v>
+      </c>
+      <c r="H266" s="5">
+        <v>3.0851063829787235</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A267" s="1">
+        <v>46066</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" s="5">
+        <v>131.11111111111111</v>
+      </c>
+      <c r="D267" s="4">
+        <v>9.1049382716049385E-2</v>
+      </c>
+      <c r="E267" s="5">
+        <v>90.831388888888881</v>
+      </c>
+      <c r="F267" s="5">
+        <v>24.625833333333333</v>
+      </c>
+      <c r="G267" s="5">
+        <v>41.566906779661011</v>
+      </c>
+      <c r="H267" s="5">
+        <v>2.9444444444444446</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A268" s="1">
+        <v>46067</v>
+      </c>
+      <c r="B268" t="s">
+        <v>2</v>
+      </c>
+      <c r="C268" s="5">
+        <v>115.24113475177305</v>
+      </c>
+      <c r="D268" s="4">
+        <v>8.0028565799842397E-2</v>
+      </c>
+      <c r="E268" s="5">
+        <v>62.2322695035461</v>
+      </c>
+      <c r="F268" s="5">
+        <v>23.186595744680851</v>
+      </c>
+      <c r="G268" s="5">
+        <v>32.401070835128316</v>
+      </c>
+      <c r="H268" s="5">
+        <v>2.5886524822695036</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A269" s="1">
+        <v>46067</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="5">
+        <v>104.83333333333333</v>
+      </c>
+      <c r="D269" s="4">
+        <v>7.2800925925925922E-2</v>
+      </c>
+      <c r="E269" s="5">
+        <v>80.362500000000011</v>
+      </c>
+      <c r="F269" s="5">
+        <v>23.709444444444443</v>
+      </c>
+      <c r="G269" s="5">
+        <v>45.994435612082675</v>
+      </c>
+      <c r="H269" s="5">
+        <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A270" s="1">
+        <v>46068</v>
+      </c>
+      <c r="B270" t="s">
+        <v>2</v>
+      </c>
+      <c r="C270" s="5">
+        <v>112.24299065420561</v>
+      </c>
+      <c r="D270" s="4">
+        <v>7.7946521287642789E-2</v>
+      </c>
+      <c r="E270" s="5">
+        <v>64.136542056074759</v>
+      </c>
+      <c r="F270" s="5">
+        <v>23.745233644859812</v>
+      </c>
+      <c r="G270" s="5">
+        <v>34.284479600333057</v>
+      </c>
+      <c r="H270" s="5">
+        <v>2.7196261682242993</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A271" s="1">
+        <v>46068</v>
+      </c>
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="5">
+        <v>48.944444444444443</v>
+      </c>
+      <c r="D271" s="4">
+        <v>3.3989197530864199E-2</v>
+      </c>
+      <c r="E271" s="5">
+        <v>37.666944444444447</v>
+      </c>
+      <c r="F271" s="5">
+        <v>11.809444444444445</v>
+      </c>
+      <c r="G271" s="5">
+        <v>46.175141884222477</v>
+      </c>
+      <c r="H271" s="5">
+        <v>1.3611111111111112</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A272" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2</v>
+      </c>
+      <c r="C272" s="5">
+        <v>82.289719626168221</v>
+      </c>
+      <c r="D272" s="4">
+        <v>5.7145638629283485E-2</v>
+      </c>
+      <c r="E272" s="5">
+        <v>45.112616822429906</v>
+      </c>
+      <c r="F272" s="5">
+        <v>16.544579439252335</v>
+      </c>
+      <c r="G272" s="5">
+        <v>32.893015332197614</v>
+      </c>
+      <c r="H272" s="5">
+        <v>1.7757009345794392</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A273" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" s="5">
+        <v>20.333333333333332</v>
+      </c>
+      <c r="D273" s="4">
+        <v>1.412037037037037E-2</v>
+      </c>
+      <c r="E273" s="5">
+        <v>18.807500000000001</v>
+      </c>
+      <c r="F273" s="5">
+        <v>4.5102777777777776</v>
+      </c>
+      <c r="G273" s="5">
+        <v>55.497540983606562</v>
+      </c>
+      <c r="H273" s="5">
+        <v>0.47222222222222221</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A274" s="1">
+        <v>46070</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274" s="5">
+        <v>62.168224299065422</v>
+      </c>
+      <c r="D274" s="4">
+        <v>4.3172377985462099E-2</v>
+      </c>
+      <c r="E274" s="5">
+        <v>34.110280373831777</v>
+      </c>
+      <c r="F274" s="5">
+        <v>12.419906542056076</v>
+      </c>
+      <c r="G274" s="5">
+        <v>32.920625375826823</v>
+      </c>
+      <c r="H274" s="5">
+        <v>1.308411214953271</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A275" s="1">
+        <v>46070</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" s="5">
+        <v>39.166666666666664</v>
+      </c>
+      <c r="D275" s="4">
+        <v>2.7199074074074073E-2</v>
+      </c>
+      <c r="E275" s="5">
+        <v>25.56527777777778</v>
+      </c>
+      <c r="F275" s="5">
+        <v>6.8783333333333339</v>
+      </c>
+      <c r="G275" s="5">
+        <v>39.163829787234043</v>
+      </c>
+      <c r="H275" s="5">
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A276" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B276" t="s">
+        <v>2</v>
+      </c>
+      <c r="C276" s="5">
+        <v>80.168224299065415</v>
+      </c>
+      <c r="D276" s="4">
+        <v>5.5672377985462096E-2</v>
+      </c>
+      <c r="E276" s="5">
+        <v>44.159065420560751</v>
+      </c>
+      <c r="F276" s="5">
+        <v>16.027009345794394</v>
+      </c>
+      <c r="G276" s="5">
+        <v>33.049801818605737</v>
+      </c>
+      <c r="H276" s="5">
+        <v>1.7102803738317758</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A277" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="5">
+        <v>42.888888888888886</v>
+      </c>
+      <c r="D277" s="4">
+        <v>2.978395061728395E-2</v>
+      </c>
+      <c r="E277" s="5">
+        <v>33.483333333333334</v>
+      </c>
+      <c r="F277" s="5">
+        <v>9.6930555555555546</v>
+      </c>
+      <c r="G277" s="5">
+        <v>46.8419689119171</v>
+      </c>
+      <c r="H277" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A278" s="1">
+        <v>46072</v>
+      </c>
+      <c r="B278" t="s">
+        <v>2</v>
+      </c>
+      <c r="C278" s="5">
+        <v>79.560747663551396</v>
+      </c>
+      <c r="D278" s="4">
+        <v>5.5250519210799584E-2</v>
+      </c>
+      <c r="E278" s="5">
+        <v>46.943551401869158</v>
+      </c>
+      <c r="F278" s="5">
+        <v>17.543738317757011</v>
+      </c>
+      <c r="G278" s="5">
+        <v>35.402043932808645</v>
+      </c>
+      <c r="H278" s="5">
+        <v>1.766355140186916</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A279" s="1">
+        <v>46072</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" s="5">
+        <v>46.416666666666664</v>
+      </c>
+      <c r="D279" s="4">
+        <v>3.2233796296296295E-2</v>
+      </c>
+      <c r="E279" s="5">
+        <v>29.619166666666665</v>
+      </c>
+      <c r="F279" s="5">
+        <v>7.5836111111111109</v>
+      </c>
+      <c r="G279" s="5">
+        <v>38.28689407540395</v>
+      </c>
+      <c r="H279" s="5">
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A280" s="1">
+        <v>46073</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2</v>
+      </c>
+      <c r="C280" s="5">
+        <v>88.635514018691595</v>
+      </c>
+      <c r="D280" s="4">
+        <v>6.155244029075805E-2</v>
+      </c>
+      <c r="E280" s="5">
+        <v>52.364672897196265</v>
+      </c>
+      <c r="F280" s="5">
+        <v>19.136448598130841</v>
+      </c>
+      <c r="G280" s="5">
+        <v>35.447195276254746</v>
+      </c>
+      <c r="H280" s="5">
+        <v>2.02803738317757</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A281" s="1">
+        <v>46073</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="5">
+        <v>48.138888888888886</v>
+      </c>
+      <c r="D281" s="4">
+        <v>3.3429783950617284E-2</v>
+      </c>
+      <c r="E281" s="5">
+        <v>33.876111111111108</v>
+      </c>
+      <c r="F281" s="5">
+        <v>8.6925000000000008</v>
+      </c>
+      <c r="G281" s="5">
+        <v>42.222965954991345</v>
+      </c>
+      <c r="H281" s="5">
+        <v>1.0555555555555556</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A282" s="1">
+        <v>46074</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2</v>
+      </c>
+      <c r="C282" s="5">
+        <v>97.44859813084112</v>
+      </c>
+      <c r="D282" s="4">
+        <v>6.7672637590861895E-2</v>
+      </c>
+      <c r="E282" s="5">
+        <v>55.866869158878508</v>
+      </c>
+      <c r="F282" s="5">
+        <v>20.694953271028037</v>
+      </c>
+      <c r="G282" s="5">
+        <v>34.397746235734154</v>
+      </c>
+      <c r="H282" s="5">
+        <v>2.3831775700934581</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A283" s="1">
+        <v>46074</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" s="5">
+        <v>55.305555555555557</v>
+      </c>
+      <c r="D283" s="4">
+        <v>3.8406635802469134E-2</v>
+      </c>
+      <c r="E283" s="5">
+        <v>41.728333333333332</v>
+      </c>
+      <c r="F283" s="5">
+        <v>11.626666666666667</v>
+      </c>
+      <c r="G283" s="5">
+        <v>45.270316423907587</v>
+      </c>
+      <c r="H283" s="5">
+        <v>1.5555555555555556</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A284" s="1">
+        <v>46075</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2</v>
+      </c>
+      <c r="C284" s="5">
+        <v>112.32710280373831</v>
+      </c>
+      <c r="D284" s="4">
+        <v>7.8004932502596047E-2</v>
+      </c>
+      <c r="E284" s="5">
+        <v>65.91887850467289</v>
+      </c>
+      <c r="F284" s="5">
+        <v>24.573644859813086</v>
+      </c>
+      <c r="G284" s="5">
+        <v>35.210849488310174</v>
+      </c>
+      <c r="H284" s="5">
+        <v>2.5887850467289719</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A285" s="1">
+        <v>46075</v>
+      </c>
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="5">
+        <v>58.305555555555557</v>
+      </c>
+      <c r="D285" s="4">
+        <v>4.0489969135802467E-2</v>
+      </c>
+      <c r="E285" s="5">
+        <v>40.166944444444447</v>
+      </c>
+      <c r="F285" s="5">
+        <v>11.313611111111111</v>
+      </c>
+      <c r="G285" s="5">
+        <v>41.33425440686041</v>
+      </c>
+      <c r="H285" s="5">
+        <v>1.3611111111111112</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A286" s="1">
+        <v>46076</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2</v>
+      </c>
+      <c r="C286" s="5">
+        <v>121.1588785046729</v>
+      </c>
+      <c r="D286" s="4">
+        <v>8.4138110072689509E-2</v>
+      </c>
+      <c r="E286" s="5">
+        <v>69.024392523364483</v>
+      </c>
+      <c r="F286" s="5">
+        <v>25.550654205607476</v>
+      </c>
+      <c r="G286" s="5">
+        <v>34.18208886146251</v>
+      </c>
+      <c r="H286" s="5">
+        <v>2.9906542056074765</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A287" s="1">
+        <v>46076</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" s="5">
+        <v>86.5</v>
+      </c>
+      <c r="D287" s="4">
+        <v>6.0069444444444446E-2</v>
+      </c>
+      <c r="E287" s="5">
+        <v>61.698055555555555</v>
+      </c>
+      <c r="F287" s="5">
+        <v>17.139444444444443</v>
+      </c>
+      <c r="G287" s="5">
+        <v>42.796339113680155</v>
+      </c>
+      <c r="H287" s="5">
+        <v>1.9444444444444444</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A288" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B288" t="s">
+        <v>2</v>
+      </c>
+      <c r="C288" s="5">
+        <v>165.44859813084113</v>
+      </c>
+      <c r="D288" s="4">
+        <v>0.11489485981308412</v>
+      </c>
+      <c r="E288" s="5">
+        <v>87.849906542056075</v>
+      </c>
+      <c r="F288" s="5">
+        <v>32.318971962616821</v>
+      </c>
+      <c r="G288" s="5">
+        <v>31.858803592611423</v>
+      </c>
+      <c r="H288" s="5">
+        <v>3.5794392523364484</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A289" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="5">
+        <v>141</v>
+      </c>
+      <c r="D289" s="4">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="E289" s="5">
+        <v>80.940555555555562</v>
+      </c>
+      <c r="F289" s="5">
+        <v>21.985833333333332</v>
+      </c>
+      <c r="G289" s="5">
+        <v>34.442789598108753</v>
+      </c>
+      <c r="H289" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H290" s="9"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H291" s="9"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H292" s="9"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H293" s="9"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H294" s="9"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H295" s="9"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H296" s="9"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H297" s="9"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H298" s="9"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H299" s="9"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H300" s="9"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H301" s="9"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H302" s="9"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H303" s="9"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H304" s="9"/>
+    </row>
+    <row r="305" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H305" s="9"/>
+    </row>
+    <row r="306" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H306" s="9"/>
+    </row>
+    <row r="307" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H307" s="9"/>
+    </row>
+    <row r="308" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H308" s="9"/>
+    </row>
+    <row r="309" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H309" s="9"/>
+    </row>
+    <row r="310" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H310" s="9"/>
+    </row>
+    <row r="311" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H311" s="9"/>
+    </row>
+    <row r="312" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H312" s="9"/>
+    </row>
+    <row r="313" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H313" s="9"/>
+    </row>
+    <row r="314" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H314" s="9"/>
+    </row>
+    <row r="315" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H315" s="9"/>
+    </row>
+    <row r="316" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H316" s="9"/>
+    </row>
+    <row r="317" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H317" s="9"/>
+    </row>
+    <row r="318" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H318" s="9"/>
+    </row>
+    <row r="319" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H319" s="9"/>
+    </row>
+    <row r="320" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H320" s="9"/>
+    </row>
+    <row r="321" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H321" s="9"/>
+    </row>
+    <row r="322" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H322" s="9"/>
+    </row>
+    <row r="323" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H323" s="9"/>
+    </row>
+    <row r="324" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H324" s="9"/>
+    </row>
+    <row r="325" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H325" s="9"/>
+    </row>
+    <row r="326" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H326" s="9"/>
+    </row>
+    <row r="327" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H327" s="9"/>
+    </row>
+    <row r="328" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H328" s="9"/>
+    </row>
+    <row r="329" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H329" s="9"/>
+    </row>
+    <row r="330" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H330" s="9"/>
+    </row>
+    <row r="331" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H331" s="9"/>
+    </row>
+    <row r="332" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H332" s="9"/>
+    </row>
+    <row r="333" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H333" s="9"/>
+    </row>
+    <row r="334" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H334" s="9"/>
+    </row>
+    <row r="335" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H335" s="9"/>
+    </row>
+    <row r="336" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H336" s="9"/>
+    </row>
+    <row r="337" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H337" s="9"/>
+    </row>
+    <row r="338" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H338" s="9"/>
+    </row>
+    <row r="339" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H339" s="9"/>
+    </row>
+    <row r="340" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H340" s="9"/>
+    </row>
+    <row r="341" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H341" s="9"/>
+    </row>
+    <row r="342" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H342" s="9"/>
+    </row>
+    <row r="343" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H343" s="9"/>
+    </row>
+    <row r="344" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H344" s="9"/>
+    </row>
+    <row r="345" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H345" s="9"/>
+    </row>
+    <row r="346" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H346" s="9"/>
+    </row>
+    <row r="347" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H347" s="9"/>
+    </row>
+    <row r="348" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H348" s="9"/>
+    </row>
+    <row r="349" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H349" s="9"/>
+    </row>
+    <row r="350" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H350" s="9"/>
+    </row>
+    <row r="351" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H351" s="9"/>
+    </row>
+    <row r="352" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H352" s="9"/>
+    </row>
+    <row r="353" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H353" s="9"/>
+    </row>
+    <row r="354" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H354" s="9"/>
+    </row>
+    <row r="355" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H355" s="9"/>
+    </row>
+    <row r="356" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H356" s="9"/>
+    </row>
+    <row r="357" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H357" s="9"/>
+    </row>
+    <row r="358" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H358" s="9"/>
+    </row>
+    <row r="359" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H359" s="9"/>
+    </row>
+    <row r="360" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H360" s="9"/>
+    </row>
+    <row r="361" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H361" s="9"/>
+    </row>
+    <row r="362" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H362" s="9"/>
+    </row>
+    <row r="363" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H363" s="9"/>
+    </row>
+    <row r="364" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H364" s="9"/>
+    </row>
+    <row r="365" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H365" s="9"/>
+    </row>
+    <row r="366" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H366" s="9"/>
+    </row>
+    <row r="367" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H367" s="9"/>
+    </row>
+    <row r="368" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H368" s="9"/>
+    </row>
+    <row r="369" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H369" s="9"/>
+    </row>
+    <row r="370" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H370" s="9"/>
+    </row>
+    <row r="371" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H371" s="9"/>
+    </row>
+    <row r="372" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H372" s="9"/>
+    </row>
+    <row r="373" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H373" s="9"/>
+    </row>
+    <row r="374" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H374" s="9"/>
+    </row>
+    <row r="375" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H375" s="9"/>
+    </row>
+    <row r="376" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H376" s="9"/>
+    </row>
+    <row r="377" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H377" s="9"/>
+    </row>
+    <row r="378" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H378" s="9"/>
+    </row>
+    <row r="379" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H379" s="9"/>
+    </row>
+    <row r="380" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H380" s="9"/>
+    </row>
+    <row r="381" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H381" s="9"/>
+    </row>
+    <row r="382" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H382" s="9"/>
+    </row>
+    <row r="383" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H383" s="9"/>
+    </row>
+    <row r="384" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H384" s="9"/>
+    </row>
+    <row r="385" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H385" s="9"/>
+    </row>
+    <row r="386" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H386" s="9"/>
+    </row>
+    <row r="387" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H387" s="9"/>
+    </row>
+    <row r="388" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H388" s="9"/>
+    </row>
+    <row r="389" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H389" s="9"/>
+    </row>
+    <row r="390" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H390" s="9"/>
+    </row>
+    <row r="391" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H391" s="9"/>
+    </row>
+    <row r="392" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H392" s="9"/>
+    </row>
+    <row r="393" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H393" s="9"/>
+    </row>
+    <row r="394" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H394" s="9"/>
+    </row>
+    <row r="395" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H395" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
